--- a/Documents/十五音教材/閩南語之四聲八調與變調規則.xlsx
+++ b/Documents/十五音教材/閩南語之四聲八調與變調規則.xlsx
@@ -8,27 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\Documents\十五音教材\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF8DB6B5-D508-4D5D-A20E-3A9D4BA67899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10BF55D7-62FD-4909-A986-B30432AB42CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" tabRatio="673" activeTab="7" xr2:uid="{BD087EFD-0EA9-4677-AB62-D11AE02F8C6C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" tabRatio="673" firstSheet="1" activeTab="5" xr2:uid="{BD087EFD-0EA9-4677-AB62-D11AE02F8C6C}"/>
   </bookViews>
   <sheets>
     <sheet name="台羅八調轉換" sheetId="9" r:id="rId1"/>
     <sheet name="變調例【貨車】" sheetId="7" r:id="rId2"/>
-    <sheet name="變調例【陳都靈】" sheetId="8" r:id="rId3"/>
-    <sheet name="四聲八調定義" sheetId="5" r:id="rId4"/>
-    <sheet name="四聲八調 (聲調值編號-君韻)" sheetId="11" r:id="rId5"/>
-    <sheet name="四聲八調 (聲調值編號-東韻)" sheetId="10" r:id="rId6"/>
-    <sheet name="四聲八調之文讀音" sheetId="1" r:id="rId7"/>
-    <sheet name="四聲八調之文讀音 (標調值)" sheetId="4" r:id="rId8"/>
-    <sheet name="四聲八調之白話音" sheetId="2" r:id="rId9"/>
-    <sheet name="簡上仁之四聲八調" sheetId="3" r:id="rId10"/>
-    <sheet name="漢字注音" sheetId="6" r:id="rId11"/>
+    <sheet name="變調例【貨車】 (2)" sheetId="12" r:id="rId3"/>
+    <sheet name="變調例【陳都靈】" sheetId="8" r:id="rId4"/>
+    <sheet name="四聲八調定義" sheetId="5" r:id="rId5"/>
+    <sheet name="調號與調符" sheetId="13" r:id="rId6"/>
+    <sheet name="四聲八調 (聲調值編號-君韻)" sheetId="11" r:id="rId7"/>
+    <sheet name="四聲八調 (聲調值編號-東韻)" sheetId="10" r:id="rId8"/>
+    <sheet name="四聲八調之文讀音" sheetId="1" r:id="rId9"/>
+    <sheet name="四聲八調之文讀音 (標調值)" sheetId="4" r:id="rId10"/>
+    <sheet name="四聲八調之白話音" sheetId="2" r:id="rId11"/>
+    <sheet name="簡上仁之四聲八調" sheetId="3" r:id="rId12"/>
+    <sheet name="漢字注音" sheetId="6" r:id="rId13"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId12"/>
-    <externalReference r:id="rId13"/>
     <externalReference r:id="rId14"/>
+    <externalReference r:id="rId15"/>
+    <externalReference r:id="rId16"/>
   </externalReferences>
   <definedNames>
     <definedName name="十五音韻母">'[1]十五音-韻母'!$C$5:$C$54</definedName>
@@ -44,9 +46,10 @@
     <definedName name="鍵盤位置">#REF!</definedName>
     <definedName name="韻母對照表">[1]韻母對照表!$B$6:$K$105</definedName>
     <definedName name="韻母碼表">[1]韻母碼!$F$5:$M$78</definedName>
-    <definedName name="顯示注音輸入" localSheetId="10">[2]env!$C$10</definedName>
+    <definedName name="顯示注音輸入" localSheetId="12">[2]env!$C$10</definedName>
     <definedName name="顯示注音輸入" localSheetId="1">[2]env!$C$10</definedName>
     <definedName name="顯示注音輸入" localSheetId="2">[2]env!$C$10</definedName>
+    <definedName name="顯示注音輸入" localSheetId="3">[2]env!$C$10</definedName>
     <definedName name="顯示注音輸入">[3]env!$C$10</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="503">
   <si>
     <t>滑</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2022,12 +2025,162 @@
     <t>泉州腔</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>hue</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="36"/>
+        <color theme="3" tint="0.499984740745262"/>
+        <rFont val="Sitka Text Semibold"/>
+      </rPr>
+      <t>3-2</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>輕聲</t>
+  </si>
+  <si>
+    <t>--◌</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>á</t>
+  </si>
+  <si>
+    <t>à</t>
+  </si>
+  <si>
+    <t>ah</t>
+  </si>
+  <si>
+    <t>â</t>
+  </si>
+  <si>
+    <t>ā</t>
+  </si>
+  <si>
+    <t>a̍h</t>
+  </si>
+  <si>
+    <t>例字</t>
+  </si>
+  <si>
+    <t>總「是」</t>
+  </si>
+  <si>
+    <t>調號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>調符</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>調名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ǎ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">kun </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kún</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kùn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">kut </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">kûn </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kūn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ku̍t </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>kun</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="36"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+        <rFont val="Noto Serif TC Black"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kun2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kun3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>kut</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="36"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+        <rFont val="Noto Serif TC Black"/>
+        <family val="1"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kun5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kun7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kut8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>si</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>si0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="71">
+  <fonts count="74">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2537,8 +2690,26 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="36"/>
+      <color theme="3" tint="0.499984740745262"/>
+      <name val="Sitka Text Semibold"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="Noto Serif TC Black"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="Noto Serif TC Black"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2575,8 +2746,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -2811,6 +2994,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2818,7 +3016,7 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3102,24 +3300,6 @@
     <xf numFmtId="0" fontId="61" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3165,12 +3345,153 @@
     <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="60" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="一般 2" xfId="1" xr:uid="{9BCE4600-258B-4453-A56E-494838A00B4F}"/>
   </cellStyles>
-  <dxfs count="68">
+  <dxfs count="76">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -3989,6 +4310,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFFCC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -17576,10 +17902,10 @@
     <col min="2" max="2" width="83.25" style="24" customWidth="1"/>
     <col min="3" max="3" width="3.125" style="24" customWidth="1"/>
     <col min="4" max="4" width="6.5" style="91" customWidth="1"/>
-    <col min="5" max="5" width="43.25" style="112" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.875" style="105" customWidth="1"/>
+    <col min="5" max="5" width="43.25" style="106" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.875" style="99" customWidth="1"/>
     <col min="7" max="7" width="6.625" style="90" customWidth="1"/>
-    <col min="8" max="8" width="11.5" style="105" customWidth="1"/>
+    <col min="8" max="8" width="11.5" style="99" customWidth="1"/>
     <col min="9" max="9" width="9" style="88"/>
     <col min="10" max="10" width="16.125" style="90" customWidth="1"/>
     <col min="11" max="11" width="6.625" style="90" customWidth="1"/>
@@ -17588,7 +17914,7 @@
     <col min="14" max="14" width="5.5" style="89" customWidth="1"/>
     <col min="15" max="15" width="4.375" style="94" customWidth="1"/>
     <col min="16" max="16" width="21.875" style="90" customWidth="1"/>
-    <col min="17" max="17" width="5.375" style="109" customWidth="1"/>
+    <col min="17" max="17" width="5.375" style="103" customWidth="1"/>
     <col min="18" max="19" width="21.875" style="90" customWidth="1"/>
     <col min="20" max="20" width="21.875" style="91" customWidth="1"/>
     <col min="21" max="16384" width="9" style="88"/>
@@ -17600,7 +17926,7 @@
       </c>
     </row>
     <row r="3" spans="2:19" ht="31.5" customHeight="1">
-      <c r="N3" s="99">
+      <c r="N3" s="114">
         <v>1</v>
       </c>
       <c r="P3" s="97" t="s">
@@ -17617,32 +17943,32 @@
       <c r="D4" s="91">
         <v>1</v>
       </c>
-      <c r="E4" s="112" t="s">
+      <c r="E4" s="106" t="s">
         <v>322</v>
       </c>
-      <c r="F4" s="105" t="s">
+      <c r="F4" s="99" t="s">
         <v>411</v>
       </c>
-      <c r="G4" s="108" t="s">
+      <c r="G4" s="102" t="s">
         <v>414</v>
       </c>
-      <c r="H4" s="105" t="s">
+      <c r="H4" s="99" t="s">
         <v>243</v>
       </c>
       <c r="J4" s="90" t="s">
         <v>323</v>
       </c>
-      <c r="K4" s="108" t="s">
+      <c r="K4" s="102" t="s">
         <v>414</v>
       </c>
       <c r="L4" s="90" t="s">
         <v>324</v>
       </c>
-      <c r="N4" s="99"/>
+      <c r="N4" s="114"/>
       <c r="P4" s="98" t="s">
         <v>325</v>
       </c>
-      <c r="Q4" s="110" t="s">
+      <c r="Q4" s="104" t="s">
         <v>414</v>
       </c>
       <c r="R4" s="98" t="s">
@@ -17653,22 +17979,22 @@
       </c>
     </row>
     <row r="5" spans="2:19" ht="31.5" customHeight="1">
-      <c r="F5" s="105" t="s">
+      <c r="F5" s="99" t="s">
         <v>401</v>
       </c>
-      <c r="G5" s="107"/>
-      <c r="H5" s="105" t="s">
+      <c r="G5" s="101"/>
+      <c r="H5" s="99" t="s">
         <v>402</v>
       </c>
-      <c r="J5" s="107">
+      <c r="J5" s="101">
         <v>2</v>
       </c>
-      <c r="K5" s="107"/>
-      <c r="L5" s="107">
+      <c r="K5" s="101"/>
+      <c r="L5" s="101">
         <v>1</v>
       </c>
       <c r="M5" s="92"/>
-      <c r="N5" s="99"/>
+      <c r="N5" s="114"/>
       <c r="P5" s="97" t="s">
         <v>327</v>
       </c>
@@ -17680,10 +18006,10 @@
       </c>
     </row>
     <row r="6" spans="2:19" ht="31.5" customHeight="1">
-      <c r="G6" s="107"/>
-      <c r="J6" s="107"/>
-      <c r="K6" s="107"/>
-      <c r="L6" s="107"/>
+      <c r="G6" s="101"/>
+      <c r="J6" s="101"/>
+      <c r="K6" s="101"/>
+      <c r="L6" s="101"/>
       <c r="M6" s="92"/>
       <c r="N6" s="93"/>
       <c r="P6" s="95"/>
@@ -17691,7 +18017,7 @@
       <c r="S6" s="96"/>
     </row>
     <row r="7" spans="2:19" ht="31.5" customHeight="1">
-      <c r="N7" s="99">
+      <c r="N7" s="114">
         <v>2</v>
       </c>
       <c r="P7" s="97" t="s">
@@ -17708,32 +18034,32 @@
       <c r="D8" s="91">
         <v>2</v>
       </c>
-      <c r="E8" s="112" t="s">
+      <c r="E8" s="106" t="s">
         <v>404</v>
       </c>
-      <c r="F8" s="105" t="s">
+      <c r="F8" s="99" t="s">
         <v>412</v>
       </c>
-      <c r="G8" s="108" t="s">
+      <c r="G8" s="102" t="s">
         <v>414</v>
       </c>
-      <c r="H8" s="105" t="s">
+      <c r="H8" s="99" t="s">
         <v>413</v>
       </c>
       <c r="J8" s="90" t="s">
         <v>328</v>
       </c>
-      <c r="K8" s="108" t="s">
+      <c r="K8" s="102" t="s">
         <v>414</v>
       </c>
       <c r="L8" s="90" t="s">
         <v>329</v>
       </c>
-      <c r="N8" s="99"/>
+      <c r="N8" s="114"/>
       <c r="P8" s="98" t="s">
         <v>330</v>
       </c>
-      <c r="Q8" s="110" t="s">
+      <c r="Q8" s="104" t="s">
         <v>414</v>
       </c>
       <c r="R8" s="98" t="s">
@@ -17744,22 +18070,22 @@
       </c>
     </row>
     <row r="9" spans="2:19" ht="31.5" customHeight="1">
-      <c r="F9" s="105" t="s">
+      <c r="F9" s="99" t="s">
         <v>403</v>
       </c>
-      <c r="G9" s="107"/>
-      <c r="H9" s="105" t="s">
+      <c r="G9" s="101"/>
+      <c r="H9" s="99" t="s">
         <v>405</v>
       </c>
-      <c r="J9" s="107">
+      <c r="J9" s="101">
         <v>5</v>
       </c>
-      <c r="K9" s="107"/>
-      <c r="L9" s="107">
+      <c r="K9" s="101"/>
+      <c r="L9" s="101">
         <v>7</v>
       </c>
       <c r="M9" s="92"/>
-      <c r="N9" s="99"/>
+      <c r="N9" s="114"/>
       <c r="P9" s="97" t="s">
         <v>357</v>
       </c>
@@ -17773,12 +18099,12 @@
     <row r="10" spans="2:19" ht="31.5" customHeight="1">
       <c r="N10" s="93"/>
       <c r="P10" s="95"/>
-      <c r="Q10" s="111"/>
+      <c r="Q10" s="105"/>
       <c r="R10" s="95"/>
       <c r="S10" s="96"/>
     </row>
     <row r="11" spans="2:19" ht="31.5" customHeight="1">
-      <c r="N11" s="99">
+      <c r="N11" s="114">
         <v>3</v>
       </c>
       <c r="P11" s="97" t="s">
@@ -17798,32 +18124,32 @@
       <c r="D12" s="91">
         <v>3</v>
       </c>
-      <c r="E12" s="112" t="s">
+      <c r="E12" s="106" t="s">
         <v>398</v>
       </c>
-      <c r="F12" s="105" t="s">
+      <c r="F12" s="99" t="s">
         <v>243</v>
       </c>
-      <c r="G12" s="108" t="s">
+      <c r="G12" s="102" t="s">
         <v>414</v>
       </c>
-      <c r="H12" s="105" t="s">
+      <c r="H12" s="99" t="s">
         <v>413</v>
       </c>
       <c r="J12" s="90" t="s">
         <v>334</v>
       </c>
-      <c r="K12" s="108" t="s">
+      <c r="K12" s="102" t="s">
         <v>414</v>
       </c>
       <c r="L12" s="90" t="s">
         <v>335</v>
       </c>
-      <c r="N12" s="99"/>
+      <c r="N12" s="114"/>
       <c r="P12" s="98" t="s">
         <v>336</v>
       </c>
-      <c r="Q12" s="110" t="s">
+      <c r="Q12" s="104" t="s">
         <v>414</v>
       </c>
       <c r="R12" s="98" t="s">
@@ -17837,22 +18163,22 @@
       <c r="B13" s="24" t="s">
         <v>338</v>
       </c>
-      <c r="F13" s="105" t="s">
+      <c r="F13" s="99" t="s">
         <v>406</v>
       </c>
-      <c r="G13" s="107"/>
-      <c r="H13" s="105" t="s">
+      <c r="G13" s="101"/>
+      <c r="H13" s="99" t="s">
         <v>405</v>
       </c>
-      <c r="J13" s="107">
+      <c r="J13" s="101">
         <v>1</v>
       </c>
-      <c r="K13" s="107"/>
-      <c r="L13" s="107">
+      <c r="K13" s="101"/>
+      <c r="L13" s="101">
         <v>7</v>
       </c>
       <c r="M13" s="92"/>
-      <c r="N13" s="99"/>
+      <c r="N13" s="114"/>
       <c r="P13" s="97" t="s">
         <v>359</v>
       </c>
@@ -17866,12 +18192,12 @@
     <row r="14" spans="2:19" ht="31.5" customHeight="1">
       <c r="N14" s="93"/>
       <c r="P14" s="95"/>
-      <c r="Q14" s="111"/>
+      <c r="Q14" s="105"/>
       <c r="R14" s="95"/>
       <c r="S14" s="96"/>
     </row>
     <row r="15" spans="2:19" ht="31.5" customHeight="1">
-      <c r="N15" s="99">
+      <c r="N15" s="114">
         <v>4</v>
       </c>
       <c r="P15" s="97" t="s">
@@ -17888,32 +18214,32 @@
       <c r="D16" s="91">
         <v>4</v>
       </c>
-      <c r="E16" s="112" t="s">
+      <c r="E16" s="106" t="s">
         <v>399</v>
       </c>
-      <c r="F16" s="105" t="s">
+      <c r="F16" s="99" t="s">
         <v>413</v>
       </c>
-      <c r="G16" s="108" t="s">
+      <c r="G16" s="102" t="s">
         <v>414</v>
       </c>
-      <c r="H16" s="105" t="s">
+      <c r="H16" s="99" t="s">
         <v>410</v>
       </c>
       <c r="J16" s="90" t="s">
         <v>340</v>
       </c>
-      <c r="K16" s="108" t="s">
+      <c r="K16" s="102" t="s">
         <v>414</v>
       </c>
       <c r="L16" s="90" t="s">
         <v>341</v>
       </c>
-      <c r="N16" s="99"/>
+      <c r="N16" s="114"/>
       <c r="P16" s="98" t="s">
         <v>342</v>
       </c>
-      <c r="Q16" s="110" t="s">
+      <c r="Q16" s="104" t="s">
         <v>414</v>
       </c>
       <c r="R16" s="98" t="s">
@@ -17924,22 +18250,22 @@
       </c>
     </row>
     <row r="17" spans="1:19" ht="31.5" customHeight="1">
-      <c r="F17" s="105" t="s">
+      <c r="F17" s="99" t="s">
         <v>405</v>
       </c>
-      <c r="G17" s="107"/>
-      <c r="H17" s="105" t="s">
+      <c r="G17" s="101"/>
+      <c r="H17" s="99" t="s">
         <v>407</v>
       </c>
-      <c r="J17" s="107">
+      <c r="J17" s="101">
         <v>7</v>
       </c>
-      <c r="K17" s="107"/>
-      <c r="L17" s="107">
+      <c r="K17" s="101"/>
+      <c r="L17" s="101">
         <v>3</v>
       </c>
       <c r="M17" s="92"/>
-      <c r="N17" s="99"/>
+      <c r="N17" s="114"/>
       <c r="P17" s="97" t="s">
         <v>360</v>
       </c>
@@ -17953,12 +18279,12 @@
     <row r="18" spans="1:19" ht="31.5" customHeight="1">
       <c r="N18" s="93"/>
       <c r="P18" s="95"/>
-      <c r="Q18" s="111"/>
+      <c r="Q18" s="105"/>
       <c r="R18" s="95"/>
       <c r="S18" s="96"/>
     </row>
     <row r="19" spans="1:19" ht="31.5" customHeight="1">
-      <c r="N19" s="99">
+      <c r="N19" s="114">
         <v>5</v>
       </c>
       <c r="P19" s="97" t="s">
@@ -17975,32 +18301,32 @@
       <c r="D20" s="91">
         <v>5</v>
       </c>
-      <c r="E20" s="112" t="s">
+      <c r="E20" s="106" t="s">
         <v>400</v>
       </c>
-      <c r="F20" s="105" t="s">
+      <c r="F20" s="99" t="s">
         <v>410</v>
       </c>
-      <c r="G20" s="108" t="s">
+      <c r="G20" s="102" t="s">
         <v>414</v>
       </c>
-      <c r="H20" s="105" t="s">
+      <c r="H20" s="99" t="s">
         <v>411</v>
       </c>
       <c r="J20" s="90" t="s">
         <v>344</v>
       </c>
-      <c r="K20" s="108" t="s">
+      <c r="K20" s="102" t="s">
         <v>414</v>
       </c>
       <c r="L20" s="90" t="s">
         <v>345</v>
       </c>
-      <c r="N20" s="99"/>
+      <c r="N20" s="114"/>
       <c r="P20" s="98" t="s">
         <v>346</v>
       </c>
-      <c r="Q20" s="110" t="s">
+      <c r="Q20" s="104" t="s">
         <v>414</v>
       </c>
       <c r="R20" s="98" t="s">
@@ -18011,22 +18337,22 @@
       </c>
     </row>
     <row r="21" spans="1:19" ht="31.5" customHeight="1">
-      <c r="F21" s="105" t="s">
+      <c r="F21" s="99" t="s">
         <v>407</v>
       </c>
-      <c r="G21" s="107"/>
-      <c r="H21" s="105" t="s">
+      <c r="G21" s="101"/>
+      <c r="H21" s="99" t="s">
         <v>415</v>
       </c>
-      <c r="J21" s="107">
+      <c r="J21" s="101">
         <v>3</v>
       </c>
-      <c r="K21" s="107"/>
-      <c r="L21" s="107">
+      <c r="K21" s="101"/>
+      <c r="L21" s="101">
         <v>2</v>
       </c>
       <c r="M21" s="92"/>
-      <c r="N21" s="99"/>
+      <c r="N21" s="114"/>
       <c r="P21" s="97" t="s">
         <v>363</v>
       </c>
@@ -18040,12 +18366,12 @@
     <row r="22" spans="1:19">
       <c r="N22" s="93"/>
       <c r="P22" s="95"/>
-      <c r="Q22" s="111"/>
+      <c r="Q22" s="105"/>
       <c r="R22" s="95"/>
       <c r="S22" s="96"/>
     </row>
     <row r="23" spans="1:19">
-      <c r="N23" s="99">
+      <c r="N23" s="114">
         <v>6</v>
       </c>
       <c r="P23" s="97" t="s">
@@ -18062,33 +18388,33 @@
       <c r="D24" s="91">
         <v>6</v>
       </c>
-      <c r="E24" s="112" t="s">
+      <c r="E24" s="106" t="s">
         <v>416</v>
       </c>
-      <c r="F24" s="105" t="s">
+      <c r="F24" s="99" t="s">
         <v>424</v>
       </c>
-      <c r="G24" s="108" t="s">
+      <c r="G24" s="102" t="s">
         <v>414</v>
       </c>
-      <c r="H24" s="105" t="s">
+      <c r="H24" s="99" t="s">
         <v>423</v>
       </c>
       <c r="J24" s="90" t="s">
         <v>420</v>
       </c>
-      <c r="K24" s="108" t="s">
+      <c r="K24" s="102" t="s">
         <v>414</v>
       </c>
       <c r="L24" s="90" t="s">
         <v>421</v>
       </c>
       <c r="M24" s="90"/>
-      <c r="N24" s="99"/>
+      <c r="N24" s="114"/>
       <c r="P24" s="98" t="s">
         <v>349</v>
       </c>
-      <c r="Q24" s="110" t="s">
+      <c r="Q24" s="104" t="s">
         <v>414</v>
       </c>
       <c r="R24" s="98" t="s">
@@ -18099,18 +18425,18 @@
       </c>
     </row>
     <row r="25" spans="1:19">
-      <c r="F25" s="106"/>
-      <c r="G25" s="107"/>
-      <c r="H25" s="106"/>
-      <c r="J25" s="107">
+      <c r="F25" s="100"/>
+      <c r="G25" s="101"/>
+      <c r="H25" s="100"/>
+      <c r="J25" s="101">
         <v>4</v>
       </c>
-      <c r="K25" s="107"/>
-      <c r="L25" s="107">
+      <c r="K25" s="101"/>
+      <c r="L25" s="101">
         <v>8</v>
       </c>
       <c r="M25" s="92"/>
-      <c r="N25" s="99"/>
+      <c r="N25" s="114"/>
       <c r="P25" s="97" t="s">
         <v>365</v>
       </c>
@@ -18125,23 +18451,23 @@
       <c r="A27" s="24"/>
       <c r="B27" s="24"/>
       <c r="C27" s="24"/>
-      <c r="E27" s="112"/>
-      <c r="F27" s="105"/>
+      <c r="E27" s="106"/>
+      <c r="F27" s="99"/>
       <c r="G27" s="90"/>
-      <c r="H27" s="105"/>
+      <c r="H27" s="99"/>
       <c r="I27" s="88"/>
       <c r="J27" s="90"/>
       <c r="K27" s="90"/>
       <c r="L27" s="90"/>
       <c r="M27" s="89"/>
-      <c r="N27" s="99">
+      <c r="N27" s="114">
         <v>7</v>
       </c>
       <c r="O27" s="94"/>
       <c r="P27" s="97" t="s">
         <v>438</v>
       </c>
-      <c r="Q27" s="109"/>
+      <c r="Q27" s="103"/>
       <c r="R27" s="97" t="s">
         <v>439</v>
       </c>
@@ -18156,35 +18482,35 @@
       <c r="D28" s="91">
         <v>7</v>
       </c>
-      <c r="E28" s="112" t="s">
+      <c r="E28" s="106" t="s">
         <v>417</v>
       </c>
-      <c r="F28" s="105" t="s">
+      <c r="F28" s="99" t="s">
         <v>423</v>
       </c>
-      <c r="G28" s="108" t="s">
+      <c r="G28" s="102" t="s">
         <v>414</v>
       </c>
-      <c r="H28" s="105" t="s">
+      <c r="H28" s="99" t="s">
         <v>424</v>
       </c>
       <c r="I28" s="88"/>
       <c r="J28" s="90" t="s">
         <v>429</v>
       </c>
-      <c r="K28" s="108" t="s">
+      <c r="K28" s="102" t="s">
         <v>414</v>
       </c>
       <c r="L28" s="90" t="s">
         <v>430</v>
       </c>
       <c r="M28" s="90"/>
-      <c r="N28" s="99"/>
+      <c r="N28" s="114"/>
       <c r="O28" s="94"/>
       <c r="P28" s="98" t="s">
         <v>436</v>
       </c>
-      <c r="Q28" s="110" t="s">
+      <c r="Q28" s="104" t="s">
         <v>414</v>
       </c>
       <c r="R28" s="98" t="s">
@@ -18198,25 +18524,25 @@
       <c r="A29" s="24"/>
       <c r="B29" s="24"/>
       <c r="C29" s="24"/>
-      <c r="E29" s="112"/>
-      <c r="F29" s="106"/>
-      <c r="G29" s="107"/>
-      <c r="H29" s="106"/>
+      <c r="E29" s="106"/>
+      <c r="F29" s="100"/>
+      <c r="G29" s="101"/>
+      <c r="H29" s="100"/>
       <c r="I29" s="88"/>
-      <c r="J29" s="107">
+      <c r="J29" s="101">
         <v>8</v>
       </c>
-      <c r="K29" s="107"/>
-      <c r="L29" s="107">
+      <c r="K29" s="101"/>
+      <c r="L29" s="101">
         <v>4</v>
       </c>
       <c r="M29" s="92"/>
-      <c r="N29" s="99"/>
+      <c r="N29" s="114"/>
       <c r="O29" s="94"/>
       <c r="P29" s="97" t="s">
         <v>444</v>
       </c>
-      <c r="Q29" s="109"/>
+      <c r="Q29" s="103"/>
       <c r="R29" s="97" t="s">
         <v>445</v>
       </c>
@@ -18228,28 +18554,28 @@
       <c r="D31" s="91">
         <v>8</v>
       </c>
-      <c r="E31" s="112" t="s">
+      <c r="E31" s="106" t="s">
         <v>418</v>
       </c>
-      <c r="F31" s="105" t="s">
+      <c r="F31" s="99" t="s">
         <v>409</v>
       </c>
-      <c r="G31" s="108" t="s">
+      <c r="G31" s="102" t="s">
         <v>414</v>
       </c>
-      <c r="H31" s="105" t="s">
+      <c r="H31" s="99" t="s">
         <v>411</v>
       </c>
       <c r="J31" s="90" t="s">
         <v>422</v>
       </c>
-      <c r="K31" s="108" t="s">
+      <c r="K31" s="102" t="s">
         <v>414</v>
       </c>
       <c r="L31" s="90" t="s">
         <v>426</v>
       </c>
-      <c r="N31" s="99">
+      <c r="N31" s="114">
         <v>8</v>
       </c>
       <c r="P31" s="97" t="s">
@@ -18263,21 +18589,21 @@
       </c>
     </row>
     <row r="32" spans="1:19" ht="57.75">
-      <c r="F32" s="106"/>
-      <c r="G32" s="107"/>
-      <c r="H32" s="106"/>
-      <c r="J32" s="107">
+      <c r="F32" s="100"/>
+      <c r="G32" s="101"/>
+      <c r="H32" s="100"/>
+      <c r="J32" s="101">
         <v>4</v>
       </c>
-      <c r="K32" s="107"/>
-      <c r="L32" s="107">
+      <c r="K32" s="101"/>
+      <c r="L32" s="101">
         <v>2</v>
       </c>
-      <c r="N32" s="99"/>
+      <c r="N32" s="114"/>
       <c r="P32" s="98" t="s">
         <v>352</v>
       </c>
-      <c r="Q32" s="110" t="s">
+      <c r="Q32" s="104" t="s">
         <v>414</v>
       </c>
       <c r="R32" s="98" t="s">
@@ -18288,7 +18614,7 @@
       </c>
     </row>
     <row r="33" spans="4:19">
-      <c r="N33" s="99"/>
+      <c r="N33" s="114"/>
       <c r="P33" s="97" t="s">
         <v>367</v>
       </c>
@@ -18303,28 +18629,28 @@
       <c r="D35" s="91">
         <v>9</v>
       </c>
-      <c r="E35" s="112" t="s">
+      <c r="E35" s="106" t="s">
         <v>419</v>
       </c>
-      <c r="F35" s="105" t="s">
+      <c r="F35" s="99" t="s">
         <v>408</v>
       </c>
-      <c r="G35" s="108" t="s">
+      <c r="G35" s="102" t="s">
         <v>414</v>
       </c>
-      <c r="H35" s="105" t="s">
+      <c r="H35" s="99" t="s">
         <v>425</v>
       </c>
       <c r="J35" s="90" t="s">
         <v>427</v>
       </c>
-      <c r="K35" s="108" t="s">
+      <c r="K35" s="102" t="s">
         <v>414</v>
       </c>
       <c r="L35" s="90" t="s">
         <v>428</v>
       </c>
-      <c r="N35" s="99">
+      <c r="N35" s="114">
         <v>9</v>
       </c>
       <c r="P35" s="97" t="s">
@@ -18338,21 +18664,21 @@
       </c>
     </row>
     <row r="36" spans="4:19" ht="57.75">
-      <c r="F36" s="106"/>
-      <c r="G36" s="107"/>
-      <c r="H36" s="106"/>
-      <c r="J36" s="107">
+      <c r="F36" s="100"/>
+      <c r="G36" s="101"/>
+      <c r="H36" s="100"/>
+      <c r="J36" s="101">
         <v>8</v>
       </c>
-      <c r="K36" s="107"/>
-      <c r="L36" s="107">
+      <c r="K36" s="101"/>
+      <c r="L36" s="101">
         <v>3</v>
       </c>
-      <c r="N36" s="99"/>
+      <c r="N36" s="114"/>
       <c r="P36" s="98" t="s">
         <v>431</v>
       </c>
-      <c r="Q36" s="110" t="s">
+      <c r="Q36" s="104" t="s">
         <v>414</v>
       </c>
       <c r="R36" s="98" t="s">
@@ -18363,7 +18689,7 @@
       </c>
     </row>
     <row r="37" spans="4:19">
-      <c r="N37" s="99"/>
+      <c r="N37" s="114"/>
       <c r="P37" s="97" t="s">
         <v>447</v>
       </c>
@@ -18393,6 +18719,494 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED796427-B883-4AC3-8EAC-E9156309297F}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="D1:S17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="50.25"/>
+  <cols>
+    <col min="1" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="1"/>
+    <col min="9" max="9" width="18.75" style="1" customWidth="1"/>
+    <col min="10" max="15" width="9" style="1"/>
+    <col min="16" max="16" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="4:19" ht="10.5" customHeight="1"/>
+    <row r="3" spans="4:19" s="12" customFormat="1" ht="57.75">
+      <c r="J3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="4:19" ht="10.5" customHeight="1"/>
+    <row r="5" spans="4:19" ht="21" customHeight="1">
+      <c r="H5" s="115" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="9" t="str">
+        <f>$H5 &amp; J$3</f>
+        <v>陰平</v>
+      </c>
+      <c r="K5" s="10"/>
+      <c r="L5" s="9" t="str">
+        <f>$H5 &amp; L$3</f>
+        <v>陰上</v>
+      </c>
+      <c r="M5" s="10"/>
+      <c r="N5" s="9" t="str">
+        <f>$H5 &amp; N$3</f>
+        <v>陰去</v>
+      </c>
+      <c r="O5" s="10"/>
+      <c r="P5" s="9" t="str">
+        <f>$H5 &amp; P$3</f>
+        <v>陰入</v>
+      </c>
+    </row>
+    <row r="6" spans="4:19" s="8" customFormat="1" ht="27">
+      <c r="H6" s="115"/>
+      <c r="J6" s="8">
+        <v>1</v>
+      </c>
+      <c r="L6" s="8">
+        <v>2</v>
+      </c>
+      <c r="N6" s="8">
+        <v>3</v>
+      </c>
+      <c r="P6" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="4:19">
+      <c r="H7" s="115"/>
+      <c r="J7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="4:19" s="3" customFormat="1" ht="42" customHeight="1">
+      <c r="D8" s="4"/>
+      <c r="F8" s="5"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="107" t="s">
+        <v>468</v>
+      </c>
+      <c r="J8" s="3">
+        <v>44</v>
+      </c>
+      <c r="L8" s="3">
+        <v>42</v>
+      </c>
+      <c r="N8" s="5">
+        <v>21</v>
+      </c>
+      <c r="P8" s="3">
+        <v>32</v>
+      </c>
+      <c r="S8" s="11"/>
+    </row>
+    <row r="9" spans="4:19" s="3" customFormat="1" ht="42" customHeight="1">
+      <c r="D9" s="4"/>
+      <c r="F9" s="5"/>
+      <c r="H9" s="115"/>
+      <c r="I9" s="108" t="s">
+        <v>469</v>
+      </c>
+      <c r="J9" s="109">
+        <v>44</v>
+      </c>
+      <c r="K9" s="109"/>
+      <c r="L9" s="109">
+        <v>53</v>
+      </c>
+      <c r="M9" s="109"/>
+      <c r="N9" s="110">
+        <v>21</v>
+      </c>
+      <c r="O9" s="109"/>
+      <c r="P9" s="109">
+        <v>20</v>
+      </c>
+      <c r="S9" s="11"/>
+    </row>
+    <row r="10" spans="4:19" s="3" customFormat="1" ht="42" customHeight="1">
+      <c r="D10" s="4"/>
+      <c r="F10" s="5"/>
+      <c r="H10" s="115"/>
+      <c r="I10" s="111" t="s">
+        <v>470</v>
+      </c>
+      <c r="J10" s="112">
+        <v>33</v>
+      </c>
+      <c r="K10" s="112"/>
+      <c r="L10" s="112">
+        <v>55</v>
+      </c>
+      <c r="M10" s="112"/>
+      <c r="N10" s="113">
+        <v>31</v>
+      </c>
+      <c r="O10" s="112"/>
+      <c r="P10" s="112">
+        <v>4</v>
+      </c>
+      <c r="S10" s="11"/>
+    </row>
+    <row r="11" spans="4:19">
+      <c r="P11" s="2"/>
+    </row>
+    <row r="12" spans="4:19" ht="21" customHeight="1">
+      <c r="H12" s="115" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="9" t="str">
+        <f>$H12 &amp; J$3</f>
+        <v>陽平</v>
+      </c>
+      <c r="K12" s="10"/>
+      <c r="L12" s="9" t="str">
+        <f>$H12 &amp; L$3</f>
+        <v>陽上</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c r="N12" s="9" t="str">
+        <f>$H12 &amp; N$3</f>
+        <v>陽去</v>
+      </c>
+      <c r="O12" s="10"/>
+      <c r="P12" s="9" t="str">
+        <f>$H12 &amp; P$3</f>
+        <v>陽入</v>
+      </c>
+    </row>
+    <row r="13" spans="4:19" s="8" customFormat="1" ht="27">
+      <c r="H13" s="115"/>
+      <c r="J13" s="8">
+        <v>5</v>
+      </c>
+      <c r="L13" s="8">
+        <v>6</v>
+      </c>
+      <c r="N13" s="8">
+        <v>7</v>
+      </c>
+      <c r="P13" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="4:19">
+      <c r="H14" s="115"/>
+      <c r="J14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="4:19" s="3" customFormat="1" ht="42" customHeight="1">
+      <c r="D15" s="4"/>
+      <c r="F15" s="5"/>
+      <c r="H15" s="115"/>
+      <c r="I15" s="107" t="s">
+        <v>468</v>
+      </c>
+      <c r="J15" s="3">
+        <v>24</v>
+      </c>
+      <c r="L15" s="3">
+        <v>42</v>
+      </c>
+      <c r="N15" s="3">
+        <v>22</v>
+      </c>
+      <c r="P15" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="4:19">
+      <c r="H16" s="115"/>
+      <c r="I16" s="108" t="s">
+        <v>469</v>
+      </c>
+      <c r="J16" s="109">
+        <v>13</v>
+      </c>
+      <c r="K16" s="109"/>
+      <c r="L16" s="109">
+        <v>53</v>
+      </c>
+      <c r="M16" s="109"/>
+      <c r="N16" s="110">
+        <v>22</v>
+      </c>
+      <c r="O16" s="109"/>
+      <c r="P16" s="109">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="8:16">
+      <c r="H17" s="115"/>
+      <c r="I17" s="111" t="s">
+        <v>470</v>
+      </c>
+      <c r="J17" s="112">
+        <v>24</v>
+      </c>
+      <c r="K17" s="112"/>
+      <c r="L17" s="112">
+        <v>22</v>
+      </c>
+      <c r="M17" s="112"/>
+      <c r="N17" s="113">
+        <v>31</v>
+      </c>
+      <c r="O17" s="112"/>
+      <c r="P17" s="112">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="H5:H10"/>
+    <mergeCell ref="H12:H17"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9218DD01-3A76-43EF-988C-2E96671CBECF}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="D1:P14"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="G1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="50.25"/>
+  <cols>
+    <col min="1" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="15" width="9" style="1"/>
+    <col min="16" max="16" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="4:16" ht="10.5" customHeight="1"/>
+    <row r="3" spans="4:16" s="12" customFormat="1" ht="57.75">
+      <c r="J3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="4:16" ht="10.5" customHeight="1"/>
+    <row r="5" spans="4:16" ht="21" customHeight="1">
+      <c r="J5" s="9" t="str">
+        <f>$H7 &amp; J$3</f>
+        <v>陰平</v>
+      </c>
+      <c r="K5" s="10"/>
+      <c r="L5" s="9" t="str">
+        <f>$H7 &amp; L$3</f>
+        <v>陰上</v>
+      </c>
+      <c r="M5" s="10"/>
+      <c r="N5" s="9" t="str">
+        <f>$H7 &amp; N$3</f>
+        <v>陰去</v>
+      </c>
+      <c r="O5" s="10"/>
+      <c r="P5" s="9" t="str">
+        <f>$H7 &amp; P$3</f>
+        <v>陰入</v>
+      </c>
+    </row>
+    <row r="6" spans="4:16" s="8" customFormat="1" ht="27">
+      <c r="J6" s="8">
+        <v>1</v>
+      </c>
+      <c r="L6" s="8">
+        <v>2</v>
+      </c>
+      <c r="N6" s="8">
+        <v>3</v>
+      </c>
+      <c r="P6" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="4:16" ht="57.75">
+      <c r="H7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="4:16" s="3" customFormat="1" ht="42" customHeight="1">
+      <c r="D8" s="4"/>
+      <c r="F8" s="5"/>
+      <c r="J8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="3">
+        <v>320</v>
+      </c>
+      <c r="N8" s="5">
+        <v>50</v>
+      </c>
+      <c r="P8" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="4:16">
+      <c r="P9" s="2"/>
+    </row>
+    <row r="10" spans="4:16" ht="21" customHeight="1">
+      <c r="J10" s="9" t="str">
+        <f>$H12 &amp; J$3</f>
+        <v>陽平</v>
+      </c>
+      <c r="K10" s="10"/>
+      <c r="L10" s="9" t="str">
+        <f>$H12 &amp; L$3</f>
+        <v>陽上</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c r="N10" s="9" t="str">
+        <f>$H12 &amp; N$3</f>
+        <v>陽去</v>
+      </c>
+      <c r="O10" s="10"/>
+      <c r="P10" s="9" t="str">
+        <f>$H12 &amp; P$3</f>
+        <v>陽入</v>
+      </c>
+    </row>
+    <row r="11" spans="4:16" s="8" customFormat="1" ht="27">
+      <c r="J11" s="8">
+        <v>5</v>
+      </c>
+      <c r="L11" s="8">
+        <v>6</v>
+      </c>
+      <c r="N11" s="8">
+        <v>7</v>
+      </c>
+      <c r="P11" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="4:16" ht="57.75">
+      <c r="H12" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="4:16" s="3" customFormat="1" ht="42" customHeight="1">
+      <c r="D13" s="4"/>
+      <c r="F13" s="5"/>
+      <c r="H13" s="4"/>
+      <c r="J13" s="3">
+        <v>61</v>
+      </c>
+      <c r="L13" s="3">
+        <v>320</v>
+      </c>
+      <c r="N13" s="3">
+        <v>20</v>
+      </c>
+      <c r="P13" s="3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="14" spans="4:16">
+      <c r="P14" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFA51E7D-EC2D-4714-B54F-91058AEA2361}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -18612,7 +19426,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{741A9724-6DAD-4547-A9DF-F33414FBA47D}">
   <dimension ref="B1:V242"/>
   <sheetViews>
@@ -18739,7 +19553,7 @@
       <c r="Q3" s="34"/>
       <c r="R3" s="34"/>
       <c r="T3" s="36"/>
-      <c r="V3" s="102" t="s">
+      <c r="V3" s="117" t="s">
         <v>51</v>
       </c>
     </row>
@@ -18789,7 +19603,7 @@
         <v>64</v>
       </c>
       <c r="S4" s="39"/>
-      <c r="V4" s="103"/>
+      <c r="V4" s="118"/>
     </row>
     <row r="5" spans="2:22" s="26" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B5" s="40">
@@ -18841,7 +19655,7 @@
         <v>79</v>
       </c>
       <c r="S5" s="43"/>
-      <c r="V5" s="103"/>
+      <c r="V5" s="118"/>
     </row>
     <row r="6" spans="2:22" s="48" customFormat="1" ht="36" customHeight="1">
       <c r="B6" s="44"/>
@@ -18890,7 +19704,7 @@
         <v>64</v>
       </c>
       <c r="S6" s="47"/>
-      <c r="V6" s="103"/>
+      <c r="V6" s="118"/>
     </row>
     <row r="7" spans="2:22" s="52" customFormat="1" ht="60" customHeight="1">
       <c r="B7" s="49"/>
@@ -18913,7 +19727,7 @@
       <c r="Q7" s="34"/>
       <c r="R7" s="34"/>
       <c r="S7" s="51"/>
-      <c r="V7" s="103"/>
+      <c r="V7" s="118"/>
     </row>
     <row r="8" spans="2:22" s="26" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="37"/>
@@ -18955,7 +19769,7 @@
       <c r="Q8" s="38"/>
       <c r="R8" s="38"/>
       <c r="S8" s="39"/>
-      <c r="V8" s="103"/>
+      <c r="V8" s="118"/>
     </row>
     <row r="9" spans="2:22" s="26" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B9" s="40">
@@ -19011,7 +19825,7 @@
       </c>
       <c r="S9" s="43"/>
       <c r="T9" s="36"/>
-      <c r="V9" s="103"/>
+      <c r="V9" s="118"/>
     </row>
     <row r="10" spans="2:22" s="26" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="44"/>
@@ -19053,7 +19867,7 @@
       <c r="Q10" s="46"/>
       <c r="R10" s="46"/>
       <c r="S10" s="54"/>
-      <c r="V10" s="103"/>
+      <c r="V10" s="118"/>
     </row>
     <row r="11" spans="2:22" s="51" customFormat="1" ht="60" customHeight="1">
       <c r="B11" s="55"/>
@@ -19073,7 +19887,7 @@
       <c r="P11" s="57"/>
       <c r="Q11" s="57"/>
       <c r="R11" s="57"/>
-      <c r="V11" s="103"/>
+      <c r="V11" s="118"/>
     </row>
     <row r="12" spans="2:22" s="26" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="37"/>
@@ -19093,7 +19907,7 @@
       <c r="Q12" s="58"/>
       <c r="R12" s="58"/>
       <c r="S12" s="39"/>
-      <c r="V12" s="103"/>
+      <c r="V12" s="118"/>
     </row>
     <row r="13" spans="2:22" s="26" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B13" s="40">
@@ -19120,7 +19934,7 @@
       <c r="Q13" s="59"/>
       <c r="R13" s="59"/>
       <c r="S13" s="43"/>
-      <c r="V13" s="103"/>
+      <c r="V13" s="118"/>
     </row>
     <row r="14" spans="2:22" s="26" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="44"/>
@@ -19140,7 +19954,7 @@
       <c r="Q14" s="46"/>
       <c r="R14" s="46"/>
       <c r="S14" s="54"/>
-      <c r="V14" s="103"/>
+      <c r="V14" s="118"/>
     </row>
     <row r="15" spans="2:22" s="61" customFormat="1" ht="60" customHeight="1">
       <c r="B15" s="32"/>
@@ -19162,7 +19976,7 @@
       <c r="P15" s="34"/>
       <c r="Q15" s="34"/>
       <c r="R15" s="34"/>
-      <c r="V15" s="103"/>
+      <c r="V15" s="118"/>
     </row>
     <row r="16" spans="2:22" s="26" customFormat="1" ht="36" customHeight="1">
       <c r="B16" s="37"/>
@@ -19206,7 +20020,7 @@
         <v>107</v>
       </c>
       <c r="S16" s="39"/>
-      <c r="V16" s="103"/>
+      <c r="V16" s="118"/>
     </row>
     <row r="17" spans="2:22" s="26" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B17" s="40">
@@ -19259,7 +20073,7 @@
         <v>114</v>
       </c>
       <c r="S17" s="43"/>
-      <c r="V17" s="103"/>
+      <c r="V17" s="118"/>
     </row>
     <row r="18" spans="2:22" s="26" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="44"/>
@@ -19303,7 +20117,7 @@
         <v>107</v>
       </c>
       <c r="S18" s="54"/>
-      <c r="V18" s="103"/>
+      <c r="V18" s="118"/>
     </row>
     <row r="19" spans="2:22" s="61" customFormat="1" ht="60" customHeight="1">
       <c r="B19" s="32"/>
@@ -19323,7 +20137,7 @@
       <c r="P19" s="34"/>
       <c r="Q19" s="34"/>
       <c r="R19" s="34"/>
-      <c r="V19" s="103"/>
+      <c r="V19" s="118"/>
     </row>
     <row r="20" spans="2:22" s="26" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="37"/>
@@ -19367,7 +20181,7 @@
         <v>121</v>
       </c>
       <c r="S20" s="39"/>
-      <c r="V20" s="103"/>
+      <c r="V20" s="118"/>
     </row>
     <row r="21" spans="2:22" s="26" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B21" s="40">
@@ -19420,7 +20234,7 @@
         <v>127</v>
       </c>
       <c r="S21" s="43"/>
-      <c r="V21" s="103"/>
+      <c r="V21" s="118"/>
     </row>
     <row r="22" spans="2:22" s="26" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="44"/>
@@ -19464,7 +20278,7 @@
         <v>121</v>
       </c>
       <c r="S22" s="54"/>
-      <c r="V22" s="104"/>
+      <c r="V22" s="119"/>
     </row>
     <row r="23" spans="2:22" s="61" customFormat="1" ht="60" customHeight="1">
       <c r="B23" s="32"/>
@@ -25802,26 +26616,273 @@
   </sheetData>
   <phoneticPr fontId="24" type="noConversion"/>
   <conditionalFormatting sqref="E3:G3">
-    <cfRule type="expression" dxfId="67" priority="17">
+    <cfRule type="expression" dxfId="75" priority="17">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="18">
+    <cfRule type="expression" dxfId="74" priority="18">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:G10">
-    <cfRule type="expression" dxfId="65" priority="5">
+    <cfRule type="expression" dxfId="73" priority="5">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="6">
+    <cfRule type="expression" dxfId="72" priority="6">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:M3">
-    <cfRule type="expression" dxfId="63" priority="9">
+    <cfRule type="expression" dxfId="71" priority="9">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="10">
+    <cfRule type="expression" dxfId="70" priority="10">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K10:M10">
+    <cfRule type="expression" dxfId="69" priority="1">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="68" priority="2">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC2236A3-8B81-48E9-9282-446C3B77A865}">
+  <dimension ref="B1:O18"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10:H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21"/>
+  <cols>
+    <col min="1" max="1" width="0.875" style="24" customWidth="1"/>
+    <col min="2" max="2" width="5.625" style="24" customWidth="1"/>
+    <col min="3" max="4" width="4.625" style="24" customWidth="1"/>
+    <col min="5" max="5" width="7.75" style="24" customWidth="1"/>
+    <col min="6" max="6" width="28.5" style="67" customWidth="1"/>
+    <col min="7" max="7" width="7.75" style="24" customWidth="1"/>
+    <col min="8" max="8" width="4.625" style="24" customWidth="1"/>
+    <col min="9" max="9" width="14.625" style="24" customWidth="1"/>
+    <col min="10" max="10" width="4.625" style="24" customWidth="1"/>
+    <col min="11" max="11" width="7.75" style="24" customWidth="1"/>
+    <col min="12" max="12" width="28.5" style="67" customWidth="1"/>
+    <col min="13" max="13" width="7.75" style="24" customWidth="1"/>
+    <col min="14" max="14" width="4.625" style="24" customWidth="1"/>
+    <col min="15" max="15" width="14.625" style="24" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="24"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:15" ht="27">
+      <c r="F1" s="25">
+        <f>COLUMN()</f>
+        <v>6</v>
+      </c>
+      <c r="L1" s="25">
+        <f>COLUMN()</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="2:15" s="28" customFormat="1" ht="36" customHeight="1">
+      <c r="F2" s="29"/>
+      <c r="L2" s="29"/>
+    </row>
+    <row r="3" spans="2:15" s="35" customFormat="1" ht="27" customHeight="1">
+      <c r="C3" s="33"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="75"/>
+      <c r="O3" s="33"/>
+    </row>
+    <row r="4" spans="2:15" s="26" customFormat="1" ht="46.5" customHeight="1">
+      <c r="D4" s="76"/>
+      <c r="F4" s="69" t="s">
+        <v>302</v>
+      </c>
+      <c r="H4" s="77"/>
+      <c r="J4" s="76"/>
+      <c r="L4" s="69" t="s">
+        <v>303</v>
+      </c>
+      <c r="N4" s="77"/>
+    </row>
+    <row r="5" spans="2:15" s="68" customFormat="1" ht="195" customHeight="1">
+      <c r="B5" s="86">
+        <v>1</v>
+      </c>
+      <c r="D5" s="78"/>
+      <c r="E5" s="71" t="s">
+        <v>289</v>
+      </c>
+      <c r="F5" s="73" t="s">
+        <v>285</v>
+      </c>
+      <c r="G5" s="72" t="s">
+        <v>287</v>
+      </c>
+      <c r="H5" s="79"/>
+      <c r="J5" s="78"/>
+      <c r="K5" s="71" t="s">
+        <v>292</v>
+      </c>
+      <c r="L5" s="73" t="s">
+        <v>286</v>
+      </c>
+      <c r="M5" s="72" t="s">
+        <v>293</v>
+      </c>
+      <c r="N5" s="79"/>
+    </row>
+    <row r="6" spans="2:15" s="48" customFormat="1" ht="57" customHeight="1">
+      <c r="C6" s="45"/>
+      <c r="D6" s="80"/>
+      <c r="F6" s="70" t="s">
+        <v>288</v>
+      </c>
+      <c r="H6" s="81"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="80"/>
+      <c r="L6" s="70" t="s">
+        <v>291</v>
+      </c>
+      <c r="N6" s="81"/>
+      <c r="O6" s="45"/>
+    </row>
+    <row r="7" spans="2:15" ht="27" customHeight="1">
+      <c r="D7" s="82"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="85"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="83"/>
+      <c r="L7" s="84"/>
+      <c r="M7" s="83"/>
+      <c r="N7" s="85"/>
+    </row>
+    <row r="10" spans="2:15" s="35" customFormat="1" ht="27" customHeight="1">
+      <c r="C10" s="33"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="75"/>
+      <c r="O10" s="33"/>
+    </row>
+    <row r="11" spans="2:15" s="26" customFormat="1" ht="46.5" customHeight="1">
+      <c r="D11" s="76"/>
+      <c r="F11" s="69" t="s">
+        <v>471</v>
+      </c>
+      <c r="H11" s="77"/>
+      <c r="J11" s="76"/>
+      <c r="L11" s="69" t="s">
+        <v>303</v>
+      </c>
+      <c r="N11" s="77"/>
+    </row>
+    <row r="12" spans="2:15" s="26" customFormat="1" ht="195" customHeight="1">
+      <c r="B12" s="87">
+        <v>1</v>
+      </c>
+      <c r="D12" s="78"/>
+      <c r="E12" s="71" t="s">
+        <v>289</v>
+      </c>
+      <c r="F12" s="73" t="s">
+        <v>285</v>
+      </c>
+      <c r="G12" s="72" t="s">
+        <v>287</v>
+      </c>
+      <c r="H12" s="79"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="78"/>
+      <c r="K12" s="71" t="s">
+        <v>292</v>
+      </c>
+      <c r="L12" s="73" t="s">
+        <v>286</v>
+      </c>
+      <c r="M12" s="72" t="s">
+        <v>293</v>
+      </c>
+      <c r="N12" s="79"/>
+    </row>
+    <row r="13" spans="2:15" s="48" customFormat="1" ht="57" customHeight="1">
+      <c r="C13" s="45"/>
+      <c r="D13" s="80"/>
+      <c r="F13" s="70" t="s">
+        <v>290</v>
+      </c>
+      <c r="H13" s="81"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="80"/>
+      <c r="L13" s="70" t="s">
+        <v>291</v>
+      </c>
+      <c r="N13" s="81"/>
+      <c r="O13" s="45"/>
+    </row>
+    <row r="14" spans="2:15" ht="27" customHeight="1">
+      <c r="D14" s="82"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="85"/>
+      <c r="J14" s="82"/>
+      <c r="K14" s="83"/>
+      <c r="L14" s="84"/>
+      <c r="M14" s="83"/>
+      <c r="N14" s="85"/>
+    </row>
+    <row r="18" spans="6:12" ht="57.75">
+      <c r="F18" s="69"/>
+      <c r="L18" s="69"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="E3:G3">
+    <cfRule type="expression" dxfId="67" priority="7">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="66" priority="8">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10:G10">
+    <cfRule type="expression" dxfId="65" priority="3">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="64" priority="4">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:M3">
+    <cfRule type="expression" dxfId="63" priority="5">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="62" priority="6">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25838,7 +26899,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFB84FA2-85B1-4A95-8CDA-FDCB920003BD}">
   <dimension ref="B1:T18"/>
   <sheetViews>
@@ -26177,7 +27238,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F39A333-A6A4-4CDE-B425-9D17B282ACB7}">
   <dimension ref="B1:R9"/>
   <sheetViews>
@@ -26410,7 +27471,406 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB8B6306-3941-4AC5-99FA-0831333AD2B9}">
+  <dimension ref="B2:K22"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="57.75"/>
+  <cols>
+    <col min="1" max="1" width="9" style="120"/>
+    <col min="2" max="2" width="22.875" style="120" customWidth="1"/>
+    <col min="3" max="11" width="29.125" style="120" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="120"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11">
+      <c r="B2" s="122" t="s">
+        <v>485</v>
+      </c>
+      <c r="C2" s="122" t="s">
+        <v>472</v>
+      </c>
+      <c r="D2" s="122" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="122" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="122" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="122" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="122" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="122" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="122" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="122" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11">
+      <c r="B3" s="122" t="s">
+        <v>483</v>
+      </c>
+      <c r="C3" s="128">
+        <v>0</v>
+      </c>
+      <c r="D3" s="128">
+        <v>1</v>
+      </c>
+      <c r="E3" s="128">
+        <v>2</v>
+      </c>
+      <c r="F3" s="128">
+        <v>3</v>
+      </c>
+      <c r="G3" s="128">
+        <v>4</v>
+      </c>
+      <c r="H3" s="128">
+        <v>5</v>
+      </c>
+      <c r="I3" s="128">
+        <v>6</v>
+      </c>
+      <c r="J3" s="128">
+        <v>7</v>
+      </c>
+      <c r="K3" s="128">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" s="122" t="s">
+        <v>484</v>
+      </c>
+      <c r="C4" s="121" t="s">
+        <v>473</v>
+      </c>
+      <c r="D4" s="121" t="s">
+        <v>474</v>
+      </c>
+      <c r="E4" s="121" t="s">
+        <v>475</v>
+      </c>
+      <c r="F4" s="121" t="s">
+        <v>476</v>
+      </c>
+      <c r="G4" s="121" t="s">
+        <v>477</v>
+      </c>
+      <c r="H4" s="121" t="s">
+        <v>478</v>
+      </c>
+      <c r="I4" s="121" t="s">
+        <v>486</v>
+      </c>
+      <c r="J4" s="121" t="s">
+        <v>479</v>
+      </c>
+      <c r="K4" s="121" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" s="125" t="s">
+        <v>481</v>
+      </c>
+      <c r="C5" s="121" t="s">
+        <v>482</v>
+      </c>
+      <c r="D5" s="121" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="121" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="121" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="121" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="121" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="123"/>
+      <c r="J5" s="121" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" s="121" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" s="126"/>
+      <c r="C6" s="121" t="s">
+        <v>501</v>
+      </c>
+      <c r="D6" s="121" t="s">
+        <v>487</v>
+      </c>
+      <c r="E6" s="121" t="s">
+        <v>488</v>
+      </c>
+      <c r="F6" s="121" t="s">
+        <v>489</v>
+      </c>
+      <c r="G6" s="121" t="s">
+        <v>490</v>
+      </c>
+      <c r="H6" s="121" t="s">
+        <v>491</v>
+      </c>
+      <c r="I6" s="123"/>
+      <c r="J6" s="121" t="s">
+        <v>492</v>
+      </c>
+      <c r="K6" s="121" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" s="126"/>
+      <c r="C7" s="121" t="s">
+        <v>502</v>
+      </c>
+      <c r="D7" s="121" t="s">
+        <v>494</v>
+      </c>
+      <c r="E7" s="121" t="s">
+        <v>495</v>
+      </c>
+      <c r="F7" s="121" t="s">
+        <v>496</v>
+      </c>
+      <c r="G7" s="121" t="s">
+        <v>497</v>
+      </c>
+      <c r="H7" s="121" t="s">
+        <v>498</v>
+      </c>
+      <c r="I7" s="123"/>
+      <c r="J7" s="121" t="s">
+        <v>499</v>
+      </c>
+      <c r="K7" s="121" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10" s="122" t="s">
+        <v>485</v>
+      </c>
+      <c r="C10" s="122" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="122" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="122" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="122" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" s="122" t="s">
+        <v>483</v>
+      </c>
+      <c r="C11" s="121">
+        <v>1</v>
+      </c>
+      <c r="D11" s="121">
+        <v>2</v>
+      </c>
+      <c r="E11" s="121">
+        <v>3</v>
+      </c>
+      <c r="F11" s="121">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12" s="122" t="s">
+        <v>484</v>
+      </c>
+      <c r="C12" s="121" t="s">
+        <v>474</v>
+      </c>
+      <c r="D12" s="121" t="s">
+        <v>475</v>
+      </c>
+      <c r="E12" s="121" t="s">
+        <v>476</v>
+      </c>
+      <c r="F12" s="121" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13" s="124" t="s">
+        <v>481</v>
+      </c>
+      <c r="C13" s="127" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="127" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="127" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="127" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" s="124"/>
+      <c r="C14" s="127" t="s">
+        <v>487</v>
+      </c>
+      <c r="D14" s="127" t="s">
+        <v>488</v>
+      </c>
+      <c r="E14" s="127" t="s">
+        <v>489</v>
+      </c>
+      <c r="F14" s="127" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15" s="124"/>
+      <c r="C15" s="127" t="s">
+        <v>494</v>
+      </c>
+      <c r="D15" s="127" t="s">
+        <v>495</v>
+      </c>
+      <c r="E15" s="127" t="s">
+        <v>496</v>
+      </c>
+      <c r="F15" s="127" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="122" t="s">
+        <v>485</v>
+      </c>
+      <c r="C17" s="122" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="122" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="122" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="122" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="122" t="s">
+        <v>483</v>
+      </c>
+      <c r="C18" s="121">
+        <v>5</v>
+      </c>
+      <c r="D18" s="121">
+        <v>6</v>
+      </c>
+      <c r="E18" s="121">
+        <v>7</v>
+      </c>
+      <c r="F18" s="121">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="122" t="s">
+        <v>484</v>
+      </c>
+      <c r="C19" s="121" t="s">
+        <v>478</v>
+      </c>
+      <c r="D19" s="121" t="s">
+        <v>486</v>
+      </c>
+      <c r="E19" s="121" t="s">
+        <v>479</v>
+      </c>
+      <c r="F19" s="121" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="124" t="s">
+        <v>481</v>
+      </c>
+      <c r="C20" s="127" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="123"/>
+      <c r="E20" s="127" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" s="127" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="124"/>
+      <c r="C21" s="127" t="s">
+        <v>491</v>
+      </c>
+      <c r="D21" s="123"/>
+      <c r="E21" s="127" t="s">
+        <v>492</v>
+      </c>
+      <c r="F21" s="127" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="124"/>
+      <c r="C22" s="127" t="s">
+        <v>498</v>
+      </c>
+      <c r="D22" s="123"/>
+      <c r="E22" s="127" t="s">
+        <v>499</v>
+      </c>
+      <c r="F22" s="127" t="s">
+        <v>500</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B20:B22"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2163792C-0003-4594-9C9D-B47167582E32}">
   <dimension ref="B1:L7"/>
   <sheetViews>
@@ -26544,7 +28004,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97BB9284-E16E-4498-9C6C-90A1969555F4}">
   <dimension ref="B1:L7"/>
   <sheetViews>
@@ -26678,15 +28138,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E977512E-9623-471B-8642-FB08C07A8D1C}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="D1:S14"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="G1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView showGridLines="0" topLeftCell="G6" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="50.25"/>
@@ -26720,7 +28180,7 @@
     </row>
     <row r="4" spans="4:19" ht="10.5" customHeight="1"/>
     <row r="5" spans="4:19" ht="21" customHeight="1">
-      <c r="H5" s="101" t="s">
+      <c r="H5" s="116" t="s">
         <v>8</v>
       </c>
       <c r="J5" s="9" t="str">
@@ -26744,7 +28204,7 @@
       </c>
     </row>
     <row r="6" spans="4:19" s="8" customFormat="1" ht="27">
-      <c r="H6" s="100"/>
+      <c r="H6" s="115"/>
       <c r="J6" s="8">
         <v>1</v>
       </c>
@@ -26759,7 +28219,7 @@
       </c>
     </row>
     <row r="7" spans="4:19">
-      <c r="H7" s="100"/>
+      <c r="H7" s="115"/>
       <c r="J7" s="6" t="s">
         <v>7</v>
       </c>
@@ -26779,15 +28239,26 @@
     <row r="8" spans="4:19" s="3" customFormat="1" ht="42" customHeight="1">
       <c r="D8" s="4"/>
       <c r="F8" s="5"/>
-      <c r="H8" s="100"/>
-      <c r="N8" s="5"/>
+      <c r="H8" s="115"/>
+      <c r="J8" s="3">
+        <v>44</v>
+      </c>
+      <c r="L8" s="3">
+        <v>51</v>
+      </c>
+      <c r="N8" s="5">
+        <v>31</v>
+      </c>
+      <c r="P8" s="3">
+        <v>30</v>
+      </c>
       <c r="S8" s="11"/>
     </row>
     <row r="9" spans="4:19">
       <c r="P9" s="2"/>
     </row>
     <row r="10" spans="4:19" ht="21" customHeight="1">
-      <c r="H10" s="100" t="s">
+      <c r="H10" s="115" t="s">
         <v>4</v>
       </c>
       <c r="J10" s="9" t="str">
@@ -26811,7 +28282,7 @@
       </c>
     </row>
     <row r="11" spans="4:19" s="8" customFormat="1" ht="27">
-      <c r="H11" s="100"/>
+      <c r="H11" s="115"/>
       <c r="J11" s="8">
         <v>5</v>
       </c>
@@ -26826,7 +28297,7 @@
       </c>
     </row>
     <row r="12" spans="4:19">
-      <c r="H12" s="100"/>
+      <c r="H12" s="115"/>
       <c r="J12" s="6" t="s">
         <v>3</v>
       </c>
@@ -26846,7 +28317,19 @@
     <row r="13" spans="4:19" s="3" customFormat="1" ht="42" customHeight="1">
       <c r="D13" s="4"/>
       <c r="F13" s="5"/>
-      <c r="H13" s="100"/>
+      <c r="H13" s="115"/>
+      <c r="J13" s="3">
+        <v>24</v>
+      </c>
+      <c r="L13" s="3">
+        <v>51</v>
+      </c>
+      <c r="N13" s="3">
+        <v>33</v>
+      </c>
+      <c r="P13" s="3">
+        <v>50</v>
+      </c>
     </row>
     <row r="14" spans="4:19">
       <c r="P14" s="2"/>
@@ -26859,492 +28342,4 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED796427-B883-4AC3-8EAC-E9156309297F}">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="D1:S17"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="50.25"/>
-  <cols>
-    <col min="1" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="18.75" style="1" customWidth="1"/>
-    <col min="10" max="15" width="9" style="1"/>
-    <col min="16" max="16" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="4:19" ht="10.5" customHeight="1"/>
-    <row r="3" spans="4:19" s="12" customFormat="1" ht="57.75">
-      <c r="J3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="4:19" ht="10.5" customHeight="1"/>
-    <row r="5" spans="4:19" ht="21" customHeight="1">
-      <c r="H5" s="100" t="s">
-        <v>8</v>
-      </c>
-      <c r="J5" s="9" t="str">
-        <f>$H5 &amp; J$3</f>
-        <v>陰平</v>
-      </c>
-      <c r="K5" s="10"/>
-      <c r="L5" s="9" t="str">
-        <f>$H5 &amp; L$3</f>
-        <v>陰上</v>
-      </c>
-      <c r="M5" s="10"/>
-      <c r="N5" s="9" t="str">
-        <f>$H5 &amp; N$3</f>
-        <v>陰去</v>
-      </c>
-      <c r="O5" s="10"/>
-      <c r="P5" s="9" t="str">
-        <f>$H5 &amp; P$3</f>
-        <v>陰入</v>
-      </c>
-    </row>
-    <row r="6" spans="4:19" s="8" customFormat="1" ht="27">
-      <c r="H6" s="100"/>
-      <c r="J6" s="8">
-        <v>1</v>
-      </c>
-      <c r="L6" s="8">
-        <v>2</v>
-      </c>
-      <c r="N6" s="8">
-        <v>3</v>
-      </c>
-      <c r="P6" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="4:19">
-      <c r="H7" s="100"/>
-      <c r="J7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="4:19" s="3" customFormat="1" ht="42" customHeight="1">
-      <c r="D8" s="4"/>
-      <c r="F8" s="5"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="113" t="s">
-        <v>468</v>
-      </c>
-      <c r="J8" s="3">
-        <v>44</v>
-      </c>
-      <c r="L8" s="3">
-        <v>42</v>
-      </c>
-      <c r="N8" s="5">
-        <v>21</v>
-      </c>
-      <c r="P8" s="3">
-        <v>32</v>
-      </c>
-      <c r="S8" s="11"/>
-    </row>
-    <row r="9" spans="4:19" s="3" customFormat="1" ht="42" customHeight="1">
-      <c r="D9" s="4"/>
-      <c r="F9" s="5"/>
-      <c r="H9" s="100"/>
-      <c r="I9" s="114" t="s">
-        <v>469</v>
-      </c>
-      <c r="J9" s="115">
-        <v>44</v>
-      </c>
-      <c r="K9" s="115"/>
-      <c r="L9" s="115">
-        <v>53</v>
-      </c>
-      <c r="M9" s="115"/>
-      <c r="N9" s="116">
-        <v>21</v>
-      </c>
-      <c r="O9" s="115"/>
-      <c r="P9" s="115">
-        <v>20</v>
-      </c>
-      <c r="S9" s="11"/>
-    </row>
-    <row r="10" spans="4:19" s="3" customFormat="1" ht="42" customHeight="1">
-      <c r="D10" s="4"/>
-      <c r="F10" s="5"/>
-      <c r="H10" s="100"/>
-      <c r="I10" s="117" t="s">
-        <v>470</v>
-      </c>
-      <c r="J10" s="118">
-        <v>33</v>
-      </c>
-      <c r="K10" s="118"/>
-      <c r="L10" s="118">
-        <v>55</v>
-      </c>
-      <c r="M10" s="118"/>
-      <c r="N10" s="119">
-        <v>31</v>
-      </c>
-      <c r="O10" s="118"/>
-      <c r="P10" s="118">
-        <v>4</v>
-      </c>
-      <c r="S10" s="11"/>
-    </row>
-    <row r="11" spans="4:19">
-      <c r="P11" s="2"/>
-    </row>
-    <row r="12" spans="4:19" ht="21" customHeight="1">
-      <c r="H12" s="100" t="s">
-        <v>4</v>
-      </c>
-      <c r="J12" s="9" t="str">
-        <f>$H12 &amp; J$3</f>
-        <v>陽平</v>
-      </c>
-      <c r="K12" s="10"/>
-      <c r="L12" s="9" t="str">
-        <f>$H12 &amp; L$3</f>
-        <v>陽上</v>
-      </c>
-      <c r="M12" s="10"/>
-      <c r="N12" s="9" t="str">
-        <f>$H12 &amp; N$3</f>
-        <v>陽去</v>
-      </c>
-      <c r="O12" s="10"/>
-      <c r="P12" s="9" t="str">
-        <f>$H12 &amp; P$3</f>
-        <v>陽入</v>
-      </c>
-    </row>
-    <row r="13" spans="4:19" s="8" customFormat="1" ht="27">
-      <c r="H13" s="100"/>
-      <c r="J13" s="8">
-        <v>5</v>
-      </c>
-      <c r="L13" s="8">
-        <v>6</v>
-      </c>
-      <c r="N13" s="8">
-        <v>7</v>
-      </c>
-      <c r="P13" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="4:19">
-      <c r="H14" s="100"/>
-      <c r="J14" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="4:19" s="3" customFormat="1" ht="42" customHeight="1">
-      <c r="D15" s="4"/>
-      <c r="F15" s="5"/>
-      <c r="H15" s="100"/>
-      <c r="I15" s="113" t="s">
-        <v>468</v>
-      </c>
-      <c r="J15" s="3">
-        <v>24</v>
-      </c>
-      <c r="L15" s="3">
-        <v>42</v>
-      </c>
-      <c r="N15" s="3">
-        <v>22</v>
-      </c>
-      <c r="P15" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="4:19">
-      <c r="H16" s="100"/>
-      <c r="I16" s="114" t="s">
-        <v>469</v>
-      </c>
-      <c r="J16" s="115">
-        <v>13</v>
-      </c>
-      <c r="K16" s="115"/>
-      <c r="L16" s="115">
-        <v>53</v>
-      </c>
-      <c r="M16" s="115"/>
-      <c r="N16" s="116">
-        <v>22</v>
-      </c>
-      <c r="O16" s="115"/>
-      <c r="P16" s="115">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="8:16">
-      <c r="H17" s="100"/>
-      <c r="I17" s="117" t="s">
-        <v>470</v>
-      </c>
-      <c r="J17" s="118">
-        <v>24</v>
-      </c>
-      <c r="K17" s="118"/>
-      <c r="L17" s="118">
-        <v>22</v>
-      </c>
-      <c r="M17" s="118"/>
-      <c r="N17" s="119">
-        <v>31</v>
-      </c>
-      <c r="O17" s="118"/>
-      <c r="P17" s="118">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="H5:H10"/>
-    <mergeCell ref="H12:H17"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9218DD01-3A76-43EF-988C-2E96671CBECF}">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="D1:P14"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="G1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="50.25"/>
-  <cols>
-    <col min="1" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="15" width="9" style="1"/>
-    <col min="16" max="16" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="4:16" ht="10.5" customHeight="1"/>
-    <row r="3" spans="4:16" s="12" customFormat="1" ht="57.75">
-      <c r="J3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="4:16" ht="10.5" customHeight="1"/>
-    <row r="5" spans="4:16" ht="21" customHeight="1">
-      <c r="J5" s="9" t="str">
-        <f>$H7 &amp; J$3</f>
-        <v>陰平</v>
-      </c>
-      <c r="K5" s="10"/>
-      <c r="L5" s="9" t="str">
-        <f>$H7 &amp; L$3</f>
-        <v>陰上</v>
-      </c>
-      <c r="M5" s="10"/>
-      <c r="N5" s="9" t="str">
-        <f>$H7 &amp; N$3</f>
-        <v>陰去</v>
-      </c>
-      <c r="O5" s="10"/>
-      <c r="P5" s="9" t="str">
-        <f>$H7 &amp; P$3</f>
-        <v>陰入</v>
-      </c>
-    </row>
-    <row r="6" spans="4:16" s="8" customFormat="1" ht="27">
-      <c r="J6" s="8">
-        <v>1</v>
-      </c>
-      <c r="L6" s="8">
-        <v>2</v>
-      </c>
-      <c r="N6" s="8">
-        <v>3</v>
-      </c>
-      <c r="P6" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="4:16" ht="57.75">
-      <c r="H7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="4:16" s="3" customFormat="1" ht="42" customHeight="1">
-      <c r="D8" s="4"/>
-      <c r="F8" s="5"/>
-      <c r="J8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L8" s="3">
-        <v>320</v>
-      </c>
-      <c r="N8" s="5">
-        <v>50</v>
-      </c>
-      <c r="P8" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" spans="4:16">
-      <c r="P9" s="2"/>
-    </row>
-    <row r="10" spans="4:16" ht="21" customHeight="1">
-      <c r="J10" s="9" t="str">
-        <f>$H12 &amp; J$3</f>
-        <v>陽平</v>
-      </c>
-      <c r="K10" s="10"/>
-      <c r="L10" s="9" t="str">
-        <f>$H12 &amp; L$3</f>
-        <v>陽上</v>
-      </c>
-      <c r="M10" s="10"/>
-      <c r="N10" s="9" t="str">
-        <f>$H12 &amp; N$3</f>
-        <v>陽去</v>
-      </c>
-      <c r="O10" s="10"/>
-      <c r="P10" s="9" t="str">
-        <f>$H12 &amp; P$3</f>
-        <v>陽入</v>
-      </c>
-    </row>
-    <row r="11" spans="4:16" s="8" customFormat="1" ht="27">
-      <c r="J11" s="8">
-        <v>5</v>
-      </c>
-      <c r="L11" s="8">
-        <v>6</v>
-      </c>
-      <c r="N11" s="8">
-        <v>7</v>
-      </c>
-      <c r="P11" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="4:16" ht="57.75">
-      <c r="H12" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="4:16" s="3" customFormat="1" ht="42" customHeight="1">
-      <c r="D13" s="4"/>
-      <c r="F13" s="5"/>
-      <c r="H13" s="4"/>
-      <c r="J13" s="3">
-        <v>61</v>
-      </c>
-      <c r="L13" s="3">
-        <v>320</v>
-      </c>
-      <c r="N13" s="3">
-        <v>20</v>
-      </c>
-      <c r="P13" s="3">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="14" spans="4:16">
-      <c r="P14" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/Documents/十五音教材/閩南語之四聲八調與變調規則.xlsx
+++ b/Documents/十五音教材/閩南語之四聲八調與變調規則.xlsx
@@ -8,29 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\Documents\十五音教材\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10BF55D7-62FD-4909-A986-B30432AB42CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EAE3394-377B-4B78-A34C-32DE181D55F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" tabRatio="673" firstSheet="1" activeTab="5" xr2:uid="{BD087EFD-0EA9-4677-AB62-D11AE02F8C6C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" tabRatio="673" activeTab="1" xr2:uid="{BD087EFD-0EA9-4677-AB62-D11AE02F8C6C}"/>
   </bookViews>
   <sheets>
-    <sheet name="台羅八調轉換" sheetId="9" r:id="rId1"/>
-    <sheet name="變調例【貨車】" sheetId="7" r:id="rId2"/>
-    <sheet name="變調例【貨車】 (2)" sheetId="12" r:id="rId3"/>
-    <sheet name="變調例【陳都靈】" sheetId="8" r:id="rId4"/>
-    <sheet name="四聲八調定義" sheetId="5" r:id="rId5"/>
-    <sheet name="調號與調符" sheetId="13" r:id="rId6"/>
-    <sheet name="四聲八調 (聲調值編號-君韻)" sheetId="11" r:id="rId7"/>
-    <sheet name="四聲八調 (聲調值編號-東韻)" sheetId="10" r:id="rId8"/>
-    <sheet name="四聲八調之文讀音" sheetId="1" r:id="rId9"/>
-    <sheet name="四聲八調之文讀音 (標調值)" sheetId="4" r:id="rId10"/>
-    <sheet name="四聲八調之白話音" sheetId="2" r:id="rId11"/>
-    <sheet name="簡上仁之四聲八調" sheetId="3" r:id="rId12"/>
-    <sheet name="漢字注音" sheetId="6" r:id="rId13"/>
+    <sheet name="八調變調規則" sheetId="14" r:id="rId1"/>
+    <sheet name="八調變調舉例" sheetId="9" r:id="rId2"/>
+    <sheet name="變調例【陳都靈】" sheetId="8" r:id="rId3"/>
+    <sheet name="變調例【貨車】" sheetId="7" r:id="rId4"/>
+    <sheet name="變調例【貨車】 (2)" sheetId="12" r:id="rId5"/>
+    <sheet name="四聲八調定義" sheetId="5" r:id="rId6"/>
+    <sheet name="調號與調符" sheetId="13" r:id="rId7"/>
+    <sheet name="四聲八調 (聲調值編號-君韻)" sheetId="11" r:id="rId8"/>
+    <sheet name="四聲八調 (聲調值編號-東韻)" sheetId="10" r:id="rId9"/>
+    <sheet name="四聲八調之文讀音" sheetId="1" r:id="rId10"/>
+    <sheet name="四聲八調之文讀音 (標調值)" sheetId="4" r:id="rId11"/>
+    <sheet name="四聲八調之白話音" sheetId="2" r:id="rId12"/>
+    <sheet name="簡上仁之四聲八調" sheetId="3" r:id="rId13"/>
+    <sheet name="漢字注音" sheetId="6" r:id="rId14"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId14"/>
     <externalReference r:id="rId15"/>
     <externalReference r:id="rId16"/>
+    <externalReference r:id="rId17"/>
   </externalReferences>
   <definedNames>
     <definedName name="十五音韻母">'[1]十五音-韻母'!$C$5:$C$54</definedName>
@@ -46,10 +47,10 @@
     <definedName name="鍵盤位置">#REF!</definedName>
     <definedName name="韻母對照表">[1]韻母對照表!$B$6:$K$105</definedName>
     <definedName name="韻母碼表">[1]韻母碼!$F$5:$M$78</definedName>
-    <definedName name="顯示注音輸入" localSheetId="12">[2]env!$C$10</definedName>
-    <definedName name="顯示注音輸入" localSheetId="1">[2]env!$C$10</definedName>
+    <definedName name="顯示注音輸入" localSheetId="13">[2]env!$C$10</definedName>
+    <definedName name="顯示注音輸入" localSheetId="3">[2]env!$C$10</definedName>
+    <definedName name="顯示注音輸入" localSheetId="4">[2]env!$C$10</definedName>
     <definedName name="顯示注音輸入" localSheetId="2">[2]env!$C$10</definedName>
-    <definedName name="顯示注音輸入" localSheetId="3">[2]env!$C$10</definedName>
     <definedName name="顯示注音輸入">[3]env!$C$10</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -73,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="513">
   <si>
     <t>滑</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1457,14 +1458,6 @@
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
-    <t>合</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>意</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
     <t>【ㄌㄧㄠ˫】</t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
@@ -1505,57 +1498,11 @@
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans TC"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>【</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FF000000"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ㄒㄧ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>】</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
     <t>【ㄐㄧㄛ】</t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>【ㄐㄧㄛ˙】</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>【ㄏㄚㆷ˙】</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>【ㄏㄚㆷ】</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>【ㄧ˪】</t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
@@ -1854,26 +1801,6 @@
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
-    <t>白</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>石</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔pe3〕</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔peh8〕</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔tsioh8〕</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
     <t>罰</t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
@@ -1890,22 +1817,6 @@
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
-    <t>〔tsinn5〕</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔hap8〕</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔hap4〕</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔i3〕</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
     <t>【ㄏㄨㄚㆵ˙】</t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
@@ -1918,18 +1829,6 @@
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
-    <t>【ㄅㆤㆷ˙】</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>【ㄅㆤ˪】</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>【ㄐㄧㄛㆷ˙】</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
     <t>〔ho2〕</t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
@@ -1950,10 +1849,6 @@
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
-    <t>〔bi2〕</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
     <t>〔thng1〕</t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
@@ -1962,10 +1857,6 @@
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
-    <t>〔tsui2〕</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
     <t>〔png7〕</t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
@@ -1974,10 +1865,6 @@
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
-    <t>〔liap8〕</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
     <t>〔tshai3〕</t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
@@ -1986,31 +1873,7 @@
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
-    <t>〔sik4〕</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>〔tsiok</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FF000000"/>
-        <rFont val="Iansui 094"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>4〕</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
     <t>〔tsiok8〕</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔pa2〕</t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
@@ -2175,12 +2038,190 @@
     <t>si0</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>鐵</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>馬</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔thih4〕</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔thi2〕</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>月</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>娘</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔gueh8〕</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔gue3〕</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>【ㄊㄧㆷ】</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>【ㄊㄧˋ】</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>【ㆠㆤˋ】</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>【ㄋㄧㄨˊ】</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>【ㆣㄨㆤㆷ˙】</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>【ㆣㄨㆤ˪】</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Noto Sans TC"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF00B050"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ㄒㄧ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔bi2〕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔tsui2〕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔liap8〕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔sik4〕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔pa2〕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔tsinn5〕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔be2〕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔niu5〕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【ㄉㄢˊ】</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>【ㄉㆦ】</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>【ㄌㄧㄥˊ】</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔ling5〕</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔too1〕</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔tan5〕</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>【ㄉㄢ】</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>【ㄉㆦ˫】</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔tan5~1〕</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔too1~7〕</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>〔tsiok4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Iansui 094"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>〕</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="74">
+  <fonts count="79">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2586,20 +2627,6 @@
     <font>
       <sz val="18"/>
       <color rgb="FF000000"/>
-      <name val="Noto Sans TC"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Microsoft YaHei"/>
-      <family val="1"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
       <name val="Iansui 094"/>
       <family val="1"/>
       <charset val="136"/>
@@ -2637,13 +2664,6 @@
       <color rgb="FF000000"/>
       <name val="Rockwell Extra Bold"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Noto Sans TC Black"/>
-      <family val="2"/>
-      <charset val="136"/>
     </font>
     <font>
       <sz val="18"/>
@@ -2707,6 +2727,63 @@
       <color theme="0" tint="-0.14999847407452621"/>
       <name val="Noto Serif TC Black"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF00B050"/>
+      <name val="Iansui 094"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF00B050"/>
+      <name val="Noto Sans TC"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF00B050"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF00B050"/>
+      <name val="Microsoft YaHei"/>
+      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3" tint="0.499984740745262"/>
+      <name val="Iansui 094"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Chiron Sung HK ExtraLight"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3" tint="0.499984740745262"/>
+      <name val="Chiron Sung HK ExtraLight"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF00B050"/>
+      <name val="Chiron Sung HK ExtraLight"/>
+      <family val="3"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="9">
@@ -3016,7 +3093,7 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3294,35 +3371,35 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="6" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="6" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3330,22 +3407,10 @@
     <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="58" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3363,31 +3428,52 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="69" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="69" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="69" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="69" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="69" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="69" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="69" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="6" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4338,8 +4424,57 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>6334124</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>559915</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>340840</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="圖片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B52597EF-CC87-4E63-89CC-385FA1E9FA51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="142875" y="115984"/>
+          <a:ext cx="6400799" cy="3539556"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>115984</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6334124</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>340840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4372,10 +4507,54 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>521041</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>108639</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="圖片 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{554C2280-DB66-605B-7D00-FF3145D50231}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="209550" y="4114800"/>
+          <a:ext cx="6864691" cy="5023539"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4864,7 +5043,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -17889,828 +18068,971 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0735C5A3-C90E-42B7-8007-9A5670A00C04}">
-  <dimension ref="A2:T37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{647454CA-C943-492C-BC45-E2575B08A6AB}">
+  <dimension ref="A2:AA37"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="D30" workbookViewId="0">
-      <selection activeCell="P43" sqref="P43"/>
+    <sheetView showGridLines="0" topLeftCell="F14" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19:Q25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30"/>
+  <sheetFormatPr defaultRowHeight="66"/>
   <cols>
     <col min="1" max="1" width="2.75" style="24" customWidth="1"/>
     <col min="2" max="2" width="83.25" style="24" customWidth="1"/>
     <col min="3" max="3" width="3.125" style="24" customWidth="1"/>
     <col min="4" max="4" width="6.5" style="91" customWidth="1"/>
-    <col min="5" max="5" width="43.25" style="106" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.875" style="99" customWidth="1"/>
+    <col min="5" max="5" width="43.25" style="102" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.875" style="98" customWidth="1"/>
     <col min="7" max="7" width="6.625" style="90" customWidth="1"/>
-    <col min="8" max="8" width="11.5" style="99" customWidth="1"/>
+    <col min="8" max="8" width="11.5" style="98" customWidth="1"/>
     <col min="9" max="9" width="9" style="88"/>
     <col min="10" max="10" width="16.125" style="90" customWidth="1"/>
     <col min="11" max="11" width="6.625" style="90" customWidth="1"/>
     <col min="12" max="12" width="16.125" style="90" customWidth="1"/>
     <col min="13" max="13" width="17.625" style="89" customWidth="1"/>
     <col min="14" max="14" width="5.5" style="89" customWidth="1"/>
-    <col min="15" max="15" width="4.375" style="94" customWidth="1"/>
+    <col min="15" max="15" width="4.125" style="94" customWidth="1"/>
     <col min="16" max="16" width="21.875" style="90" customWidth="1"/>
-    <col min="17" max="17" width="5.375" style="103" customWidth="1"/>
+    <col min="17" max="17" width="5.625" style="127" customWidth="1"/>
     <col min="18" max="19" width="21.875" style="90" customWidth="1"/>
     <col min="20" max="20" width="21.875" style="91" customWidth="1"/>
-    <col min="21" max="16384" width="9" style="88"/>
+    <col min="21" max="21" width="9" style="88"/>
+    <col min="22" max="22" width="4.125" style="88" customWidth="1"/>
+    <col min="23" max="23" width="18.75" style="88" customWidth="1"/>
+    <col min="24" max="24" width="5.625" style="129" customWidth="1"/>
+    <col min="25" max="27" width="18.75" style="88" customWidth="1"/>
+    <col min="28" max="16384" width="9" style="88"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19">
+    <row r="2" spans="2:27">
       <c r="D2" s="91" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="3" spans="2:19" ht="31.5" customHeight="1">
-      <c r="N3" s="114">
+    <row r="3" spans="2:27" ht="31.5" customHeight="1">
+      <c r="N3" s="110">
         <v>1</v>
       </c>
-      <c r="P3" s="97" t="s">
-        <v>450</v>
-      </c>
-      <c r="R3" s="97" t="s">
-        <v>451</v>
-      </c>
-      <c r="S3" s="97" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="4" spans="2:19" ht="57.75">
+      <c r="P3" s="126" t="s">
+        <v>432</v>
+      </c>
+      <c r="Q3" s="128"/>
+      <c r="R3" s="126" t="s">
+        <v>433</v>
+      </c>
+      <c r="S3" s="126" t="s">
+        <v>434</v>
+      </c>
+      <c r="U3" s="110">
+        <v>1</v>
+      </c>
+      <c r="V3" s="94"/>
+      <c r="W3" s="126" t="s">
+        <v>507</v>
+      </c>
+      <c r="X3" s="128"/>
+      <c r="Y3" s="126"/>
+      <c r="Z3" s="126"/>
+      <c r="AA3" s="126"/>
+    </row>
+    <row r="4" spans="2:27">
       <c r="D4" s="91">
         <v>1</v>
       </c>
-      <c r="E4" s="106" t="s">
+      <c r="E4" s="102" t="s">
         <v>322</v>
       </c>
-      <c r="F4" s="99" t="s">
-        <v>411</v>
-      </c>
-      <c r="G4" s="102" t="s">
-        <v>414</v>
-      </c>
-      <c r="H4" s="99" t="s">
+      <c r="F4" s="98" t="s">
+        <v>405</v>
+      </c>
+      <c r="G4" s="101" t="s">
+        <v>408</v>
+      </c>
+      <c r="H4" s="98" t="s">
         <v>243</v>
       </c>
       <c r="J4" s="90" t="s">
         <v>323</v>
       </c>
-      <c r="K4" s="102" t="s">
-        <v>414</v>
+      <c r="K4" s="101" t="s">
+        <v>408</v>
       </c>
       <c r="L4" s="90" t="s">
         <v>324</v>
       </c>
-      <c r="N4" s="114"/>
-      <c r="P4" s="98" t="s">
+      <c r="N4" s="110"/>
+      <c r="P4" s="97" t="s">
         <v>325</v>
       </c>
-      <c r="Q4" s="104" t="s">
-        <v>414</v>
-      </c>
-      <c r="R4" s="98" t="s">
+      <c r="Q4" s="129" t="s">
+        <v>408</v>
+      </c>
+      <c r="R4" s="97" t="s">
         <v>325</v>
       </c>
-      <c r="S4" s="98" t="s">
+      <c r="S4" s="97" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="5" spans="2:19" ht="31.5" customHeight="1">
-      <c r="F5" s="99" t="s">
-        <v>401</v>
-      </c>
-      <c r="G5" s="101"/>
-      <c r="H5" s="99" t="s">
-        <v>402</v>
-      </c>
-      <c r="J5" s="101">
+      <c r="U4" s="110"/>
+      <c r="V4" s="94"/>
+      <c r="W4" s="97" t="s">
+        <v>294</v>
+      </c>
+      <c r="Y4" s="97"/>
+      <c r="Z4" s="97"/>
+      <c r="AA4" s="97"/>
+    </row>
+    <row r="5" spans="2:27" ht="31.5" customHeight="1">
+      <c r="F5" s="98" t="s">
+        <v>395</v>
+      </c>
+      <c r="G5" s="100"/>
+      <c r="H5" s="98" t="s">
+        <v>396</v>
+      </c>
+      <c r="J5" s="100">
         <v>2</v>
       </c>
-      <c r="K5" s="101"/>
-      <c r="L5" s="101">
+      <c r="K5" s="100"/>
+      <c r="L5" s="100">
         <v>1</v>
       </c>
       <c r="M5" s="92"/>
-      <c r="N5" s="114"/>
-      <c r="P5" s="97" t="s">
+      <c r="N5" s="110"/>
+      <c r="P5" s="125" t="s">
         <v>327</v>
       </c>
-      <c r="R5" s="97" t="s">
-        <v>355</v>
-      </c>
-      <c r="S5" s="97" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="6" spans="2:19" ht="31.5" customHeight="1">
-      <c r="G6" s="101"/>
-      <c r="J6" s="101"/>
-      <c r="K6" s="101"/>
-      <c r="L6" s="101"/>
+      <c r="Q5" s="130"/>
+      <c r="R5" s="125" t="s">
+        <v>353</v>
+      </c>
+      <c r="S5" s="125" t="s">
+        <v>352</v>
+      </c>
+      <c r="U5" s="110"/>
+      <c r="V5" s="94"/>
+      <c r="W5" s="125" t="s">
+        <v>502</v>
+      </c>
+      <c r="X5" s="130"/>
+      <c r="Y5" s="125"/>
+      <c r="Z5" s="125"/>
+      <c r="AA5" s="125"/>
+    </row>
+    <row r="6" spans="2:27" ht="31.5" customHeight="1">
+      <c r="G6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="100"/>
       <c r="M6" s="92"/>
       <c r="N6" s="93"/>
       <c r="P6" s="95"/>
       <c r="R6" s="95"/>
       <c r="S6" s="96"/>
-    </row>
-    <row r="7" spans="2:19" ht="31.5" customHeight="1">
-      <c r="N7" s="114">
+      <c r="U6" s="93"/>
+      <c r="V6" s="94"/>
+      <c r="W6" s="95"/>
+      <c r="X6" s="127"/>
+      <c r="Y6" s="95"/>
+      <c r="Z6" s="96"/>
+      <c r="AA6" s="96"/>
+    </row>
+    <row r="7" spans="2:27" ht="31.5" customHeight="1">
+      <c r="N7" s="110">
         <v>2</v>
       </c>
-      <c r="P7" s="97" t="s">
-        <v>453</v>
-      </c>
-      <c r="R7" s="97" t="s">
-        <v>454</v>
-      </c>
-      <c r="S7" s="97" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="8" spans="2:19" ht="57.75">
+      <c r="P7" s="126" t="s">
+        <v>435</v>
+      </c>
+      <c r="Q7" s="128"/>
+      <c r="R7" s="126" t="s">
+        <v>436</v>
+      </c>
+      <c r="S7" s="126" t="s">
+        <v>494</v>
+      </c>
+      <c r="U7" s="110">
+        <v>2</v>
+      </c>
+      <c r="V7" s="94"/>
+      <c r="W7" s="126" t="s">
+        <v>506</v>
+      </c>
+      <c r="X7" s="128"/>
+      <c r="Y7" s="126" t="s">
+        <v>510</v>
+      </c>
+      <c r="Z7" s="126" t="s">
+        <v>511</v>
+      </c>
+      <c r="AA7" s="126" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="8" spans="2:27">
       <c r="D8" s="91">
         <v>2</v>
       </c>
-      <c r="E8" s="106" t="s">
-        <v>404</v>
-      </c>
-      <c r="F8" s="99" t="s">
-        <v>412</v>
-      </c>
-      <c r="G8" s="102" t="s">
-        <v>414</v>
-      </c>
-      <c r="H8" s="99" t="s">
-        <v>413</v>
+      <c r="E8" s="102" t="s">
+        <v>398</v>
+      </c>
+      <c r="F8" s="98" t="s">
+        <v>406</v>
+      </c>
+      <c r="G8" s="101" t="s">
+        <v>408</v>
+      </c>
+      <c r="H8" s="98" t="s">
+        <v>407</v>
       </c>
       <c r="J8" s="90" t="s">
         <v>328</v>
       </c>
-      <c r="K8" s="102" t="s">
-        <v>414</v>
+      <c r="K8" s="101" t="s">
+        <v>408</v>
       </c>
       <c r="L8" s="90" t="s">
         <v>329</v>
       </c>
-      <c r="N8" s="114"/>
-      <c r="P8" s="98" t="s">
+      <c r="N8" s="110"/>
+      <c r="P8" s="97" t="s">
         <v>330</v>
       </c>
-      <c r="Q8" s="104" t="s">
-        <v>414</v>
-      </c>
-      <c r="R8" s="98" t="s">
+      <c r="Q8" s="129" t="s">
+        <v>408</v>
+      </c>
+      <c r="R8" s="97" t="s">
         <v>330</v>
       </c>
-      <c r="S8" s="98" t="s">
+      <c r="S8" s="97" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="9" spans="2:19" ht="31.5" customHeight="1">
-      <c r="F9" s="99" t="s">
-        <v>403</v>
-      </c>
-      <c r="G9" s="101"/>
-      <c r="H9" s="99" t="s">
-        <v>405</v>
-      </c>
-      <c r="J9" s="101">
+      <c r="U8" s="110"/>
+      <c r="V8" s="94"/>
+      <c r="W8" s="97" t="s">
+        <v>295</v>
+      </c>
+      <c r="X8" s="129" t="s">
+        <v>408</v>
+      </c>
+      <c r="Y8" s="97" t="s">
+        <v>294</v>
+      </c>
+      <c r="Z8" s="97" t="s">
+        <v>295</v>
+      </c>
+      <c r="AA8" s="97" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="9" spans="2:27" ht="31.5" customHeight="1">
+      <c r="F9" s="98" t="s">
+        <v>397</v>
+      </c>
+      <c r="G9" s="100"/>
+      <c r="H9" s="98" t="s">
+        <v>399</v>
+      </c>
+      <c r="J9" s="100">
         <v>5</v>
       </c>
-      <c r="K9" s="101"/>
-      <c r="L9" s="101">
+      <c r="K9" s="100"/>
+      <c r="L9" s="100">
         <v>7</v>
       </c>
       <c r="M9" s="92"/>
-      <c r="N9" s="114"/>
-      <c r="P9" s="97" t="s">
-        <v>357</v>
-      </c>
-      <c r="R9" s="97" t="s">
-        <v>356</v>
-      </c>
-      <c r="S9" s="97" t="s">
+      <c r="N9" s="110"/>
+      <c r="P9" s="125" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q9" s="130"/>
+      <c r="R9" s="125" t="s">
+        <v>354</v>
+      </c>
+      <c r="S9" s="125" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="10" spans="2:19" ht="31.5" customHeight="1">
+      <c r="U9" s="110"/>
+      <c r="V9" s="94"/>
+      <c r="W9" s="125" t="s">
+        <v>503</v>
+      </c>
+      <c r="X9" s="130"/>
+      <c r="Y9" s="125" t="s">
+        <v>508</v>
+      </c>
+      <c r="Z9" s="125" t="s">
+        <v>509</v>
+      </c>
+      <c r="AA9" s="125" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="10" spans="2:27" ht="31.5" customHeight="1">
       <c r="N10" s="93"/>
       <c r="P10" s="95"/>
-      <c r="Q10" s="105"/>
       <c r="R10" s="95"/>
       <c r="S10" s="96"/>
-    </row>
-    <row r="11" spans="2:19" ht="31.5" customHeight="1">
-      <c r="N11" s="114">
+      <c r="U10" s="93"/>
+      <c r="V10" s="94"/>
+      <c r="W10" s="95"/>
+      <c r="X10" s="131"/>
+      <c r="Y10" s="95"/>
+      <c r="Z10" s="96"/>
+      <c r="AA10" s="96"/>
+    </row>
+    <row r="11" spans="2:27" ht="31.5" customHeight="1">
+      <c r="N11" s="110">
         <v>3</v>
       </c>
-      <c r="P11" s="97" t="s">
-        <v>456</v>
-      </c>
-      <c r="R11" s="97" t="s">
-        <v>457</v>
-      </c>
-      <c r="S11" s="97" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="12" spans="2:19" ht="57.75">
+      <c r="P11" s="126" t="s">
+        <v>437</v>
+      </c>
+      <c r="Q11" s="128"/>
+      <c r="R11" s="126" t="s">
+        <v>438</v>
+      </c>
+      <c r="S11" s="126" t="s">
+        <v>495</v>
+      </c>
+      <c r="U11" s="110">
+        <v>3</v>
+      </c>
+      <c r="V11" s="94"/>
+      <c r="W11" s="126" t="s">
+        <v>505</v>
+      </c>
+      <c r="X11" s="128"/>
+      <c r="Y11" s="126"/>
+      <c r="Z11" s="126"/>
+      <c r="AA11" s="126"/>
+    </row>
+    <row r="12" spans="2:27">
       <c r="B12" s="24" t="s">
         <v>333</v>
       </c>
       <c r="D12" s="91">
         <v>3</v>
       </c>
-      <c r="E12" s="106" t="s">
-        <v>398</v>
-      </c>
-      <c r="F12" s="99" t="s">
+      <c r="E12" s="102" t="s">
+        <v>392</v>
+      </c>
+      <c r="F12" s="98" t="s">
         <v>243</v>
       </c>
-      <c r="G12" s="102" t="s">
-        <v>414</v>
-      </c>
-      <c r="H12" s="99" t="s">
-        <v>413</v>
+      <c r="G12" s="101" t="s">
+        <v>408</v>
+      </c>
+      <c r="H12" s="98" t="s">
+        <v>407</v>
       </c>
       <c r="J12" s="90" t="s">
         <v>334</v>
       </c>
-      <c r="K12" s="102" t="s">
-        <v>414</v>
+      <c r="K12" s="101" t="s">
+        <v>408</v>
       </c>
       <c r="L12" s="90" t="s">
         <v>335</v>
       </c>
-      <c r="N12" s="114"/>
-      <c r="P12" s="98" t="s">
+      <c r="N12" s="110"/>
+      <c r="P12" s="97" t="s">
         <v>336</v>
       </c>
-      <c r="Q12" s="104" t="s">
-        <v>414</v>
-      </c>
-      <c r="R12" s="98" t="s">
+      <c r="Q12" s="129" t="s">
+        <v>408</v>
+      </c>
+      <c r="R12" s="97" t="s">
         <v>336</v>
       </c>
-      <c r="S12" s="98" t="s">
+      <c r="S12" s="97" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="13" spans="2:19" ht="31.5" customHeight="1">
+      <c r="U12" s="110"/>
+      <c r="V12" s="94"/>
+      <c r="W12" s="97" t="s">
+        <v>296</v>
+      </c>
+      <c r="Y12" s="97"/>
+      <c r="Z12" s="97"/>
+      <c r="AA12" s="97"/>
+    </row>
+    <row r="13" spans="2:27" ht="31.5" customHeight="1">
       <c r="B13" s="24" t="s">
         <v>338</v>
       </c>
-      <c r="F13" s="99" t="s">
-        <v>406</v>
-      </c>
-      <c r="G13" s="101"/>
-      <c r="H13" s="99" t="s">
-        <v>405</v>
-      </c>
-      <c r="J13" s="101">
+      <c r="F13" s="98" t="s">
+        <v>400</v>
+      </c>
+      <c r="G13" s="100"/>
+      <c r="H13" s="98" t="s">
+        <v>399</v>
+      </c>
+      <c r="J13" s="100">
         <v>1</v>
       </c>
-      <c r="K13" s="101"/>
-      <c r="L13" s="101">
+      <c r="K13" s="100"/>
+      <c r="L13" s="100">
         <v>7</v>
       </c>
       <c r="M13" s="92"/>
-      <c r="N13" s="114"/>
-      <c r="P13" s="97" t="s">
-        <v>359</v>
-      </c>
-      <c r="R13" s="97" t="s">
-        <v>358</v>
-      </c>
-      <c r="S13" s="97" t="s">
+      <c r="N13" s="110"/>
+      <c r="P13" s="125" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q13" s="130"/>
+      <c r="R13" s="125" t="s">
+        <v>356</v>
+      </c>
+      <c r="S13" s="125" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="14" spans="2:19" ht="31.5" customHeight="1">
+      <c r="U13" s="110"/>
+      <c r="V13" s="94"/>
+      <c r="W13" s="125" t="s">
+        <v>504</v>
+      </c>
+      <c r="X13" s="130"/>
+      <c r="Y13" s="125"/>
+      <c r="Z13" s="125"/>
+      <c r="AA13" s="125"/>
+    </row>
+    <row r="14" spans="2:27" ht="31.5" customHeight="1">
       <c r="N14" s="93"/>
       <c r="P14" s="95"/>
-      <c r="Q14" s="105"/>
       <c r="R14" s="95"/>
       <c r="S14" s="96"/>
     </row>
-    <row r="15" spans="2:19" ht="31.5" customHeight="1">
-      <c r="N15" s="114">
+    <row r="15" spans="2:27" ht="31.5" customHeight="1">
+      <c r="N15" s="110">
         <v>4</v>
       </c>
-      <c r="P15" s="97" t="s">
-        <v>459</v>
-      </c>
-      <c r="R15" s="97" t="s">
-        <v>460</v>
-      </c>
-      <c r="S15" s="97" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="16" spans="2:19" ht="57.75">
+      <c r="P15" s="126" t="s">
+        <v>439</v>
+      </c>
+      <c r="Q15" s="128"/>
+      <c r="R15" s="126" t="s">
+        <v>440</v>
+      </c>
+      <c r="S15" s="126" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="16" spans="2:27">
       <c r="D16" s="91">
         <v>4</v>
       </c>
-      <c r="E16" s="106" t="s">
-        <v>399</v>
-      </c>
-      <c r="F16" s="99" t="s">
-        <v>413</v>
-      </c>
-      <c r="G16" s="102" t="s">
-        <v>414</v>
-      </c>
-      <c r="H16" s="99" t="s">
-        <v>410</v>
+      <c r="E16" s="102" t="s">
+        <v>393</v>
+      </c>
+      <c r="F16" s="98" t="s">
+        <v>407</v>
+      </c>
+      <c r="G16" s="101" t="s">
+        <v>408</v>
+      </c>
+      <c r="H16" s="98" t="s">
+        <v>404</v>
       </c>
       <c r="J16" s="90" t="s">
         <v>340</v>
       </c>
-      <c r="K16" s="102" t="s">
-        <v>414</v>
+      <c r="K16" s="101" t="s">
+        <v>408</v>
       </c>
       <c r="L16" s="90" t="s">
         <v>341</v>
       </c>
-      <c r="N16" s="114"/>
-      <c r="P16" s="98" t="s">
+      <c r="N16" s="110"/>
+      <c r="P16" s="97" t="s">
         <v>342</v>
       </c>
-      <c r="Q16" s="104" t="s">
-        <v>414</v>
-      </c>
-      <c r="R16" s="98" t="s">
+      <c r="Q16" s="129" t="s">
+        <v>408</v>
+      </c>
+      <c r="R16" s="97" t="s">
         <v>342</v>
       </c>
-      <c r="S16" s="98" t="s">
+      <c r="S16" s="97" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="31.5" customHeight="1">
-      <c r="F17" s="99" t="s">
-        <v>405</v>
-      </c>
-      <c r="G17" s="101"/>
-      <c r="H17" s="99" t="s">
-        <v>407</v>
-      </c>
-      <c r="J17" s="101">
+    <row r="17" spans="1:24" ht="31.5" customHeight="1">
+      <c r="F17" s="98" t="s">
+        <v>399</v>
+      </c>
+      <c r="G17" s="100"/>
+      <c r="H17" s="98" t="s">
+        <v>401</v>
+      </c>
+      <c r="J17" s="100">
         <v>7</v>
       </c>
-      <c r="K17" s="101"/>
-      <c r="L17" s="101">
+      <c r="K17" s="100"/>
+      <c r="L17" s="100">
         <v>3</v>
       </c>
       <c r="M17" s="92"/>
-      <c r="N17" s="114"/>
-      <c r="P17" s="97" t="s">
+      <c r="N17" s="110"/>
+      <c r="P17" s="125" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q17" s="130"/>
+      <c r="R17" s="125" t="s">
+        <v>359</v>
+      </c>
+      <c r="S17" s="125" t="s">
         <v>360</v>
       </c>
-      <c r="R17" s="97" t="s">
-        <v>361</v>
-      </c>
-      <c r="S17" s="97" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="31.5" customHeight="1">
+    </row>
+    <row r="18" spans="1:24" ht="31.5" customHeight="1">
       <c r="N18" s="93"/>
       <c r="P18" s="95"/>
-      <c r="Q18" s="105"/>
+      <c r="Q18" s="131"/>
       <c r="R18" s="95"/>
       <c r="S18" s="96"/>
     </row>
-    <row r="19" spans="1:19" ht="31.5" customHeight="1">
-      <c r="N19" s="114">
+    <row r="19" spans="1:24" ht="31.5" customHeight="1">
+      <c r="N19" s="110">
         <v>5</v>
       </c>
-      <c r="P19" s="97" t="s">
-        <v>462</v>
-      </c>
-      <c r="R19" s="97" t="s">
-        <v>463</v>
-      </c>
-      <c r="S19" s="97" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" ht="57.75">
+      <c r="P19" s="126" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q19" s="128"/>
+      <c r="R19" s="126" t="s">
+        <v>442</v>
+      </c>
+      <c r="S19" s="126" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
       <c r="D20" s="91">
         <v>5</v>
       </c>
-      <c r="E20" s="106" t="s">
-        <v>400</v>
-      </c>
-      <c r="F20" s="99" t="s">
-        <v>410</v>
-      </c>
-      <c r="G20" s="102" t="s">
-        <v>414</v>
-      </c>
-      <c r="H20" s="99" t="s">
-        <v>411</v>
+      <c r="E20" s="102" t="s">
+        <v>394</v>
+      </c>
+      <c r="F20" s="98" t="s">
+        <v>404</v>
+      </c>
+      <c r="G20" s="101" t="s">
+        <v>408</v>
+      </c>
+      <c r="H20" s="98" t="s">
+        <v>405</v>
       </c>
       <c r="J20" s="90" t="s">
         <v>344</v>
       </c>
-      <c r="K20" s="102" t="s">
-        <v>414</v>
+      <c r="K20" s="101" t="s">
+        <v>408</v>
       </c>
       <c r="L20" s="90" t="s">
         <v>345</v>
       </c>
-      <c r="N20" s="114"/>
-      <c r="P20" s="98" t="s">
+      <c r="N20" s="110"/>
+      <c r="P20" s="97" t="s">
         <v>346</v>
       </c>
-      <c r="Q20" s="104" t="s">
-        <v>414</v>
-      </c>
-      <c r="R20" s="98" t="s">
+      <c r="Q20" s="129" t="s">
+        <v>408</v>
+      </c>
+      <c r="R20" s="97" t="s">
         <v>346</v>
       </c>
-      <c r="S20" s="98" t="s">
+      <c r="S20" s="97" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="31.5" customHeight="1">
-      <c r="F21" s="99" t="s">
-        <v>407</v>
-      </c>
-      <c r="G21" s="101"/>
-      <c r="H21" s="99" t="s">
-        <v>415</v>
-      </c>
-      <c r="J21" s="101">
+    <row r="21" spans="1:24" ht="31.5" customHeight="1">
+      <c r="F21" s="98" t="s">
+        <v>401</v>
+      </c>
+      <c r="G21" s="100"/>
+      <c r="H21" s="98" t="s">
+        <v>409</v>
+      </c>
+      <c r="J21" s="100">
         <v>3</v>
       </c>
-      <c r="K21" s="101"/>
-      <c r="L21" s="101">
+      <c r="K21" s="100"/>
+      <c r="L21" s="100">
         <v>2</v>
       </c>
       <c r="M21" s="92"/>
-      <c r="N21" s="114"/>
-      <c r="P21" s="97" t="s">
-        <v>363</v>
-      </c>
-      <c r="R21" s="97" t="s">
+      <c r="N21" s="110"/>
+      <c r="P21" s="125" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q21" s="130"/>
+      <c r="R21" s="125" t="s">
         <v>348</v>
       </c>
-      <c r="S21" s="97" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19">
+      <c r="S21" s="125" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
       <c r="N22" s="93"/>
       <c r="P22" s="95"/>
-      <c r="Q22" s="105"/>
       <c r="R22" s="95"/>
       <c r="S22" s="96"/>
     </row>
-    <row r="23" spans="1:19">
-      <c r="N23" s="114">
+    <row r="23" spans="1:24">
+      <c r="N23" s="110">
         <v>6</v>
       </c>
-      <c r="P23" s="97" t="s">
-        <v>465</v>
-      </c>
-      <c r="R23" s="97" t="s">
-        <v>466</v>
-      </c>
-      <c r="S23" s="97" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" ht="57.75">
+      <c r="P23" s="126" t="s">
+        <v>512</v>
+      </c>
+      <c r="Q23" s="128"/>
+      <c r="R23" s="126" t="s">
+        <v>443</v>
+      </c>
+      <c r="S23" s="126" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
       <c r="D24" s="91">
         <v>6</v>
       </c>
-      <c r="E24" s="106" t="s">
-        <v>416</v>
-      </c>
-      <c r="F24" s="99" t="s">
-        <v>424</v>
-      </c>
-      <c r="G24" s="102" t="s">
+      <c r="E24" s="102" t="s">
+        <v>410</v>
+      </c>
+      <c r="F24" s="98" t="s">
+        <v>418</v>
+      </c>
+      <c r="G24" s="101" t="s">
+        <v>408</v>
+      </c>
+      <c r="H24" s="98" t="s">
+        <v>417</v>
+      </c>
+      <c r="J24" s="90" t="s">
         <v>414</v>
       </c>
-      <c r="H24" s="99" t="s">
-        <v>423</v>
-      </c>
-      <c r="J24" s="90" t="s">
-        <v>420</v>
-      </c>
-      <c r="K24" s="102" t="s">
-        <v>414</v>
+      <c r="K24" s="101" t="s">
+        <v>408</v>
       </c>
       <c r="L24" s="90" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="M24" s="90"/>
-      <c r="N24" s="114"/>
-      <c r="P24" s="98" t="s">
+      <c r="N24" s="110"/>
+      <c r="P24" s="97" t="s">
         <v>349</v>
       </c>
-      <c r="Q24" s="104" t="s">
-        <v>414</v>
-      </c>
-      <c r="R24" s="98" t="s">
+      <c r="Q24" s="129" t="s">
+        <v>408</v>
+      </c>
+      <c r="R24" s="97" t="s">
         <v>349</v>
       </c>
-      <c r="S24" s="98" t="s">
+      <c r="S24" s="97" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="25" spans="1:19">
-      <c r="F25" s="100"/>
-      <c r="G25" s="101"/>
-      <c r="H25" s="100"/>
-      <c r="J25" s="101">
+    <row r="25" spans="1:24">
+      <c r="F25" s="99"/>
+      <c r="G25" s="100"/>
+      <c r="H25" s="99"/>
+      <c r="J25" s="100">
         <v>4</v>
       </c>
-      <c r="K25" s="101"/>
-      <c r="L25" s="101">
+      <c r="K25" s="100"/>
+      <c r="L25" s="100">
         <v>8</v>
       </c>
       <c r="M25" s="92"/>
-      <c r="N25" s="114"/>
-      <c r="P25" s="97" t="s">
-        <v>365</v>
-      </c>
-      <c r="R25" s="97" t="s">
-        <v>366</v>
-      </c>
-      <c r="S25" s="97" t="s">
+      <c r="N25" s="110"/>
+      <c r="P25" s="125" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q25" s="130"/>
+      <c r="R25" s="125" t="s">
+        <v>363</v>
+      </c>
+      <c r="S25" s="125" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="27" spans="1:19" s="91" customFormat="1">
+    <row r="27" spans="1:24" s="91" customFormat="1">
       <c r="A27" s="24"/>
       <c r="B27" s="24"/>
       <c r="C27" s="24"/>
-      <c r="E27" s="106"/>
-      <c r="F27" s="99"/>
+      <c r="E27" s="102"/>
+      <c r="F27" s="98"/>
       <c r="G27" s="90"/>
-      <c r="H27" s="99"/>
+      <c r="H27" s="98"/>
       <c r="I27" s="88"/>
       <c r="J27" s="90"/>
       <c r="K27" s="90"/>
       <c r="L27" s="90"/>
       <c r="M27" s="89"/>
-      <c r="N27" s="114">
+      <c r="N27" s="110">
         <v>7</v>
       </c>
       <c r="O27" s="94"/>
-      <c r="P27" s="97" t="s">
-        <v>438</v>
-      </c>
-      <c r="Q27" s="103"/>
-      <c r="R27" s="97" t="s">
-        <v>439</v>
-      </c>
-      <c r="S27" s="97" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" s="91" customFormat="1" ht="57.75">
+      <c r="P27" s="126" t="s">
+        <v>427</v>
+      </c>
+      <c r="Q27" s="128"/>
+      <c r="R27" s="126" t="s">
+        <v>428</v>
+      </c>
+      <c r="S27" s="126" t="s">
+        <v>499</v>
+      </c>
+      <c r="X27" s="129"/>
+    </row>
+    <row r="28" spans="1:24" s="91" customFormat="1">
       <c r="A28" s="24"/>
       <c r="B28" s="24"/>
       <c r="C28" s="24"/>
       <c r="D28" s="91">
         <v>7</v>
       </c>
-      <c r="E28" s="106" t="s">
+      <c r="E28" s="102" t="s">
+        <v>411</v>
+      </c>
+      <c r="F28" s="98" t="s">
         <v>417</v>
       </c>
-      <c r="F28" s="99" t="s">
-        <v>423</v>
-      </c>
-      <c r="G28" s="102" t="s">
-        <v>414</v>
-      </c>
-      <c r="H28" s="99" t="s">
-        <v>424</v>
+      <c r="G28" s="101" t="s">
+        <v>408</v>
+      </c>
+      <c r="H28" s="98" t="s">
+        <v>418</v>
       </c>
       <c r="I28" s="88"/>
       <c r="J28" s="90" t="s">
-        <v>429</v>
-      </c>
-      <c r="K28" s="102" t="s">
-        <v>414</v>
+        <v>423</v>
+      </c>
+      <c r="K28" s="101" t="s">
+        <v>408</v>
       </c>
       <c r="L28" s="90" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="M28" s="90"/>
-      <c r="N28" s="114"/>
+      <c r="N28" s="110"/>
       <c r="O28" s="94"/>
-      <c r="P28" s="98" t="s">
-        <v>436</v>
-      </c>
-      <c r="Q28" s="104" t="s">
-        <v>414</v>
-      </c>
-      <c r="R28" s="98" t="s">
-        <v>436</v>
-      </c>
-      <c r="S28" s="98" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" s="91" customFormat="1">
+      <c r="P28" s="97" t="s">
+        <v>425</v>
+      </c>
+      <c r="Q28" s="129" t="s">
+        <v>408</v>
+      </c>
+      <c r="R28" s="97" t="s">
+        <v>425</v>
+      </c>
+      <c r="S28" s="97" t="s">
+        <v>426</v>
+      </c>
+      <c r="X28" s="129"/>
+    </row>
+    <row r="29" spans="1:24" s="91" customFormat="1">
       <c r="A29" s="24"/>
       <c r="B29" s="24"/>
       <c r="C29" s="24"/>
-      <c r="E29" s="106"/>
-      <c r="F29" s="100"/>
-      <c r="G29" s="101"/>
-      <c r="H29" s="100"/>
+      <c r="E29" s="102"/>
+      <c r="F29" s="99"/>
+      <c r="G29" s="100"/>
+      <c r="H29" s="99"/>
       <c r="I29" s="88"/>
-      <c r="J29" s="101">
+      <c r="J29" s="100">
         <v>8</v>
       </c>
-      <c r="K29" s="101"/>
-      <c r="L29" s="101">
+      <c r="K29" s="100"/>
+      <c r="L29" s="100">
         <v>4</v>
       </c>
       <c r="M29" s="92"/>
-      <c r="N29" s="114"/>
+      <c r="N29" s="110"/>
       <c r="O29" s="94"/>
-      <c r="P29" s="97" t="s">
-        <v>444</v>
-      </c>
-      <c r="Q29" s="103"/>
-      <c r="R29" s="97" t="s">
-        <v>445</v>
-      </c>
-      <c r="S29" s="97" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19">
+      <c r="P29" s="125" t="s">
+        <v>429</v>
+      </c>
+      <c r="Q29" s="130"/>
+      <c r="R29" s="125" t="s">
+        <v>430</v>
+      </c>
+      <c r="S29" s="125" t="s">
+        <v>431</v>
+      </c>
+      <c r="X29" s="129"/>
+    </row>
+    <row r="31" spans="1:24">
       <c r="D31" s="91">
         <v>8</v>
       </c>
-      <c r="E31" s="106" t="s">
-        <v>418</v>
-      </c>
-      <c r="F31" s="99" t="s">
-        <v>409</v>
-      </c>
-      <c r="G31" s="102" t="s">
-        <v>414</v>
-      </c>
-      <c r="H31" s="99" t="s">
-        <v>411</v>
+      <c r="E31" s="102" t="s">
+        <v>412</v>
+      </c>
+      <c r="F31" s="98" t="s">
+        <v>403</v>
+      </c>
+      <c r="G31" s="101" t="s">
+        <v>408</v>
+      </c>
+      <c r="H31" s="98" t="s">
+        <v>405</v>
       </c>
       <c r="J31" s="90" t="s">
-        <v>422</v>
-      </c>
-      <c r="K31" s="102" t="s">
-        <v>414</v>
+        <v>416</v>
+      </c>
+      <c r="K31" s="101" t="s">
+        <v>408</v>
       </c>
       <c r="L31" s="90" t="s">
-        <v>426</v>
-      </c>
-      <c r="N31" s="114">
+        <v>420</v>
+      </c>
+      <c r="N31" s="110">
         <v>8</v>
       </c>
-      <c r="P31" s="97" t="s">
-        <v>441</v>
-      </c>
-      <c r="R31" s="97" t="s">
-        <v>442</v>
-      </c>
-      <c r="S31" s="97" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" ht="57.75">
-      <c r="F32" s="100"/>
-      <c r="G32" s="101"/>
-      <c r="H32" s="100"/>
-      <c r="J32" s="101">
+      <c r="P31" s="126" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q31" s="128"/>
+      <c r="R31" s="126" t="s">
+        <v>482</v>
+      </c>
+      <c r="S31" s="126" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24">
+      <c r="F32" s="99"/>
+      <c r="G32" s="100"/>
+      <c r="H32" s="99"/>
+      <c r="J32" s="100">
         <v>4</v>
       </c>
-      <c r="K32" s="101"/>
-      <c r="L32" s="101">
+      <c r="K32" s="100"/>
+      <c r="L32" s="100">
         <v>2</v>
       </c>
-      <c r="N32" s="114"/>
-      <c r="P32" s="98" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q32" s="104" t="s">
-        <v>414</v>
-      </c>
-      <c r="R32" s="98" t="s">
-        <v>352</v>
-      </c>
-      <c r="S32" s="98" t="s">
-        <v>353</v>
+      <c r="N32" s="110"/>
+      <c r="P32" s="97" t="s">
+        <v>479</v>
+      </c>
+      <c r="Q32" s="129" t="s">
+        <v>408</v>
+      </c>
+      <c r="R32" s="97" t="s">
+        <v>479</v>
+      </c>
+      <c r="S32" s="97" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="33" spans="4:19">
-      <c r="N33" s="114"/>
-      <c r="P33" s="97" t="s">
-        <v>367</v>
-      </c>
-      <c r="R33" s="97" t="s">
-        <v>368</v>
-      </c>
-      <c r="S33" s="97" t="s">
-        <v>369</v>
+      <c r="N33" s="110"/>
+      <c r="P33" s="125" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q33" s="130"/>
+      <c r="R33" s="125" t="s">
+        <v>488</v>
+      </c>
+      <c r="S33" s="125" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="35" spans="4:19">
       <c r="D35" s="91">
         <v>9</v>
       </c>
-      <c r="E35" s="106" t="s">
+      <c r="E35" s="102" t="s">
+        <v>413</v>
+      </c>
+      <c r="F35" s="98" t="s">
+        <v>402</v>
+      </c>
+      <c r="G35" s="101" t="s">
+        <v>408</v>
+      </c>
+      <c r="H35" s="98" t="s">
         <v>419</v>
       </c>
-      <c r="F35" s="99" t="s">
+      <c r="J35" s="90" t="s">
+        <v>421</v>
+      </c>
+      <c r="K35" s="101" t="s">
         <v>408</v>
       </c>
-      <c r="G35" s="102" t="s">
-        <v>414</v>
-      </c>
-      <c r="H35" s="99" t="s">
-        <v>425</v>
-      </c>
-      <c r="J35" s="90" t="s">
-        <v>427</v>
-      </c>
-      <c r="K35" s="102" t="s">
-        <v>414</v>
-      </c>
       <c r="L35" s="90" t="s">
-        <v>428</v>
-      </c>
-      <c r="N35" s="114">
+        <v>422</v>
+      </c>
+      <c r="N35" s="110">
         <v>9</v>
       </c>
-      <c r="P35" s="97" t="s">
-        <v>434</v>
-      </c>
-      <c r="R35" s="97" t="s">
-        <v>433</v>
-      </c>
-      <c r="S35" s="97" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="36" spans="4:19" ht="57.75">
-      <c r="F36" s="100"/>
-      <c r="G36" s="101"/>
-      <c r="H36" s="100"/>
-      <c r="J36" s="101">
+      <c r="P35" s="126" t="s">
+        <v>485</v>
+      </c>
+      <c r="Q35" s="128"/>
+      <c r="R35" s="126" t="s">
+        <v>486</v>
+      </c>
+      <c r="S35" s="126" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="36" spans="4:19">
+      <c r="F36" s="99"/>
+      <c r="G36" s="100"/>
+      <c r="H36" s="99"/>
+      <c r="J36" s="100">
         <v>8</v>
       </c>
-      <c r="K36" s="101"/>
-      <c r="L36" s="101">
+      <c r="K36" s="100"/>
+      <c r="L36" s="100">
         <v>3</v>
       </c>
-      <c r="N36" s="114"/>
-      <c r="P36" s="98" t="s">
-        <v>431</v>
-      </c>
-      <c r="Q36" s="104" t="s">
-        <v>414</v>
-      </c>
-      <c r="R36" s="98" t="s">
-        <v>431</v>
-      </c>
-      <c r="S36" s="98" t="s">
-        <v>432</v>
+      <c r="N36" s="110"/>
+      <c r="P36" s="97" t="s">
+        <v>483</v>
+      </c>
+      <c r="Q36" s="129" t="s">
+        <v>408</v>
+      </c>
+      <c r="R36" s="97" t="s">
+        <v>483</v>
+      </c>
+      <c r="S36" s="97" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="37" spans="4:19">
-      <c r="N37" s="114"/>
-      <c r="P37" s="97" t="s">
-        <v>447</v>
-      </c>
-      <c r="R37" s="97" t="s">
-        <v>448</v>
-      </c>
-      <c r="S37" s="97" t="s">
-        <v>449</v>
+      <c r="N37" s="110"/>
+      <c r="P37" s="125" t="s">
+        <v>491</v>
+      </c>
+      <c r="Q37" s="130"/>
+      <c r="R37" s="125" t="s">
+        <v>492</v>
+      </c>
+      <c r="S37" s="125" t="s">
+        <v>490</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="N31:N33"/>
-    <mergeCell ref="N35:N37"/>
-    <mergeCell ref="N27:N29"/>
-    <mergeCell ref="N3:N5"/>
-    <mergeCell ref="N7:N9"/>
-    <mergeCell ref="N11:N13"/>
+  <mergeCells count="12">
     <mergeCell ref="N15:N17"/>
     <mergeCell ref="N19:N21"/>
     <mergeCell ref="N23:N25"/>
+    <mergeCell ref="N27:N29"/>
+    <mergeCell ref="N31:N33"/>
+    <mergeCell ref="N35:N37"/>
+    <mergeCell ref="N3:N5"/>
+    <mergeCell ref="U3:U5"/>
+    <mergeCell ref="N7:N9"/>
+    <mergeCell ref="U7:U9"/>
+    <mergeCell ref="N11:N13"/>
+    <mergeCell ref="U11:U13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18719,6 +19041,212 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E977512E-9623-471B-8642-FB08C07A8D1C}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="D1:S14"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="G6" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="V12" sqref="V12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="50.25"/>
+  <cols>
+    <col min="1" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="1"/>
+    <col min="9" max="9" width="2.75" style="1" customWidth="1"/>
+    <col min="10" max="15" width="9" style="1"/>
+    <col min="16" max="16" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="4:19" ht="10.5" customHeight="1"/>
+    <row r="3" spans="4:19" s="12" customFormat="1" ht="57.75">
+      <c r="J3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="4:19" ht="10.5" customHeight="1"/>
+    <row r="5" spans="4:19" ht="21" customHeight="1">
+      <c r="H5" s="112" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="9" t="str">
+        <f>$H5 &amp; J$3</f>
+        <v>陰平</v>
+      </c>
+      <c r="K5" s="10"/>
+      <c r="L5" s="9" t="str">
+        <f>$H5 &amp; L$3</f>
+        <v>陰上</v>
+      </c>
+      <c r="M5" s="10"/>
+      <c r="N5" s="9" t="str">
+        <f>$H5 &amp; N$3</f>
+        <v>陰去</v>
+      </c>
+      <c r="O5" s="10"/>
+      <c r="P5" s="9" t="str">
+        <f>$H5 &amp; P$3</f>
+        <v>陰入</v>
+      </c>
+    </row>
+    <row r="6" spans="4:19" s="8" customFormat="1" ht="27">
+      <c r="H6" s="111"/>
+      <c r="J6" s="8">
+        <v>1</v>
+      </c>
+      <c r="L6" s="8">
+        <v>2</v>
+      </c>
+      <c r="N6" s="8">
+        <v>3</v>
+      </c>
+      <c r="P6" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="4:19">
+      <c r="H7" s="111"/>
+      <c r="J7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="4:19" s="3" customFormat="1" ht="42" customHeight="1">
+      <c r="D8" s="4"/>
+      <c r="F8" s="5"/>
+      <c r="H8" s="111"/>
+      <c r="J8" s="3">
+        <v>44</v>
+      </c>
+      <c r="L8" s="3">
+        <v>51</v>
+      </c>
+      <c r="N8" s="5">
+        <v>31</v>
+      </c>
+      <c r="P8" s="3">
+        <v>30</v>
+      </c>
+      <c r="S8" s="11"/>
+    </row>
+    <row r="9" spans="4:19">
+      <c r="P9" s="2"/>
+    </row>
+    <row r="10" spans="4:19" ht="21" customHeight="1">
+      <c r="H10" s="111" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="9" t="str">
+        <f>$H10 &amp; J$3</f>
+        <v>陽平</v>
+      </c>
+      <c r="K10" s="10"/>
+      <c r="L10" s="9" t="str">
+        <f>$H10 &amp; L$3</f>
+        <v>陽上</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c r="N10" s="9" t="str">
+        <f>$H10 &amp; N$3</f>
+        <v>陽去</v>
+      </c>
+      <c r="O10" s="10"/>
+      <c r="P10" s="9" t="str">
+        <f>$H10 &amp; P$3</f>
+        <v>陽入</v>
+      </c>
+    </row>
+    <row r="11" spans="4:19" s="8" customFormat="1" ht="27">
+      <c r="H11" s="111"/>
+      <c r="J11" s="8">
+        <v>5</v>
+      </c>
+      <c r="L11" s="8">
+        <v>6</v>
+      </c>
+      <c r="N11" s="8">
+        <v>7</v>
+      </c>
+      <c r="P11" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="4:19">
+      <c r="H12" s="111"/>
+      <c r="J12" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="4:19" s="3" customFormat="1" ht="42" customHeight="1">
+      <c r="D13" s="4"/>
+      <c r="F13" s="5"/>
+      <c r="H13" s="111"/>
+      <c r="J13" s="3">
+        <v>24</v>
+      </c>
+      <c r="L13" s="3">
+        <v>51</v>
+      </c>
+      <c r="N13" s="3">
+        <v>33</v>
+      </c>
+      <c r="P13" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="4:19">
+      <c r="P14" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="H5:H8"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED796427-B883-4AC3-8EAC-E9156309297F}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -18760,7 +19288,7 @@
     </row>
     <row r="4" spans="4:19" ht="10.5" customHeight="1"/>
     <row r="5" spans="4:19" ht="21" customHeight="1">
-      <c r="H5" s="115" t="s">
+      <c r="H5" s="111" t="s">
         <v>8</v>
       </c>
       <c r="J5" s="9" t="str">
@@ -18784,7 +19312,7 @@
       </c>
     </row>
     <row r="6" spans="4:19" s="8" customFormat="1" ht="27">
-      <c r="H6" s="115"/>
+      <c r="H6" s="111"/>
       <c r="J6" s="8">
         <v>1</v>
       </c>
@@ -18799,7 +19327,7 @@
       </c>
     </row>
     <row r="7" spans="4:19">
-      <c r="H7" s="115"/>
+      <c r="H7" s="111"/>
       <c r="J7" s="6" t="s">
         <v>7</v>
       </c>
@@ -18819,9 +19347,9 @@
     <row r="8" spans="4:19" s="3" customFormat="1" ht="42" customHeight="1">
       <c r="D8" s="4"/>
       <c r="F8" s="5"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="107" t="s">
-        <v>468</v>
+      <c r="H8" s="111"/>
+      <c r="I8" s="103" t="s">
+        <v>444</v>
       </c>
       <c r="J8" s="3">
         <v>44</v>
@@ -18840,23 +19368,23 @@
     <row r="9" spans="4:19" s="3" customFormat="1" ht="42" customHeight="1">
       <c r="D9" s="4"/>
       <c r="F9" s="5"/>
-      <c r="H9" s="115"/>
-      <c r="I9" s="108" t="s">
-        <v>469</v>
-      </c>
-      <c r="J9" s="109">
+      <c r="H9" s="111"/>
+      <c r="I9" s="104" t="s">
+        <v>445</v>
+      </c>
+      <c r="J9" s="105">
         <v>44</v>
       </c>
-      <c r="K9" s="109"/>
-      <c r="L9" s="109">
+      <c r="K9" s="105"/>
+      <c r="L9" s="105">
         <v>53</v>
       </c>
-      <c r="M9" s="109"/>
-      <c r="N9" s="110">
+      <c r="M9" s="105"/>
+      <c r="N9" s="106">
         <v>21</v>
       </c>
-      <c r="O9" s="109"/>
-      <c r="P9" s="109">
+      <c r="O9" s="105"/>
+      <c r="P9" s="105">
         <v>20</v>
       </c>
       <c r="S9" s="11"/>
@@ -18864,23 +19392,23 @@
     <row r="10" spans="4:19" s="3" customFormat="1" ht="42" customHeight="1">
       <c r="D10" s="4"/>
       <c r="F10" s="5"/>
-      <c r="H10" s="115"/>
-      <c r="I10" s="111" t="s">
-        <v>470</v>
-      </c>
-      <c r="J10" s="112">
+      <c r="H10" s="111"/>
+      <c r="I10" s="107" t="s">
+        <v>446</v>
+      </c>
+      <c r="J10" s="108">
         <v>33</v>
       </c>
-      <c r="K10" s="112"/>
-      <c r="L10" s="112">
+      <c r="K10" s="108"/>
+      <c r="L10" s="108">
         <v>55</v>
       </c>
-      <c r="M10" s="112"/>
-      <c r="N10" s="113">
+      <c r="M10" s="108"/>
+      <c r="N10" s="109">
         <v>31</v>
       </c>
-      <c r="O10" s="112"/>
-      <c r="P10" s="112">
+      <c r="O10" s="108"/>
+      <c r="P10" s="108">
         <v>4</v>
       </c>
       <c r="S10" s="11"/>
@@ -18889,7 +19417,7 @@
       <c r="P11" s="2"/>
     </row>
     <row r="12" spans="4:19" ht="21" customHeight="1">
-      <c r="H12" s="115" t="s">
+      <c r="H12" s="111" t="s">
         <v>4</v>
       </c>
       <c r="J12" s="9" t="str">
@@ -18913,7 +19441,7 @@
       </c>
     </row>
     <row r="13" spans="4:19" s="8" customFormat="1" ht="27">
-      <c r="H13" s="115"/>
+      <c r="H13" s="111"/>
       <c r="J13" s="8">
         <v>5</v>
       </c>
@@ -18928,7 +19456,7 @@
       </c>
     </row>
     <row r="14" spans="4:19">
-      <c r="H14" s="115"/>
+      <c r="H14" s="111"/>
       <c r="J14" s="6" t="s">
         <v>3</v>
       </c>
@@ -18948,9 +19476,9 @@
     <row r="15" spans="4:19" s="3" customFormat="1" ht="42" customHeight="1">
       <c r="D15" s="4"/>
       <c r="F15" s="5"/>
-      <c r="H15" s="115"/>
-      <c r="I15" s="107" t="s">
-        <v>468</v>
+      <c r="H15" s="111"/>
+      <c r="I15" s="103" t="s">
+        <v>444</v>
       </c>
       <c r="J15" s="3">
         <v>24</v>
@@ -18966,44 +19494,44 @@
       </c>
     </row>
     <row r="16" spans="4:19">
-      <c r="H16" s="115"/>
-      <c r="I16" s="108" t="s">
-        <v>469</v>
-      </c>
-      <c r="J16" s="109">
+      <c r="H16" s="111"/>
+      <c r="I16" s="104" t="s">
+        <v>445</v>
+      </c>
+      <c r="J16" s="105">
         <v>13</v>
       </c>
-      <c r="K16" s="109"/>
-      <c r="L16" s="109">
+      <c r="K16" s="105"/>
+      <c r="L16" s="105">
         <v>53</v>
       </c>
-      <c r="M16" s="109"/>
-      <c r="N16" s="110">
+      <c r="M16" s="105"/>
+      <c r="N16" s="106">
         <v>22</v>
       </c>
-      <c r="O16" s="109"/>
-      <c r="P16" s="109">
+      <c r="O16" s="105"/>
+      <c r="P16" s="105">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="8:16">
-      <c r="H17" s="115"/>
-      <c r="I17" s="111" t="s">
-        <v>470</v>
-      </c>
-      <c r="J17" s="112">
+      <c r="H17" s="111"/>
+      <c r="I17" s="107" t="s">
+        <v>446</v>
+      </c>
+      <c r="J17" s="108">
         <v>24</v>
       </c>
-      <c r="K17" s="112"/>
-      <c r="L17" s="112">
+      <c r="K17" s="108"/>
+      <c r="L17" s="108">
         <v>22</v>
       </c>
-      <c r="M17" s="112"/>
-      <c r="N17" s="113">
+      <c r="M17" s="108"/>
+      <c r="N17" s="109">
         <v>31</v>
       </c>
-      <c r="O17" s="112"/>
-      <c r="P17" s="112">
+      <c r="O17" s="108"/>
+      <c r="P17" s="108">
         <v>23</v>
       </c>
     </row>
@@ -19017,7 +19545,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9218DD01-3A76-43EF-988C-2E96671CBECF}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -19206,7 +19734,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFA51E7D-EC2D-4714-B54F-91058AEA2361}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -19426,7 +19954,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{741A9724-6DAD-4547-A9DF-F33414FBA47D}">
   <dimension ref="B1:V242"/>
   <sheetViews>
@@ -19553,7 +20081,7 @@
       <c r="Q3" s="34"/>
       <c r="R3" s="34"/>
       <c r="T3" s="36"/>
-      <c r="V3" s="117" t="s">
+      <c r="V3" s="113" t="s">
         <v>51</v>
       </c>
     </row>
@@ -19603,7 +20131,7 @@
         <v>64</v>
       </c>
       <c r="S4" s="39"/>
-      <c r="V4" s="118"/>
+      <c r="V4" s="114"/>
     </row>
     <row r="5" spans="2:22" s="26" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B5" s="40">
@@ -19655,7 +20183,7 @@
         <v>79</v>
       </c>
       <c r="S5" s="43"/>
-      <c r="V5" s="118"/>
+      <c r="V5" s="114"/>
     </row>
     <row r="6" spans="2:22" s="48" customFormat="1" ht="36" customHeight="1">
       <c r="B6" s="44"/>
@@ -19704,7 +20232,7 @@
         <v>64</v>
       </c>
       <c r="S6" s="47"/>
-      <c r="V6" s="118"/>
+      <c r="V6" s="114"/>
     </row>
     <row r="7" spans="2:22" s="52" customFormat="1" ht="60" customHeight="1">
       <c r="B7" s="49"/>
@@ -19727,7 +20255,7 @@
       <c r="Q7" s="34"/>
       <c r="R7" s="34"/>
       <c r="S7" s="51"/>
-      <c r="V7" s="118"/>
+      <c r="V7" s="114"/>
     </row>
     <row r="8" spans="2:22" s="26" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="37"/>
@@ -19769,7 +20297,7 @@
       <c r="Q8" s="38"/>
       <c r="R8" s="38"/>
       <c r="S8" s="39"/>
-      <c r="V8" s="118"/>
+      <c r="V8" s="114"/>
     </row>
     <row r="9" spans="2:22" s="26" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B9" s="40">
@@ -19825,7 +20353,7 @@
       </c>
       <c r="S9" s="43"/>
       <c r="T9" s="36"/>
-      <c r="V9" s="118"/>
+      <c r="V9" s="114"/>
     </row>
     <row r="10" spans="2:22" s="26" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="44"/>
@@ -19867,7 +20395,7 @@
       <c r="Q10" s="46"/>
       <c r="R10" s="46"/>
       <c r="S10" s="54"/>
-      <c r="V10" s="118"/>
+      <c r="V10" s="114"/>
     </row>
     <row r="11" spans="2:22" s="51" customFormat="1" ht="60" customHeight="1">
       <c r="B11" s="55"/>
@@ -19887,7 +20415,7 @@
       <c r="P11" s="57"/>
       <c r="Q11" s="57"/>
       <c r="R11" s="57"/>
-      <c r="V11" s="118"/>
+      <c r="V11" s="114"/>
     </row>
     <row r="12" spans="2:22" s="26" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="37"/>
@@ -19907,7 +20435,7 @@
       <c r="Q12" s="58"/>
       <c r="R12" s="58"/>
       <c r="S12" s="39"/>
-      <c r="V12" s="118"/>
+      <c r="V12" s="114"/>
     </row>
     <row r="13" spans="2:22" s="26" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B13" s="40">
@@ -19934,7 +20462,7 @@
       <c r="Q13" s="59"/>
       <c r="R13" s="59"/>
       <c r="S13" s="43"/>
-      <c r="V13" s="118"/>
+      <c r="V13" s="114"/>
     </row>
     <row r="14" spans="2:22" s="26" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="44"/>
@@ -19954,7 +20482,7 @@
       <c r="Q14" s="46"/>
       <c r="R14" s="46"/>
       <c r="S14" s="54"/>
-      <c r="V14" s="118"/>
+      <c r="V14" s="114"/>
     </row>
     <row r="15" spans="2:22" s="61" customFormat="1" ht="60" customHeight="1">
       <c r="B15" s="32"/>
@@ -19976,7 +20504,7 @@
       <c r="P15" s="34"/>
       <c r="Q15" s="34"/>
       <c r="R15" s="34"/>
-      <c r="V15" s="118"/>
+      <c r="V15" s="114"/>
     </row>
     <row r="16" spans="2:22" s="26" customFormat="1" ht="36" customHeight="1">
       <c r="B16" s="37"/>
@@ -20020,7 +20548,7 @@
         <v>107</v>
       </c>
       <c r="S16" s="39"/>
-      <c r="V16" s="118"/>
+      <c r="V16" s="114"/>
     </row>
     <row r="17" spans="2:22" s="26" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B17" s="40">
@@ -20073,7 +20601,7 @@
         <v>114</v>
       </c>
       <c r="S17" s="43"/>
-      <c r="V17" s="118"/>
+      <c r="V17" s="114"/>
     </row>
     <row r="18" spans="2:22" s="26" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="44"/>
@@ -20117,7 +20645,7 @@
         <v>107</v>
       </c>
       <c r="S18" s="54"/>
-      <c r="V18" s="118"/>
+      <c r="V18" s="114"/>
     </row>
     <row r="19" spans="2:22" s="61" customFormat="1" ht="60" customHeight="1">
       <c r="B19" s="32"/>
@@ -20137,7 +20665,7 @@
       <c r="P19" s="34"/>
       <c r="Q19" s="34"/>
       <c r="R19" s="34"/>
-      <c r="V19" s="118"/>
+      <c r="V19" s="114"/>
     </row>
     <row r="20" spans="2:22" s="26" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="37"/>
@@ -20181,7 +20709,7 @@
         <v>121</v>
       </c>
       <c r="S20" s="39"/>
-      <c r="V20" s="118"/>
+      <c r="V20" s="114"/>
     </row>
     <row r="21" spans="2:22" s="26" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B21" s="40">
@@ -20234,7 +20762,7 @@
         <v>127</v>
       </c>
       <c r="S21" s="43"/>
-      <c r="V21" s="118"/>
+      <c r="V21" s="114"/>
     </row>
     <row r="22" spans="2:22" s="26" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="44"/>
@@ -20278,7 +20806,7 @@
         <v>121</v>
       </c>
       <c r="S22" s="54"/>
-      <c r="V22" s="119"/>
+      <c r="V22" s="115"/>
     </row>
     <row r="23" spans="2:22" s="61" customFormat="1" ht="60" customHeight="1">
       <c r="B23" s="32"/>
@@ -26406,505 +26934,698 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B74B52E5-158C-4158-B830-F64531392513}">
-  <dimension ref="B1:O18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0735C5A3-C90E-42B7-8007-9A5670A00C04}">
+  <dimension ref="A3:Q41"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="AK17" sqref="AK17"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21"/>
+  <sheetFormatPr defaultRowHeight="66"/>
   <cols>
-    <col min="1" max="1" width="0.875" style="24" customWidth="1"/>
-    <col min="2" max="2" width="5.625" style="24" customWidth="1"/>
-    <col min="3" max="4" width="4.625" style="24" customWidth="1"/>
-    <col min="5" max="5" width="7.75" style="24" customWidth="1"/>
-    <col min="6" max="6" width="28.5" style="67" customWidth="1"/>
-    <col min="7" max="7" width="7.75" style="24" customWidth="1"/>
-    <col min="8" max="8" width="4.625" style="24" customWidth="1"/>
-    <col min="9" max="9" width="14.625" style="24" customWidth="1"/>
-    <col min="10" max="10" width="4.625" style="24" customWidth="1"/>
-    <col min="11" max="11" width="7.75" style="24" customWidth="1"/>
-    <col min="12" max="12" width="28.5" style="67" customWidth="1"/>
-    <col min="13" max="13" width="7.75" style="24" customWidth="1"/>
-    <col min="14" max="14" width="4.625" style="24" customWidth="1"/>
-    <col min="15" max="15" width="14.625" style="24" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="24"/>
+    <col min="1" max="1" width="2.75" style="24" customWidth="1"/>
+    <col min="2" max="2" width="83.25" style="24" customWidth="1"/>
+    <col min="3" max="3" width="17.625" style="89" customWidth="1"/>
+    <col min="4" max="4" width="5.125" style="89" customWidth="1"/>
+    <col min="5" max="5" width="4.125" style="94" customWidth="1"/>
+    <col min="6" max="6" width="21.875" style="90" customWidth="1"/>
+    <col min="7" max="7" width="5.625" style="127" customWidth="1"/>
+    <col min="8" max="9" width="21.875" style="90" customWidth="1"/>
+    <col min="10" max="10" width="21.875" style="91" customWidth="1"/>
+    <col min="11" max="11" width="5.125" style="88" customWidth="1"/>
+    <col min="12" max="12" width="4.125" style="88" customWidth="1"/>
+    <col min="13" max="13" width="18.75" style="88" customWidth="1"/>
+    <col min="14" max="14" width="5.625" style="129" customWidth="1"/>
+    <col min="15" max="17" width="18.75" style="88" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="88"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="27">
-      <c r="F1" s="25">
-        <f>COLUMN()</f>
+    <row r="3" spans="3:17" ht="31.5" customHeight="1">
+      <c r="D3" s="110">
+        <v>1</v>
+      </c>
+      <c r="F3" s="126" t="s">
+        <v>432</v>
+      </c>
+      <c r="G3" s="128"/>
+      <c r="H3" s="126" t="s">
+        <v>433</v>
+      </c>
+      <c r="I3" s="126" t="s">
+        <v>434</v>
+      </c>
+      <c r="K3" s="110">
+        <v>1</v>
+      </c>
+      <c r="L3" s="94"/>
+      <c r="M3" s="126" t="s">
+        <v>507</v>
+      </c>
+      <c r="N3" s="128"/>
+    </row>
+    <row r="4" spans="3:17">
+      <c r="D4" s="110"/>
+      <c r="F4" s="97" t="s">
+        <v>325</v>
+      </c>
+      <c r="G4" s="129" t="s">
+        <v>408</v>
+      </c>
+      <c r="H4" s="97" t="s">
+        <v>325</v>
+      </c>
+      <c r="I4" s="97" t="s">
+        <v>326</v>
+      </c>
+      <c r="K4" s="110"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="97" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="5" spans="3:17" ht="31.5" customHeight="1">
+      <c r="C5" s="92"/>
+      <c r="D5" s="110"/>
+      <c r="F5" s="125" t="s">
+        <v>327</v>
+      </c>
+      <c r="G5" s="130"/>
+      <c r="H5" s="125" t="s">
+        <v>353</v>
+      </c>
+      <c r="I5" s="125" t="s">
+        <v>352</v>
+      </c>
+      <c r="K5" s="110"/>
+      <c r="L5" s="94"/>
+      <c r="M5" s="125" t="s">
+        <v>502</v>
+      </c>
+      <c r="N5" s="130"/>
+    </row>
+    <row r="6" spans="3:17" ht="31.5" customHeight="1">
+      <c r="C6" s="92"/>
+      <c r="D6" s="93"/>
+      <c r="F6" s="95"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="96"/>
+      <c r="K6" s="93"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="95"/>
+      <c r="N6" s="127"/>
+    </row>
+    <row r="7" spans="3:17" ht="31.5" customHeight="1">
+      <c r="D7" s="110">
+        <v>2</v>
+      </c>
+      <c r="F7" s="126" t="s">
+        <v>435</v>
+      </c>
+      <c r="G7" s="128"/>
+      <c r="H7" s="126" t="s">
+        <v>436</v>
+      </c>
+      <c r="I7" s="126" t="s">
+        <v>494</v>
+      </c>
+      <c r="K7" s="110">
+        <v>2</v>
+      </c>
+      <c r="L7" s="94"/>
+      <c r="M7" s="126" t="s">
+        <v>506</v>
+      </c>
+      <c r="N7" s="128"/>
+      <c r="O7" s="126" t="s">
+        <v>510</v>
+      </c>
+      <c r="P7" s="126" t="s">
+        <v>511</v>
+      </c>
+      <c r="Q7" s="126" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="8" spans="3:17">
+      <c r="D8" s="110"/>
+      <c r="F8" s="97" t="s">
+        <v>330</v>
+      </c>
+      <c r="G8" s="129" t="s">
+        <v>408</v>
+      </c>
+      <c r="H8" s="97" t="s">
+        <v>330</v>
+      </c>
+      <c r="I8" s="97" t="s">
+        <v>331</v>
+      </c>
+      <c r="K8" s="110"/>
+      <c r="L8" s="94"/>
+      <c r="M8" s="97" t="s">
+        <v>295</v>
+      </c>
+      <c r="N8" s="129" t="s">
+        <v>408</v>
+      </c>
+      <c r="O8" s="97" t="s">
+        <v>294</v>
+      </c>
+      <c r="P8" s="97" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q8" s="97" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="9" spans="3:17" ht="31.5" customHeight="1">
+      <c r="C9" s="92"/>
+      <c r="D9" s="110"/>
+      <c r="F9" s="125" t="s">
+        <v>355</v>
+      </c>
+      <c r="G9" s="130"/>
+      <c r="H9" s="125" t="s">
+        <v>354</v>
+      </c>
+      <c r="I9" s="125" t="s">
+        <v>332</v>
+      </c>
+      <c r="K9" s="110"/>
+      <c r="L9" s="94"/>
+      <c r="M9" s="125" t="s">
+        <v>503</v>
+      </c>
+      <c r="N9" s="130"/>
+      <c r="O9" s="125" t="s">
+        <v>508</v>
+      </c>
+      <c r="P9" s="125" t="s">
+        <v>509</v>
+      </c>
+      <c r="Q9" s="125" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="10" spans="3:17" ht="31.5" customHeight="1">
+      <c r="C10" s="92"/>
+      <c r="D10" s="93"/>
+      <c r="F10" s="95"/>
+      <c r="H10" s="95"/>
+      <c r="I10" s="96"/>
+      <c r="K10" s="93"/>
+      <c r="L10" s="94"/>
+      <c r="M10" s="95"/>
+      <c r="N10" s="127"/>
+    </row>
+    <row r="11" spans="3:17" ht="31.5" customHeight="1">
+      <c r="D11" s="110">
+        <v>3</v>
+      </c>
+      <c r="F11" s="126" t="s">
+        <v>437</v>
+      </c>
+      <c r="G11" s="128"/>
+      <c r="H11" s="126" t="s">
+        <v>438</v>
+      </c>
+      <c r="I11" s="126" t="s">
+        <v>495</v>
+      </c>
+      <c r="K11" s="110">
+        <v>3</v>
+      </c>
+      <c r="L11" s="94"/>
+      <c r="M11" s="126" t="s">
+        <v>505</v>
+      </c>
+      <c r="N11" s="128"/>
+    </row>
+    <row r="12" spans="3:17">
+      <c r="D12" s="110"/>
+      <c r="F12" s="97" t="s">
+        <v>336</v>
+      </c>
+      <c r="G12" s="129" t="s">
+        <v>408</v>
+      </c>
+      <c r="H12" s="97" t="s">
+        <v>336</v>
+      </c>
+      <c r="I12" s="97" t="s">
+        <v>337</v>
+      </c>
+      <c r="K12" s="110"/>
+      <c r="L12" s="94"/>
+      <c r="M12" s="97" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="13" spans="3:17" ht="31.5" customHeight="1">
+      <c r="C13" s="92"/>
+      <c r="D13" s="110"/>
+      <c r="F13" s="125" t="s">
+        <v>357</v>
+      </c>
+      <c r="G13" s="130"/>
+      <c r="H13" s="125" t="s">
+        <v>356</v>
+      </c>
+      <c r="I13" s="125" t="s">
+        <v>339</v>
+      </c>
+      <c r="K13" s="110"/>
+      <c r="L13" s="94"/>
+      <c r="M13" s="125" t="s">
+        <v>504</v>
+      </c>
+      <c r="N13" s="130"/>
+    </row>
+    <row r="14" spans="3:17" ht="31.5" customHeight="1">
+      <c r="C14" s="92"/>
+      <c r="D14" s="93"/>
+      <c r="F14" s="95"/>
+      <c r="H14" s="95"/>
+      <c r="I14" s="96"/>
+      <c r="K14" s="93"/>
+      <c r="L14" s="94"/>
+      <c r="N14" s="127"/>
+    </row>
+    <row r="15" spans="3:17" ht="31.5" customHeight="1">
+      <c r="D15" s="110">
+        <v>4</v>
+      </c>
+      <c r="F15" s="126" t="s">
+        <v>439</v>
+      </c>
+      <c r="G15" s="128"/>
+      <c r="H15" s="126" t="s">
+        <v>440</v>
+      </c>
+      <c r="I15" s="126" t="s">
+        <v>496</v>
+      </c>
+      <c r="K15" s="93"/>
+      <c r="L15" s="94"/>
+      <c r="N15" s="127"/>
+    </row>
+    <row r="16" spans="3:17">
+      <c r="D16" s="110"/>
+      <c r="F16" s="97" t="s">
+        <v>342</v>
+      </c>
+      <c r="G16" s="129" t="s">
+        <v>408</v>
+      </c>
+      <c r="H16" s="97" t="s">
+        <v>342</v>
+      </c>
+      <c r="I16" s="97" t="s">
+        <v>343</v>
+      </c>
+      <c r="K16" s="93"/>
+      <c r="L16" s="94"/>
+      <c r="N16" s="127"/>
+    </row>
+    <row r="17" spans="3:14" ht="31.5" customHeight="1">
+      <c r="C17" s="92"/>
+      <c r="D17" s="110"/>
+      <c r="F17" s="125" t="s">
+        <v>358</v>
+      </c>
+      <c r="G17" s="130"/>
+      <c r="H17" s="125" t="s">
+        <v>359</v>
+      </c>
+      <c r="I17" s="125" t="s">
+        <v>360</v>
+      </c>
+      <c r="K17" s="93"/>
+      <c r="L17" s="94"/>
+      <c r="N17" s="127"/>
+    </row>
+    <row r="18" spans="3:14" ht="31.5" customHeight="1">
+      <c r="C18" s="92"/>
+      <c r="D18" s="93"/>
+      <c r="F18" s="95"/>
+      <c r="H18" s="95"/>
+      <c r="I18" s="96"/>
+      <c r="K18" s="93"/>
+      <c r="L18" s="94"/>
+      <c r="N18" s="127"/>
+    </row>
+    <row r="19" spans="3:14" ht="31.5" customHeight="1">
+      <c r="D19" s="110">
+        <v>5</v>
+      </c>
+      <c r="F19" s="126" t="s">
+        <v>441</v>
+      </c>
+      <c r="G19" s="128"/>
+      <c r="H19" s="126" t="s">
+        <v>442</v>
+      </c>
+      <c r="I19" s="126" t="s">
+        <v>497</v>
+      </c>
+      <c r="K19" s="93"/>
+      <c r="L19" s="94"/>
+      <c r="N19" s="127"/>
+    </row>
+    <row r="20" spans="3:14">
+      <c r="D20" s="110"/>
+      <c r="F20" s="97" t="s">
+        <v>346</v>
+      </c>
+      <c r="G20" s="129" t="s">
+        <v>408</v>
+      </c>
+      <c r="H20" s="97" t="s">
+        <v>346</v>
+      </c>
+      <c r="I20" s="97" t="s">
+        <v>347</v>
+      </c>
+      <c r="K20" s="93"/>
+      <c r="L20" s="94"/>
+      <c r="N20" s="127"/>
+    </row>
+    <row r="21" spans="3:14" ht="31.5" customHeight="1">
+      <c r="C21" s="92"/>
+      <c r="D21" s="110"/>
+      <c r="F21" s="125" t="s">
+        <v>361</v>
+      </c>
+      <c r="G21" s="130"/>
+      <c r="H21" s="125" t="s">
+        <v>348</v>
+      </c>
+      <c r="I21" s="125" t="s">
+        <v>493</v>
+      </c>
+      <c r="K21" s="93"/>
+      <c r="L21" s="94"/>
+      <c r="N21" s="127"/>
+    </row>
+    <row r="22" spans="3:14" ht="31.5" customHeight="1">
+      <c r="C22" s="92"/>
+      <c r="D22" s="93"/>
+      <c r="F22" s="95"/>
+      <c r="H22" s="95"/>
+      <c r="I22" s="96"/>
+      <c r="K22" s="93"/>
+      <c r="L22" s="94"/>
+      <c r="N22" s="127"/>
+    </row>
+    <row r="23" spans="3:14" ht="31.5" customHeight="1">
+      <c r="D23" s="110">
         <v>6</v>
       </c>
-      <c r="L1" s="25">
-        <f>COLUMN()</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="2:15" s="28" customFormat="1" ht="36" customHeight="1">
-      <c r="F2" s="29"/>
-      <c r="L2" s="29"/>
-    </row>
-    <row r="3" spans="2:15" s="35" customFormat="1" ht="27" customHeight="1">
-      <c r="C3" s="33"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="75"/>
-      <c r="O3" s="33"/>
-    </row>
-    <row r="4" spans="2:15" s="26" customFormat="1" ht="46.5" customHeight="1">
-      <c r="D4" s="76"/>
-      <c r="F4" s="69" t="s">
-        <v>302</v>
-      </c>
-      <c r="H4" s="77"/>
-      <c r="J4" s="76"/>
-      <c r="L4" s="69" t="s">
-        <v>303</v>
-      </c>
-      <c r="N4" s="77"/>
-    </row>
-    <row r="5" spans="2:15" s="68" customFormat="1" ht="195" customHeight="1">
-      <c r="B5" s="86">
-        <v>1</v>
-      </c>
-      <c r="D5" s="78"/>
-      <c r="E5" s="71" t="s">
-        <v>289</v>
-      </c>
-      <c r="F5" s="73" t="s">
-        <v>285</v>
-      </c>
-      <c r="G5" s="72" t="s">
-        <v>287</v>
-      </c>
-      <c r="H5" s="79"/>
-      <c r="J5" s="78"/>
-      <c r="K5" s="71" t="s">
-        <v>292</v>
-      </c>
-      <c r="L5" s="73" t="s">
-        <v>286</v>
-      </c>
-      <c r="M5" s="72" t="s">
-        <v>293</v>
-      </c>
-      <c r="N5" s="79"/>
-    </row>
-    <row r="6" spans="2:15" s="48" customFormat="1" ht="57" customHeight="1">
-      <c r="C6" s="45"/>
-      <c r="D6" s="80"/>
-      <c r="F6" s="70" t="s">
-        <v>288</v>
-      </c>
-      <c r="H6" s="81"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="80"/>
-      <c r="L6" s="70" t="s">
-        <v>291</v>
-      </c>
-      <c r="N6" s="81"/>
-      <c r="O6" s="45"/>
-    </row>
-    <row r="7" spans="2:15" ht="27" customHeight="1">
-      <c r="D7" s="82"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="85"/>
-      <c r="J7" s="82"/>
-      <c r="K7" s="83"/>
-      <c r="L7" s="84"/>
-      <c r="M7" s="83"/>
-      <c r="N7" s="85"/>
-    </row>
-    <row r="10" spans="2:15" s="35" customFormat="1" ht="27" customHeight="1">
-      <c r="C10" s="33"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="74"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="75"/>
-      <c r="O10" s="33"/>
-    </row>
-    <row r="11" spans="2:15" s="26" customFormat="1" ht="46.5" customHeight="1">
-      <c r="D11" s="76"/>
-      <c r="F11" s="69" t="s">
-        <v>302</v>
-      </c>
-      <c r="H11" s="77"/>
-      <c r="J11" s="76"/>
-      <c r="L11" s="69" t="s">
-        <v>303</v>
-      </c>
-      <c r="N11" s="77"/>
-    </row>
-    <row r="12" spans="2:15" s="26" customFormat="1" ht="195" customHeight="1">
-      <c r="B12" s="87">
-        <v>1</v>
-      </c>
-      <c r="D12" s="78"/>
-      <c r="E12" s="71" t="s">
-        <v>289</v>
-      </c>
-      <c r="F12" s="73" t="s">
-        <v>285</v>
-      </c>
-      <c r="G12" s="72" t="s">
-        <v>287</v>
-      </c>
-      <c r="H12" s="79"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="78"/>
-      <c r="K12" s="71" t="s">
-        <v>292</v>
-      </c>
-      <c r="L12" s="73" t="s">
-        <v>286</v>
-      </c>
-      <c r="M12" s="72" t="s">
-        <v>293</v>
-      </c>
-      <c r="N12" s="79"/>
-    </row>
-    <row r="13" spans="2:15" s="48" customFormat="1" ht="57" customHeight="1">
-      <c r="C13" s="45"/>
-      <c r="D13" s="80"/>
-      <c r="F13" s="70" t="s">
-        <v>290</v>
-      </c>
-      <c r="H13" s="81"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="80"/>
-      <c r="L13" s="70" t="s">
-        <v>291</v>
-      </c>
-      <c r="N13" s="81"/>
-      <c r="O13" s="45"/>
-    </row>
-    <row r="14" spans="2:15" ht="27" customHeight="1">
-      <c r="D14" s="82"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="85"/>
-      <c r="J14" s="82"/>
-      <c r="K14" s="83"/>
-      <c r="L14" s="84"/>
-      <c r="M14" s="83"/>
-      <c r="N14" s="85"/>
-    </row>
-    <row r="18" spans="6:12" ht="57.75">
-      <c r="F18" s="69"/>
-      <c r="L18" s="69"/>
+      <c r="F23" s="126" t="s">
+        <v>512</v>
+      </c>
+      <c r="G23" s="128"/>
+      <c r="H23" s="126" t="s">
+        <v>443</v>
+      </c>
+      <c r="I23" s="126" t="s">
+        <v>498</v>
+      </c>
+      <c r="K23" s="93"/>
+      <c r="L23" s="94"/>
+      <c r="N23" s="127"/>
+    </row>
+    <row r="24" spans="3:14">
+      <c r="D24" s="110"/>
+      <c r="F24" s="97" t="s">
+        <v>349</v>
+      </c>
+      <c r="G24" s="129" t="s">
+        <v>408</v>
+      </c>
+      <c r="H24" s="97" t="s">
+        <v>349</v>
+      </c>
+      <c r="I24" s="97" t="s">
+        <v>350</v>
+      </c>
+      <c r="K24" s="93"/>
+      <c r="L24" s="94"/>
+      <c r="N24" s="127"/>
+    </row>
+    <row r="25" spans="3:14" ht="31.5" customHeight="1">
+      <c r="C25" s="92"/>
+      <c r="D25" s="110"/>
+      <c r="F25" s="125" t="s">
+        <v>362</v>
+      </c>
+      <c r="G25" s="130"/>
+      <c r="H25" s="125" t="s">
+        <v>363</v>
+      </c>
+      <c r="I25" s="125" t="s">
+        <v>351</v>
+      </c>
+      <c r="K25" s="93"/>
+      <c r="L25" s="94"/>
+      <c r="N25" s="127"/>
+    </row>
+    <row r="26" spans="3:14" ht="31.5" customHeight="1">
+      <c r="C26" s="92"/>
+      <c r="D26" s="93"/>
+      <c r="F26" s="95"/>
+      <c r="H26" s="95"/>
+      <c r="I26" s="96"/>
+      <c r="K26" s="93"/>
+      <c r="L26" s="94"/>
+      <c r="N26" s="127"/>
+    </row>
+    <row r="27" spans="3:14" ht="31.5" customHeight="1">
+      <c r="D27" s="110">
+        <v>7</v>
+      </c>
+      <c r="F27" s="126" t="s">
+        <v>427</v>
+      </c>
+      <c r="G27" s="128"/>
+      <c r="H27" s="126" t="s">
+        <v>428</v>
+      </c>
+      <c r="I27" s="126" t="s">
+        <v>499</v>
+      </c>
+      <c r="K27" s="93"/>
+      <c r="L27" s="94"/>
+      <c r="N27" s="127"/>
+    </row>
+    <row r="28" spans="3:14">
+      <c r="D28" s="110"/>
+      <c r="F28" s="97" t="s">
+        <v>425</v>
+      </c>
+      <c r="G28" s="129" t="s">
+        <v>408</v>
+      </c>
+      <c r="H28" s="97" t="s">
+        <v>425</v>
+      </c>
+      <c r="I28" s="97" t="s">
+        <v>426</v>
+      </c>
+      <c r="K28" s="93"/>
+      <c r="L28" s="94"/>
+      <c r="N28" s="127"/>
+    </row>
+    <row r="29" spans="3:14" ht="31.5" customHeight="1">
+      <c r="C29" s="92"/>
+      <c r="D29" s="110"/>
+      <c r="F29" s="125" t="s">
+        <v>429</v>
+      </c>
+      <c r="G29" s="130"/>
+      <c r="H29" s="125" t="s">
+        <v>430</v>
+      </c>
+      <c r="I29" s="125" t="s">
+        <v>431</v>
+      </c>
+      <c r="K29" s="93"/>
+      <c r="L29" s="94"/>
+      <c r="N29" s="127"/>
+    </row>
+    <row r="30" spans="3:14" ht="31.5" customHeight="1">
+      <c r="C30" s="92"/>
+      <c r="D30" s="93"/>
+      <c r="F30" s="95"/>
+      <c r="H30" s="95"/>
+      <c r="I30" s="96"/>
+      <c r="K30" s="93"/>
+      <c r="L30" s="94"/>
+      <c r="N30" s="127"/>
+    </row>
+    <row r="31" spans="3:14" ht="31.5" customHeight="1">
+      <c r="D31" s="110">
+        <v>8</v>
+      </c>
+      <c r="F31" s="126" t="s">
+        <v>481</v>
+      </c>
+      <c r="G31" s="128"/>
+      <c r="H31" s="126" t="s">
+        <v>482</v>
+      </c>
+      <c r="I31" s="126" t="s">
+        <v>500</v>
+      </c>
+      <c r="K31" s="93"/>
+      <c r="L31" s="94"/>
+      <c r="N31" s="127"/>
+    </row>
+    <row r="32" spans="3:14">
+      <c r="D32" s="110"/>
+      <c r="F32" s="97" t="s">
+        <v>479</v>
+      </c>
+      <c r="G32" s="129" t="s">
+        <v>408</v>
+      </c>
+      <c r="H32" s="97" t="s">
+        <v>479</v>
+      </c>
+      <c r="I32" s="97" t="s">
+        <v>480</v>
+      </c>
+      <c r="K32" s="93"/>
+      <c r="L32" s="94"/>
+      <c r="N32" s="127"/>
+    </row>
+    <row r="33" spans="3:14" ht="31.5" customHeight="1">
+      <c r="C33" s="92"/>
+      <c r="D33" s="110"/>
+      <c r="F33" s="125" t="s">
+        <v>487</v>
+      </c>
+      <c r="G33" s="130"/>
+      <c r="H33" s="125" t="s">
+        <v>488</v>
+      </c>
+      <c r="I33" s="125" t="s">
+        <v>489</v>
+      </c>
+      <c r="K33" s="93"/>
+      <c r="L33" s="94"/>
+      <c r="N33" s="127"/>
+    </row>
+    <row r="34" spans="3:14" ht="31.5" customHeight="1">
+      <c r="C34" s="92"/>
+      <c r="D34" s="93"/>
+      <c r="F34" s="95"/>
+      <c r="H34" s="95"/>
+      <c r="I34" s="96"/>
+      <c r="K34" s="93"/>
+      <c r="L34" s="94"/>
+      <c r="N34" s="127"/>
+    </row>
+    <row r="35" spans="3:14" ht="31.5" customHeight="1">
+      <c r="D35" s="110">
+        <v>9</v>
+      </c>
+      <c r="F35" s="126" t="s">
+        <v>485</v>
+      </c>
+      <c r="G35" s="128"/>
+      <c r="H35" s="126" t="s">
+        <v>486</v>
+      </c>
+      <c r="I35" s="126" t="s">
+        <v>501</v>
+      </c>
+      <c r="K35" s="93"/>
+      <c r="L35" s="94"/>
+      <c r="N35" s="127"/>
+    </row>
+    <row r="36" spans="3:14">
+      <c r="D36" s="110"/>
+      <c r="F36" s="97" t="s">
+        <v>483</v>
+      </c>
+      <c r="G36" s="129" t="s">
+        <v>408</v>
+      </c>
+      <c r="H36" s="97" t="s">
+        <v>483</v>
+      </c>
+      <c r="I36" s="97" t="s">
+        <v>484</v>
+      </c>
+      <c r="K36" s="93"/>
+      <c r="L36" s="94"/>
+      <c r="N36" s="127"/>
+    </row>
+    <row r="37" spans="3:14" ht="31.5" customHeight="1">
+      <c r="C37" s="92"/>
+      <c r="D37" s="110"/>
+      <c r="F37" s="125" t="s">
+        <v>491</v>
+      </c>
+      <c r="G37" s="130"/>
+      <c r="H37" s="125" t="s">
+        <v>492</v>
+      </c>
+      <c r="I37" s="125" t="s">
+        <v>490</v>
+      </c>
+      <c r="K37" s="93"/>
+      <c r="L37" s="94"/>
+      <c r="N37" s="127"/>
+    </row>
+    <row r="38" spans="3:14">
+      <c r="K38" s="93"/>
+      <c r="L38" s="94"/>
+      <c r="N38" s="127"/>
+    </row>
+    <row r="39" spans="3:14">
+      <c r="K39" s="93"/>
+      <c r="L39" s="94"/>
+      <c r="N39" s="127"/>
+    </row>
+    <row r="40" spans="3:14">
+      <c r="K40" s="93"/>
+      <c r="L40" s="94"/>
+      <c r="N40" s="127"/>
+    </row>
+    <row r="41" spans="3:14">
+      <c r="K41" s="93"/>
+      <c r="L41" s="94"/>
+      <c r="N41" s="127"/>
     </row>
   </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="K3:K5"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="K11:K13"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="D23:D25"/>
+  </mergeCells>
   <phoneticPr fontId="24" type="noConversion"/>
-  <conditionalFormatting sqref="E3:G3">
-    <cfRule type="expression" dxfId="75" priority="17">
-      <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="74" priority="18">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10:G10">
-    <cfRule type="expression" dxfId="73" priority="5">
-      <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="72" priority="6">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K3:M3">
-    <cfRule type="expression" dxfId="71" priority="9">
-      <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="70" priority="10">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K10:M10">
-    <cfRule type="expression" dxfId="69" priority="1">
-      <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="68" priority="2">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC2236A3-8B81-48E9-9282-446C3B77A865}">
-  <dimension ref="B1:O18"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:H14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="21"/>
-  <cols>
-    <col min="1" max="1" width="0.875" style="24" customWidth="1"/>
-    <col min="2" max="2" width="5.625" style="24" customWidth="1"/>
-    <col min="3" max="4" width="4.625" style="24" customWidth="1"/>
-    <col min="5" max="5" width="7.75" style="24" customWidth="1"/>
-    <col min="6" max="6" width="28.5" style="67" customWidth="1"/>
-    <col min="7" max="7" width="7.75" style="24" customWidth="1"/>
-    <col min="8" max="8" width="4.625" style="24" customWidth="1"/>
-    <col min="9" max="9" width="14.625" style="24" customWidth="1"/>
-    <col min="10" max="10" width="4.625" style="24" customWidth="1"/>
-    <col min="11" max="11" width="7.75" style="24" customWidth="1"/>
-    <col min="12" max="12" width="28.5" style="67" customWidth="1"/>
-    <col min="13" max="13" width="7.75" style="24" customWidth="1"/>
-    <col min="14" max="14" width="4.625" style="24" customWidth="1"/>
-    <col min="15" max="15" width="14.625" style="24" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="24"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:15" ht="27">
-      <c r="F1" s="25">
-        <f>COLUMN()</f>
-        <v>6</v>
-      </c>
-      <c r="L1" s="25">
-        <f>COLUMN()</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="2:15" s="28" customFormat="1" ht="36" customHeight="1">
-      <c r="F2" s="29"/>
-      <c r="L2" s="29"/>
-    </row>
-    <row r="3" spans="2:15" s="35" customFormat="1" ht="27" customHeight="1">
-      <c r="C3" s="33"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="75"/>
-      <c r="O3" s="33"/>
-    </row>
-    <row r="4" spans="2:15" s="26" customFormat="1" ht="46.5" customHeight="1">
-      <c r="D4" s="76"/>
-      <c r="F4" s="69" t="s">
-        <v>302</v>
-      </c>
-      <c r="H4" s="77"/>
-      <c r="J4" s="76"/>
-      <c r="L4" s="69" t="s">
-        <v>303</v>
-      </c>
-      <c r="N4" s="77"/>
-    </row>
-    <row r="5" spans="2:15" s="68" customFormat="1" ht="195" customHeight="1">
-      <c r="B5" s="86">
-        <v>1</v>
-      </c>
-      <c r="D5" s="78"/>
-      <c r="E5" s="71" t="s">
-        <v>289</v>
-      </c>
-      <c r="F5" s="73" t="s">
-        <v>285</v>
-      </c>
-      <c r="G5" s="72" t="s">
-        <v>287</v>
-      </c>
-      <c r="H5" s="79"/>
-      <c r="J5" s="78"/>
-      <c r="K5" s="71" t="s">
-        <v>292</v>
-      </c>
-      <c r="L5" s="73" t="s">
-        <v>286</v>
-      </c>
-      <c r="M5" s="72" t="s">
-        <v>293</v>
-      </c>
-      <c r="N5" s="79"/>
-    </row>
-    <row r="6" spans="2:15" s="48" customFormat="1" ht="57" customHeight="1">
-      <c r="C6" s="45"/>
-      <c r="D6" s="80"/>
-      <c r="F6" s="70" t="s">
-        <v>288</v>
-      </c>
-      <c r="H6" s="81"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="80"/>
-      <c r="L6" s="70" t="s">
-        <v>291</v>
-      </c>
-      <c r="N6" s="81"/>
-      <c r="O6" s="45"/>
-    </row>
-    <row r="7" spans="2:15" ht="27" customHeight="1">
-      <c r="D7" s="82"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="85"/>
-      <c r="J7" s="82"/>
-      <c r="K7" s="83"/>
-      <c r="L7" s="84"/>
-      <c r="M7" s="83"/>
-      <c r="N7" s="85"/>
-    </row>
-    <row r="10" spans="2:15" s="35" customFormat="1" ht="27" customHeight="1">
-      <c r="C10" s="33"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="74"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="75"/>
-      <c r="O10" s="33"/>
-    </row>
-    <row r="11" spans="2:15" s="26" customFormat="1" ht="46.5" customHeight="1">
-      <c r="D11" s="76"/>
-      <c r="F11" s="69" t="s">
-        <v>471</v>
-      </c>
-      <c r="H11" s="77"/>
-      <c r="J11" s="76"/>
-      <c r="L11" s="69" t="s">
-        <v>303</v>
-      </c>
-      <c r="N11" s="77"/>
-    </row>
-    <row r="12" spans="2:15" s="26" customFormat="1" ht="195" customHeight="1">
-      <c r="B12" s="87">
-        <v>1</v>
-      </c>
-      <c r="D12" s="78"/>
-      <c r="E12" s="71" t="s">
-        <v>289</v>
-      </c>
-      <c r="F12" s="73" t="s">
-        <v>285</v>
-      </c>
-      <c r="G12" s="72" t="s">
-        <v>287</v>
-      </c>
-      <c r="H12" s="79"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="78"/>
-      <c r="K12" s="71" t="s">
-        <v>292</v>
-      </c>
-      <c r="L12" s="73" t="s">
-        <v>286</v>
-      </c>
-      <c r="M12" s="72" t="s">
-        <v>293</v>
-      </c>
-      <c r="N12" s="79"/>
-    </row>
-    <row r="13" spans="2:15" s="48" customFormat="1" ht="57" customHeight="1">
-      <c r="C13" s="45"/>
-      <c r="D13" s="80"/>
-      <c r="F13" s="70" t="s">
-        <v>290</v>
-      </c>
-      <c r="H13" s="81"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="80"/>
-      <c r="L13" s="70" t="s">
-        <v>291</v>
-      </c>
-      <c r="N13" s="81"/>
-      <c r="O13" s="45"/>
-    </row>
-    <row r="14" spans="2:15" ht="27" customHeight="1">
-      <c r="D14" s="82"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="85"/>
-      <c r="J14" s="82"/>
-      <c r="K14" s="83"/>
-      <c r="L14" s="84"/>
-      <c r="M14" s="83"/>
-      <c r="N14" s="85"/>
-    </row>
-    <row r="18" spans="6:12" ht="57.75">
-      <c r="F18" s="69"/>
-      <c r="L18" s="69"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="E3:G3">
-    <cfRule type="expression" dxfId="67" priority="7">
-      <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="66" priority="8">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10:G10">
-    <cfRule type="expression" dxfId="65" priority="3">
-      <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="64" priority="4">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K3:M3">
-    <cfRule type="expression" dxfId="63" priority="5">
-      <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="62" priority="6">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K10:M10">
-    <cfRule type="expression" dxfId="61" priority="1">
-      <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="60" priority="2">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFB84FA2-85B1-4A95-8CDA-FDCB920003BD}">
   <dimension ref="B1:T18"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="AP11" sqref="AP11"/>
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
@@ -27186,30 +27907,524 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="E3:G3">
-    <cfRule type="expression" dxfId="59" priority="17">
+    <cfRule type="expression" dxfId="75" priority="17">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="18">
+    <cfRule type="expression" dxfId="74" priority="18">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:G10">
-    <cfRule type="expression" dxfId="57" priority="5">
+    <cfRule type="expression" dxfId="73" priority="5">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="6">
+    <cfRule type="expression" dxfId="72" priority="6">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:M3">
-    <cfRule type="expression" dxfId="55" priority="15">
+    <cfRule type="expression" dxfId="71" priority="15">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="16">
+    <cfRule type="expression" dxfId="70" priority="16">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10:M10">
+    <cfRule type="expression" dxfId="69" priority="3">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="68" priority="4">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q3:S3">
+    <cfRule type="expression" dxfId="67" priority="9">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="66" priority="10">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q10:S10">
+    <cfRule type="expression" dxfId="65" priority="1">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="64" priority="2">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B74B52E5-158C-4158-B830-F64531392513}">
+  <dimension ref="B1:O18"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="AK17" sqref="AK17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21"/>
+  <cols>
+    <col min="1" max="1" width="0.875" style="24" customWidth="1"/>
+    <col min="2" max="2" width="5.625" style="24" customWidth="1"/>
+    <col min="3" max="4" width="4.625" style="24" customWidth="1"/>
+    <col min="5" max="5" width="7.75" style="24" customWidth="1"/>
+    <col min="6" max="6" width="28.5" style="67" customWidth="1"/>
+    <col min="7" max="7" width="7.75" style="24" customWidth="1"/>
+    <col min="8" max="8" width="4.625" style="24" customWidth="1"/>
+    <col min="9" max="9" width="14.625" style="24" customWidth="1"/>
+    <col min="10" max="10" width="4.625" style="24" customWidth="1"/>
+    <col min="11" max="11" width="7.75" style="24" customWidth="1"/>
+    <col min="12" max="12" width="28.5" style="67" customWidth="1"/>
+    <col min="13" max="13" width="7.75" style="24" customWidth="1"/>
+    <col min="14" max="14" width="4.625" style="24" customWidth="1"/>
+    <col min="15" max="15" width="14.625" style="24" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="24"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:15" ht="27">
+      <c r="F1" s="25">
+        <f>COLUMN()</f>
+        <v>6</v>
+      </c>
+      <c r="L1" s="25">
+        <f>COLUMN()</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="2:15" s="28" customFormat="1" ht="36" customHeight="1">
+      <c r="F2" s="29"/>
+      <c r="L2" s="29"/>
+    </row>
+    <row r="3" spans="2:15" s="35" customFormat="1" ht="27" customHeight="1">
+      <c r="C3" s="33"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="75"/>
+      <c r="O3" s="33"/>
+    </row>
+    <row r="4" spans="2:15" s="26" customFormat="1" ht="46.5" customHeight="1">
+      <c r="D4" s="76"/>
+      <c r="F4" s="69" t="s">
+        <v>302</v>
+      </c>
+      <c r="H4" s="77"/>
+      <c r="J4" s="76"/>
+      <c r="L4" s="69" t="s">
+        <v>303</v>
+      </c>
+      <c r="N4" s="77"/>
+    </row>
+    <row r="5" spans="2:15" s="68" customFormat="1" ht="195" customHeight="1">
+      <c r="B5" s="86">
+        <v>1</v>
+      </c>
+      <c r="D5" s="78"/>
+      <c r="E5" s="71" t="s">
+        <v>289</v>
+      </c>
+      <c r="F5" s="73" t="s">
+        <v>285</v>
+      </c>
+      <c r="G5" s="72" t="s">
+        <v>287</v>
+      </c>
+      <c r="H5" s="79"/>
+      <c r="J5" s="78"/>
+      <c r="K5" s="71" t="s">
+        <v>292</v>
+      </c>
+      <c r="L5" s="73" t="s">
+        <v>286</v>
+      </c>
+      <c r="M5" s="72" t="s">
+        <v>293</v>
+      </c>
+      <c r="N5" s="79"/>
+    </row>
+    <row r="6" spans="2:15" s="48" customFormat="1" ht="57" customHeight="1">
+      <c r="C6" s="45"/>
+      <c r="D6" s="80"/>
+      <c r="F6" s="70" t="s">
+        <v>288</v>
+      </c>
+      <c r="H6" s="81"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="80"/>
+      <c r="L6" s="70" t="s">
+        <v>291</v>
+      </c>
+      <c r="N6" s="81"/>
+      <c r="O6" s="45"/>
+    </row>
+    <row r="7" spans="2:15" ht="27" customHeight="1">
+      <c r="D7" s="82"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="85"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="83"/>
+      <c r="L7" s="84"/>
+      <c r="M7" s="83"/>
+      <c r="N7" s="85"/>
+    </row>
+    <row r="10" spans="2:15" s="35" customFormat="1" ht="27" customHeight="1">
+      <c r="C10" s="33"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="75"/>
+      <c r="O10" s="33"/>
+    </row>
+    <row r="11" spans="2:15" s="26" customFormat="1" ht="46.5" customHeight="1">
+      <c r="D11" s="76"/>
+      <c r="F11" s="69" t="s">
+        <v>302</v>
+      </c>
+      <c r="H11" s="77"/>
+      <c r="J11" s="76"/>
+      <c r="L11" s="69" t="s">
+        <v>303</v>
+      </c>
+      <c r="N11" s="77"/>
+    </row>
+    <row r="12" spans="2:15" s="26" customFormat="1" ht="195" customHeight="1">
+      <c r="B12" s="87">
+        <v>1</v>
+      </c>
+      <c r="D12" s="78"/>
+      <c r="E12" s="71" t="s">
+        <v>289</v>
+      </c>
+      <c r="F12" s="73" t="s">
+        <v>285</v>
+      </c>
+      <c r="G12" s="72" t="s">
+        <v>287</v>
+      </c>
+      <c r="H12" s="79"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="78"/>
+      <c r="K12" s="71" t="s">
+        <v>292</v>
+      </c>
+      <c r="L12" s="73" t="s">
+        <v>286</v>
+      </c>
+      <c r="M12" s="72" t="s">
+        <v>293</v>
+      </c>
+      <c r="N12" s="79"/>
+    </row>
+    <row r="13" spans="2:15" s="48" customFormat="1" ht="57" customHeight="1">
+      <c r="C13" s="45"/>
+      <c r="D13" s="80"/>
+      <c r="F13" s="70" t="s">
+        <v>290</v>
+      </c>
+      <c r="H13" s="81"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="80"/>
+      <c r="L13" s="70" t="s">
+        <v>291</v>
+      </c>
+      <c r="N13" s="81"/>
+      <c r="O13" s="45"/>
+    </row>
+    <row r="14" spans="2:15" ht="27" customHeight="1">
+      <c r="D14" s="82"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="85"/>
+      <c r="J14" s="82"/>
+      <c r="K14" s="83"/>
+      <c r="L14" s="84"/>
+      <c r="M14" s="83"/>
+      <c r="N14" s="85"/>
+    </row>
+    <row r="18" spans="6:12" ht="57.75">
+      <c r="F18" s="69"/>
+      <c r="L18" s="69"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="24" type="noConversion"/>
+  <conditionalFormatting sqref="E3:G3">
+    <cfRule type="expression" dxfId="63" priority="17">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="62" priority="18">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10:G10">
+    <cfRule type="expression" dxfId="61" priority="5">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="60" priority="6">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:M3">
+    <cfRule type="expression" dxfId="59" priority="9">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="58" priority="10">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K10:M10">
+    <cfRule type="expression" dxfId="57" priority="1">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="56" priority="2">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC2236A3-8B81-48E9-9282-446C3B77A865}">
+  <dimension ref="B1:O18"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10:H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21"/>
+  <cols>
+    <col min="1" max="1" width="0.875" style="24" customWidth="1"/>
+    <col min="2" max="2" width="5.625" style="24" customWidth="1"/>
+    <col min="3" max="4" width="4.625" style="24" customWidth="1"/>
+    <col min="5" max="5" width="7.75" style="24" customWidth="1"/>
+    <col min="6" max="6" width="28.5" style="67" customWidth="1"/>
+    <col min="7" max="7" width="7.75" style="24" customWidth="1"/>
+    <col min="8" max="8" width="4.625" style="24" customWidth="1"/>
+    <col min="9" max="9" width="14.625" style="24" customWidth="1"/>
+    <col min="10" max="10" width="4.625" style="24" customWidth="1"/>
+    <col min="11" max="11" width="7.75" style="24" customWidth="1"/>
+    <col min="12" max="12" width="28.5" style="67" customWidth="1"/>
+    <col min="13" max="13" width="7.75" style="24" customWidth="1"/>
+    <col min="14" max="14" width="4.625" style="24" customWidth="1"/>
+    <col min="15" max="15" width="14.625" style="24" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="24"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:15" ht="27">
+      <c r="F1" s="25">
+        <f>COLUMN()</f>
+        <v>6</v>
+      </c>
+      <c r="L1" s="25">
+        <f>COLUMN()</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="2:15" s="28" customFormat="1" ht="36" customHeight="1">
+      <c r="F2" s="29"/>
+      <c r="L2" s="29"/>
+    </row>
+    <row r="3" spans="2:15" s="35" customFormat="1" ht="27" customHeight="1">
+      <c r="C3" s="33"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="75"/>
+      <c r="O3" s="33"/>
+    </row>
+    <row r="4" spans="2:15" s="26" customFormat="1" ht="46.5" customHeight="1">
+      <c r="D4" s="76"/>
+      <c r="F4" s="69" t="s">
+        <v>302</v>
+      </c>
+      <c r="H4" s="77"/>
+      <c r="J4" s="76"/>
+      <c r="L4" s="69" t="s">
+        <v>303</v>
+      </c>
+      <c r="N4" s="77"/>
+    </row>
+    <row r="5" spans="2:15" s="68" customFormat="1" ht="195" customHeight="1">
+      <c r="B5" s="86">
+        <v>1</v>
+      </c>
+      <c r="D5" s="78"/>
+      <c r="E5" s="71" t="s">
+        <v>289</v>
+      </c>
+      <c r="F5" s="73" t="s">
+        <v>285</v>
+      </c>
+      <c r="G5" s="72" t="s">
+        <v>287</v>
+      </c>
+      <c r="H5" s="79"/>
+      <c r="J5" s="78"/>
+      <c r="K5" s="71" t="s">
+        <v>292</v>
+      </c>
+      <c r="L5" s="73" t="s">
+        <v>286</v>
+      </c>
+      <c r="M5" s="72" t="s">
+        <v>293</v>
+      </c>
+      <c r="N5" s="79"/>
+    </row>
+    <row r="6" spans="2:15" s="48" customFormat="1" ht="57" customHeight="1">
+      <c r="C6" s="45"/>
+      <c r="D6" s="80"/>
+      <c r="F6" s="70" t="s">
+        <v>288</v>
+      </c>
+      <c r="H6" s="81"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="80"/>
+      <c r="L6" s="70" t="s">
+        <v>291</v>
+      </c>
+      <c r="N6" s="81"/>
+      <c r="O6" s="45"/>
+    </row>
+    <row r="7" spans="2:15" ht="27" customHeight="1">
+      <c r="D7" s="82"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="85"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="83"/>
+      <c r="L7" s="84"/>
+      <c r="M7" s="83"/>
+      <c r="N7" s="85"/>
+    </row>
+    <row r="10" spans="2:15" s="35" customFormat="1" ht="27" customHeight="1">
+      <c r="C10" s="33"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="75"/>
+      <c r="O10" s="33"/>
+    </row>
+    <row r="11" spans="2:15" s="26" customFormat="1" ht="46.5" customHeight="1">
+      <c r="D11" s="76"/>
+      <c r="F11" s="69" t="s">
+        <v>447</v>
+      </c>
+      <c r="H11" s="77"/>
+      <c r="J11" s="76"/>
+      <c r="L11" s="69" t="s">
+        <v>303</v>
+      </c>
+      <c r="N11" s="77"/>
+    </row>
+    <row r="12" spans="2:15" s="26" customFormat="1" ht="195" customHeight="1">
+      <c r="B12" s="87">
+        <v>1</v>
+      </c>
+      <c r="D12" s="78"/>
+      <c r="E12" s="71" t="s">
+        <v>289</v>
+      </c>
+      <c r="F12" s="73" t="s">
+        <v>285</v>
+      </c>
+      <c r="G12" s="72" t="s">
+        <v>287</v>
+      </c>
+      <c r="H12" s="79"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="78"/>
+      <c r="K12" s="71" t="s">
+        <v>292</v>
+      </c>
+      <c r="L12" s="73" t="s">
+        <v>286</v>
+      </c>
+      <c r="M12" s="72" t="s">
+        <v>293</v>
+      </c>
+      <c r="N12" s="79"/>
+    </row>
+    <row r="13" spans="2:15" s="48" customFormat="1" ht="57" customHeight="1">
+      <c r="C13" s="45"/>
+      <c r="D13" s="80"/>
+      <c r="F13" s="70" t="s">
+        <v>290</v>
+      </c>
+      <c r="H13" s="81"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="80"/>
+      <c r="L13" s="70" t="s">
+        <v>291</v>
+      </c>
+      <c r="N13" s="81"/>
+      <c r="O13" s="45"/>
+    </row>
+    <row r="14" spans="2:15" ht="27" customHeight="1">
+      <c r="D14" s="82"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="85"/>
+      <c r="J14" s="82"/>
+      <c r="K14" s="83"/>
+      <c r="L14" s="84"/>
+      <c r="M14" s="83"/>
+      <c r="N14" s="85"/>
+    </row>
+    <row r="18" spans="6:12" ht="57.75">
+      <c r="F18" s="69"/>
+      <c r="L18" s="69"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="E3:G3">
+    <cfRule type="expression" dxfId="55" priority="7">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="8">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10:G10">
     <cfRule type="expression" dxfId="53" priority="3">
       <formula>顯示注音輸入</formula>
     </cfRule>
@@ -27217,15 +28432,15 @@
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q3:S3">
-    <cfRule type="expression" dxfId="51" priority="9">
+  <conditionalFormatting sqref="K3:M3">
+    <cfRule type="expression" dxfId="51" priority="5">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="10">
+    <cfRule type="expression" dxfId="50" priority="6">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q10:S10">
+  <conditionalFormatting sqref="K10:M10">
     <cfRule type="expression" dxfId="49" priority="1">
       <formula>顯示注音輸入</formula>
     </cfRule>
@@ -27238,7 +28453,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F39A333-A6A4-4CDE-B425-9D17B282ACB7}">
   <dimension ref="B1:R9"/>
   <sheetViews>
@@ -27471,392 +28686,392 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB8B6306-3941-4AC5-99FA-0831333AD2B9}">
   <dimension ref="B2:K22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="57.75"/>
   <cols>
-    <col min="1" max="1" width="9" style="120"/>
-    <col min="2" max="2" width="22.875" style="120" customWidth="1"/>
-    <col min="3" max="11" width="29.125" style="120" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="120"/>
+    <col min="1" max="1" width="9" style="116"/>
+    <col min="2" max="2" width="22.875" style="116" customWidth="1"/>
+    <col min="3" max="11" width="29.125" style="116" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="116"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11">
-      <c r="B2" s="122" t="s">
-        <v>485</v>
-      </c>
-      <c r="C2" s="122" t="s">
+      <c r="B2" s="118" t="s">
+        <v>461</v>
+      </c>
+      <c r="C2" s="118" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2" s="118" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="118" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="118" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="118" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="118" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="118" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="118" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="118" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11">
+      <c r="B3" s="118" t="s">
+        <v>459</v>
+      </c>
+      <c r="C3" s="124">
+        <v>0</v>
+      </c>
+      <c r="D3" s="124">
+        <v>1</v>
+      </c>
+      <c r="E3" s="124">
+        <v>2</v>
+      </c>
+      <c r="F3" s="124">
+        <v>3</v>
+      </c>
+      <c r="G3" s="124">
+        <v>4</v>
+      </c>
+      <c r="H3" s="124">
+        <v>5</v>
+      </c>
+      <c r="I3" s="124">
+        <v>6</v>
+      </c>
+      <c r="J3" s="124">
+        <v>7</v>
+      </c>
+      <c r="K3" s="124">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" s="118" t="s">
+        <v>460</v>
+      </c>
+      <c r="C4" s="117" t="s">
+        <v>449</v>
+      </c>
+      <c r="D4" s="117" t="s">
+        <v>450</v>
+      </c>
+      <c r="E4" s="117" t="s">
+        <v>451</v>
+      </c>
+      <c r="F4" s="117" t="s">
+        <v>452</v>
+      </c>
+      <c r="G4" s="117" t="s">
+        <v>453</v>
+      </c>
+      <c r="H4" s="117" t="s">
+        <v>454</v>
+      </c>
+      <c r="I4" s="117" t="s">
+        <v>462</v>
+      </c>
+      <c r="J4" s="117" t="s">
+        <v>455</v>
+      </c>
+      <c r="K4" s="117" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" s="121" t="s">
+        <v>457</v>
+      </c>
+      <c r="C5" s="117" t="s">
+        <v>458</v>
+      </c>
+      <c r="D5" s="117" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="117" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="117" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="117" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="117" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="119"/>
+      <c r="J5" s="117" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" s="117" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" s="122"/>
+      <c r="C6" s="117" t="s">
+        <v>477</v>
+      </c>
+      <c r="D6" s="117" t="s">
+        <v>463</v>
+      </c>
+      <c r="E6" s="117" t="s">
+        <v>464</v>
+      </c>
+      <c r="F6" s="117" t="s">
+        <v>465</v>
+      </c>
+      <c r="G6" s="117" t="s">
+        <v>466</v>
+      </c>
+      <c r="H6" s="117" t="s">
+        <v>467</v>
+      </c>
+      <c r="I6" s="119"/>
+      <c r="J6" s="117" t="s">
+        <v>468</v>
+      </c>
+      <c r="K6" s="117" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" s="122"/>
+      <c r="C7" s="117" t="s">
+        <v>478</v>
+      </c>
+      <c r="D7" s="117" t="s">
+        <v>470</v>
+      </c>
+      <c r="E7" s="117" t="s">
+        <v>471</v>
+      </c>
+      <c r="F7" s="117" t="s">
         <v>472</v>
       </c>
-      <c r="D2" s="122" t="s">
+      <c r="G7" s="117" t="s">
+        <v>473</v>
+      </c>
+      <c r="H7" s="117" t="s">
+        <v>474</v>
+      </c>
+      <c r="I7" s="119"/>
+      <c r="J7" s="117" t="s">
+        <v>475</v>
+      </c>
+      <c r="K7" s="117" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10" s="118" t="s">
+        <v>461</v>
+      </c>
+      <c r="C10" s="118" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="122" t="s">
+      <c r="D10" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="122" t="s">
+      <c r="E10" s="118" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="122" t="s">
+      <c r="F10" s="118" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="122" t="s">
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" s="118" t="s">
+        <v>459</v>
+      </c>
+      <c r="C11" s="117">
+        <v>1</v>
+      </c>
+      <c r="D11" s="117">
+        <v>2</v>
+      </c>
+      <c r="E11" s="117">
+        <v>3</v>
+      </c>
+      <c r="F11" s="117">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12" s="118" t="s">
+        <v>460</v>
+      </c>
+      <c r="C12" s="117" t="s">
+        <v>450</v>
+      </c>
+      <c r="D12" s="117" t="s">
+        <v>451</v>
+      </c>
+      <c r="E12" s="117" t="s">
+        <v>452</v>
+      </c>
+      <c r="F12" s="117" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13" s="120" t="s">
+        <v>457</v>
+      </c>
+      <c r="C13" s="123" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="123" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="123" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" s="120"/>
+      <c r="C14" s="123" t="s">
+        <v>463</v>
+      </c>
+      <c r="D14" s="123" t="s">
+        <v>464</v>
+      </c>
+      <c r="E14" s="123" t="s">
+        <v>465</v>
+      </c>
+      <c r="F14" s="123" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15" s="120"/>
+      <c r="C15" s="123" t="s">
+        <v>470</v>
+      </c>
+      <c r="D15" s="123" t="s">
+        <v>471</v>
+      </c>
+      <c r="E15" s="123" t="s">
+        <v>472</v>
+      </c>
+      <c r="F15" s="123" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="118" t="s">
+        <v>461</v>
+      </c>
+      <c r="C17" s="118" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="122" t="s">
+      <c r="D17" s="118" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="122" t="s">
+      <c r="E17" s="118" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="122" t="s">
+      <c r="F17" s="118" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="2:11">
-      <c r="B3" s="122" t="s">
-        <v>483</v>
-      </c>
-      <c r="C3" s="128">
+    <row r="18" spans="2:6">
+      <c r="B18" s="118" t="s">
+        <v>459</v>
+      </c>
+      <c r="C18" s="117">
+        <v>5</v>
+      </c>
+      <c r="D18" s="117">
+        <v>6</v>
+      </c>
+      <c r="E18" s="117">
+        <v>7</v>
+      </c>
+      <c r="F18" s="117">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="118" t="s">
+        <v>460</v>
+      </c>
+      <c r="C19" s="117" t="s">
+        <v>454</v>
+      </c>
+      <c r="D19" s="117" t="s">
+        <v>462</v>
+      </c>
+      <c r="E19" s="117" t="s">
+        <v>455</v>
+      </c>
+      <c r="F19" s="117" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="120" t="s">
+        <v>457</v>
+      </c>
+      <c r="C20" s="123" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="119"/>
+      <c r="E20" s="123" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="128">
-        <v>1</v>
-      </c>
-      <c r="E3" s="128">
-        <v>2</v>
-      </c>
-      <c r="F3" s="128">
-        <v>3</v>
-      </c>
-      <c r="G3" s="128">
-        <v>4</v>
-      </c>
-      <c r="H3" s="128">
-        <v>5</v>
-      </c>
-      <c r="I3" s="128">
-        <v>6</v>
-      </c>
-      <c r="J3" s="128">
-        <v>7</v>
-      </c>
-      <c r="K3" s="128">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11">
-      <c r="B4" s="122" t="s">
-        <v>484</v>
-      </c>
-      <c r="C4" s="121" t="s">
-        <v>473</v>
-      </c>
-      <c r="D4" s="121" t="s">
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="120"/>
+      <c r="C21" s="123" t="s">
+        <v>467</v>
+      </c>
+      <c r="D21" s="119"/>
+      <c r="E21" s="123" t="s">
+        <v>468</v>
+      </c>
+      <c r="F21" s="123" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="120"/>
+      <c r="C22" s="123" t="s">
         <v>474</v>
       </c>
-      <c r="E4" s="121" t="s">
+      <c r="D22" s="119"/>
+      <c r="E22" s="123" t="s">
         <v>475</v>
       </c>
-      <c r="F4" s="121" t="s">
+      <c r="F22" s="123" t="s">
         <v>476</v>
-      </c>
-      <c r="G4" s="121" t="s">
-        <v>477</v>
-      </c>
-      <c r="H4" s="121" t="s">
-        <v>478</v>
-      </c>
-      <c r="I4" s="121" t="s">
-        <v>486</v>
-      </c>
-      <c r="J4" s="121" t="s">
-        <v>479</v>
-      </c>
-      <c r="K4" s="121" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11">
-      <c r="B5" s="125" t="s">
-        <v>481</v>
-      </c>
-      <c r="C5" s="121" t="s">
-        <v>482</v>
-      </c>
-      <c r="D5" s="121" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="121" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="121" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="121" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="121" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" s="123"/>
-      <c r="J5" s="121" t="s">
-        <v>1</v>
-      </c>
-      <c r="K5" s="121" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11">
-      <c r="B6" s="126"/>
-      <c r="C6" s="121" t="s">
-        <v>501</v>
-      </c>
-      <c r="D6" s="121" t="s">
-        <v>487</v>
-      </c>
-      <c r="E6" s="121" t="s">
-        <v>488</v>
-      </c>
-      <c r="F6" s="121" t="s">
-        <v>489</v>
-      </c>
-      <c r="G6" s="121" t="s">
-        <v>490</v>
-      </c>
-      <c r="H6" s="121" t="s">
-        <v>491</v>
-      </c>
-      <c r="I6" s="123"/>
-      <c r="J6" s="121" t="s">
-        <v>492</v>
-      </c>
-      <c r="K6" s="121" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11">
-      <c r="B7" s="126"/>
-      <c r="C7" s="121" t="s">
-        <v>502</v>
-      </c>
-      <c r="D7" s="121" t="s">
-        <v>494</v>
-      </c>
-      <c r="E7" s="121" t="s">
-        <v>495</v>
-      </c>
-      <c r="F7" s="121" t="s">
-        <v>496</v>
-      </c>
-      <c r="G7" s="121" t="s">
-        <v>497</v>
-      </c>
-      <c r="H7" s="121" t="s">
-        <v>498</v>
-      </c>
-      <c r="I7" s="123"/>
-      <c r="J7" s="121" t="s">
-        <v>499</v>
-      </c>
-      <c r="K7" s="121" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11">
-      <c r="B10" s="122" t="s">
-        <v>485</v>
-      </c>
-      <c r="C10" s="122" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="122" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="122" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="122" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11">
-      <c r="B11" s="122" t="s">
-        <v>483</v>
-      </c>
-      <c r="C11" s="121">
-        <v>1</v>
-      </c>
-      <c r="D11" s="121">
-        <v>2</v>
-      </c>
-      <c r="E11" s="121">
-        <v>3</v>
-      </c>
-      <c r="F11" s="121">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11">
-      <c r="B12" s="122" t="s">
-        <v>484</v>
-      </c>
-      <c r="C12" s="121" t="s">
-        <v>474</v>
-      </c>
-      <c r="D12" s="121" t="s">
-        <v>475</v>
-      </c>
-      <c r="E12" s="121" t="s">
-        <v>476</v>
-      </c>
-      <c r="F12" s="121" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11">
-      <c r="B13" s="124" t="s">
-        <v>481</v>
-      </c>
-      <c r="C13" s="127" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="127" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="127" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" s="127" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11">
-      <c r="B14" s="124"/>
-      <c r="C14" s="127" t="s">
-        <v>487</v>
-      </c>
-      <c r="D14" s="127" t="s">
-        <v>488</v>
-      </c>
-      <c r="E14" s="127" t="s">
-        <v>489</v>
-      </c>
-      <c r="F14" s="127" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11">
-      <c r="B15" s="124"/>
-      <c r="C15" s="127" t="s">
-        <v>494</v>
-      </c>
-      <c r="D15" s="127" t="s">
-        <v>495</v>
-      </c>
-      <c r="E15" s="127" t="s">
-        <v>496</v>
-      </c>
-      <c r="F15" s="127" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="122" t="s">
-        <v>485</v>
-      </c>
-      <c r="C17" s="122" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="122" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="122" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="122" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="122" t="s">
-        <v>483</v>
-      </c>
-      <c r="C18" s="121">
-        <v>5</v>
-      </c>
-      <c r="D18" s="121">
-        <v>6</v>
-      </c>
-      <c r="E18" s="121">
-        <v>7</v>
-      </c>
-      <c r="F18" s="121">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="122" t="s">
-        <v>484</v>
-      </c>
-      <c r="C19" s="121" t="s">
-        <v>478</v>
-      </c>
-      <c r="D19" s="121" t="s">
-        <v>486</v>
-      </c>
-      <c r="E19" s="121" t="s">
-        <v>479</v>
-      </c>
-      <c r="F19" s="121" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6">
-      <c r="B20" s="124" t="s">
-        <v>481</v>
-      </c>
-      <c r="C20" s="127" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" s="123"/>
-      <c r="E20" s="127" t="s">
-        <v>1</v>
-      </c>
-      <c r="F20" s="127" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="B21" s="124"/>
-      <c r="C21" s="127" t="s">
-        <v>491</v>
-      </c>
-      <c r="D21" s="123"/>
-      <c r="E21" s="127" t="s">
-        <v>492</v>
-      </c>
-      <c r="F21" s="127" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6">
-      <c r="B22" s="124"/>
-      <c r="C22" s="127" t="s">
-        <v>498</v>
-      </c>
-      <c r="D22" s="123"/>
-      <c r="E22" s="127" t="s">
-        <v>499</v>
-      </c>
-      <c r="F22" s="127" t="s">
-        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -27870,7 +29085,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2163792C-0003-4594-9C9D-B47167582E32}">
   <dimension ref="B1:L7"/>
   <sheetViews>
@@ -27937,31 +29152,31 @@
         <v>8</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="H4" s="19" t="s">
         <v>8</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="J4" s="21" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="K4" s="21" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="L4" s="21" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="5" spans="2:12" s="12" customFormat="1" ht="69">
@@ -27969,31 +29184,31 @@
         <v>4</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="H5" s="20" t="s">
         <v>4</v>
       </c>
       <c r="I5" s="22" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="J5" s="22" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="K5" s="22" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="L5" s="22" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="50.25" customHeight="1"/>
@@ -28004,7 +29219,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97BB9284-E16E-4498-9C6C-90A1969555F4}">
   <dimension ref="B1:L7"/>
   <sheetViews>
@@ -28071,31 +29286,31 @@
         <v>8</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H4" s="19" t="s">
         <v>8</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="J4" s="21" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="K4" s="21" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="L4" s="21" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
     </row>
     <row r="5" spans="2:12" s="12" customFormat="1" ht="69">
@@ -28103,31 +29318,31 @@
         <v>4</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="H5" s="20" t="s">
         <v>4</v>
       </c>
       <c r="I5" s="22" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="J5" s="22" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="K5" s="22" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="L5" s="22" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="50.25" customHeight="1"/>
@@ -28136,210 +29351,4 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E977512E-9623-471B-8642-FB08C07A8D1C}">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="D1:S14"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="G6" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="V12" sqref="V12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="50.25"/>
-  <cols>
-    <col min="1" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="2.75" style="1" customWidth="1"/>
-    <col min="10" max="15" width="9" style="1"/>
-    <col min="16" max="16" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="4:19" ht="10.5" customHeight="1"/>
-    <row r="3" spans="4:19" s="12" customFormat="1" ht="57.75">
-      <c r="J3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="4:19" ht="10.5" customHeight="1"/>
-    <row r="5" spans="4:19" ht="21" customHeight="1">
-      <c r="H5" s="116" t="s">
-        <v>8</v>
-      </c>
-      <c r="J5" s="9" t="str">
-        <f>$H5 &amp; J$3</f>
-        <v>陰平</v>
-      </c>
-      <c r="K5" s="10"/>
-      <c r="L5" s="9" t="str">
-        <f>$H5 &amp; L$3</f>
-        <v>陰上</v>
-      </c>
-      <c r="M5" s="10"/>
-      <c r="N5" s="9" t="str">
-        <f>$H5 &amp; N$3</f>
-        <v>陰去</v>
-      </c>
-      <c r="O5" s="10"/>
-      <c r="P5" s="9" t="str">
-        <f>$H5 &amp; P$3</f>
-        <v>陰入</v>
-      </c>
-    </row>
-    <row r="6" spans="4:19" s="8" customFormat="1" ht="27">
-      <c r="H6" s="115"/>
-      <c r="J6" s="8">
-        <v>1</v>
-      </c>
-      <c r="L6" s="8">
-        <v>2</v>
-      </c>
-      <c r="N6" s="8">
-        <v>3</v>
-      </c>
-      <c r="P6" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="4:19">
-      <c r="H7" s="115"/>
-      <c r="J7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="4:19" s="3" customFormat="1" ht="42" customHeight="1">
-      <c r="D8" s="4"/>
-      <c r="F8" s="5"/>
-      <c r="H8" s="115"/>
-      <c r="J8" s="3">
-        <v>44</v>
-      </c>
-      <c r="L8" s="3">
-        <v>51</v>
-      </c>
-      <c r="N8" s="5">
-        <v>31</v>
-      </c>
-      <c r="P8" s="3">
-        <v>30</v>
-      </c>
-      <c r="S8" s="11"/>
-    </row>
-    <row r="9" spans="4:19">
-      <c r="P9" s="2"/>
-    </row>
-    <row r="10" spans="4:19" ht="21" customHeight="1">
-      <c r="H10" s="115" t="s">
-        <v>4</v>
-      </c>
-      <c r="J10" s="9" t="str">
-        <f>$H10 &amp; J$3</f>
-        <v>陽平</v>
-      </c>
-      <c r="K10" s="10"/>
-      <c r="L10" s="9" t="str">
-        <f>$H10 &amp; L$3</f>
-        <v>陽上</v>
-      </c>
-      <c r="M10" s="10"/>
-      <c r="N10" s="9" t="str">
-        <f>$H10 &amp; N$3</f>
-        <v>陽去</v>
-      </c>
-      <c r="O10" s="10"/>
-      <c r="P10" s="9" t="str">
-        <f>$H10 &amp; P$3</f>
-        <v>陽入</v>
-      </c>
-    </row>
-    <row r="11" spans="4:19" s="8" customFormat="1" ht="27">
-      <c r="H11" s="115"/>
-      <c r="J11" s="8">
-        <v>5</v>
-      </c>
-      <c r="L11" s="8">
-        <v>6</v>
-      </c>
-      <c r="N11" s="8">
-        <v>7</v>
-      </c>
-      <c r="P11" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="4:19">
-      <c r="H12" s="115"/>
-      <c r="J12" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="4:19" s="3" customFormat="1" ht="42" customHeight="1">
-      <c r="D13" s="4"/>
-      <c r="F13" s="5"/>
-      <c r="H13" s="115"/>
-      <c r="J13" s="3">
-        <v>24</v>
-      </c>
-      <c r="L13" s="3">
-        <v>51</v>
-      </c>
-      <c r="N13" s="3">
-        <v>33</v>
-      </c>
-      <c r="P13" s="3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="4:19">
-      <c r="P14" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="H5:H8"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>